--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995723543868299</v>
+        <v>0.9957235438682992</v>
       </c>
       <c r="D2">
         <v>1.015766454278006</v>
@@ -430,7 +430,7 @@
         <v>1.002153003974722</v>
       </c>
       <c r="F2">
-        <v>1.010835197902949</v>
+        <v>1.01083519790295</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006838064291456</v>
+        <v>1.006838064291455</v>
       </c>
       <c r="D4">
-        <v>1.024608276499797</v>
+        <v>1.024608276499795</v>
       </c>
       <c r="E4">
-        <v>1.011391115486558</v>
+        <v>1.011391115486556</v>
       </c>
       <c r="F4">
-        <v>1.022827106136102</v>
+        <v>1.022827106136101</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048312707748736</v>
+        <v>1.048312707748735</v>
       </c>
       <c r="J4">
-        <v>1.026068454497033</v>
+        <v>1.026068454497032</v>
       </c>
       <c r="K4">
-        <v>1.034418503244914</v>
+        <v>1.034418503244913</v>
       </c>
       <c r="L4">
-        <v>1.021353976651542</v>
+        <v>1.021353976651541</v>
       </c>
       <c r="M4">
-        <v>1.032657618424643</v>
+        <v>1.032657618424642</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00861177891605</v>
+        <v>1.008611778916051</v>
       </c>
       <c r="D5">
         <v>1.026020000192938</v>
@@ -544,19 +544,19 @@
         <v>1.012867993093975</v>
       </c>
       <c r="F5">
-        <v>1.024742136750232</v>
+        <v>1.024742136750233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048991577152209</v>
+        <v>1.04899157715221</v>
       </c>
       <c r="J5">
-        <v>1.02734832863377</v>
+        <v>1.027348328633771</v>
       </c>
       <c r="K5">
-        <v>1.035597221002635</v>
+        <v>1.035597221002636</v>
       </c>
       <c r="L5">
         <v>1.022592785156557</v>
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008907929978144</v>
+        <v>1.008907929978145</v>
       </c>
       <c r="D6">
         <v>1.026255725915659</v>
@@ -591,7 +591,7 @@
         <v>1.049104719494319</v>
       </c>
       <c r="J6">
-        <v>1.027561950882284</v>
+        <v>1.027561950882285</v>
       </c>
       <c r="K6">
         <v>1.035793923845386</v>
@@ -600,7 +600,7 @@
         <v>1.022799580576349</v>
       </c>
       <c r="M6">
-        <v>1.034613258192974</v>
+        <v>1.034613258192973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,31 +614,31 @@
         <v>1.006861877171671</v>
       </c>
       <c r="D7">
-        <v>1.02462722843285</v>
+        <v>1.024627228432849</v>
       </c>
       <c r="E7">
-        <v>1.011410938458199</v>
+        <v>1.011410938458198</v>
       </c>
       <c r="F7">
-        <v>1.022852813663646</v>
+        <v>1.022852813663645</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048321835703148</v>
+        <v>1.048321835703147</v>
       </c>
       <c r="J7">
-        <v>1.026085642300859</v>
+        <v>1.026085642300858</v>
       </c>
       <c r="K7">
-        <v>1.034434334973124</v>
+        <v>1.034434334973123</v>
       </c>
       <c r="L7">
-        <v>1.021370611123081</v>
+        <v>1.02137061112308</v>
       </c>
       <c r="M7">
-        <v>1.032680120971933</v>
+        <v>1.032680120971932</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998058097265707</v>
+        <v>0.9980580972657076</v>
       </c>
       <c r="D8">
         <v>1.017622917380761</v>
@@ -667,13 +667,13 @@
         <v>1.04492305728795</v>
       </c>
       <c r="J8">
-        <v>1.019722780345982</v>
+        <v>1.019722780345983</v>
       </c>
       <c r="K8">
-        <v>1.02856935116797</v>
+        <v>1.028569351167971</v>
       </c>
       <c r="L8">
-        <v>1.015215916796145</v>
+        <v>1.015215916796146</v>
       </c>
       <c r="M8">
         <v>1.024355059708526</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9814792421332617</v>
+        <v>0.9814792421332608</v>
       </c>
       <c r="D9">
-        <v>1.004449900509385</v>
+        <v>1.004449900509384</v>
       </c>
       <c r="E9">
-        <v>0.9903551901726395</v>
+        <v>0.9903551901726388</v>
       </c>
       <c r="F9">
-        <v>0.9954828364790675</v>
+        <v>0.9954828364790663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038409182392224</v>
+        <v>1.038409182392223</v>
       </c>
       <c r="J9">
         <v>1.007703405939603</v>
       </c>
       <c r="K9">
-        <v>1.017471191404745</v>
+        <v>1.017471191404743</v>
       </c>
       <c r="L9">
-        <v>1.003606710215245</v>
+        <v>1.003606710215244</v>
       </c>
       <c r="M9">
-        <v>1.00864962913768</v>
+        <v>1.008649629137679</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9695831226379907</v>
+        <v>0.9695831226379906</v>
       </c>
       <c r="D10">
-        <v>0.9950160715351766</v>
+        <v>0.9950160715351761</v>
       </c>
       <c r="E10">
-        <v>0.9805389081556903</v>
+        <v>0.9805389081556902</v>
       </c>
       <c r="F10">
-        <v>0.9826711842053857</v>
+        <v>0.982671184205385</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.009475899214914</v>
       </c>
       <c r="L10">
-        <v>0.9952686592989887</v>
+        <v>0.9952686592989886</v>
       </c>
       <c r="M10">
-        <v>0.9973605268226857</v>
+        <v>0.9973605268226852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641987001301247</v>
+        <v>0.9641987001301245</v>
       </c>
       <c r="D11">
-        <v>0.9907522198917028</v>
+        <v>0.9907522198917025</v>
       </c>
       <c r="E11">
-        <v>0.9761070766513369</v>
+        <v>0.9761070766513371</v>
       </c>
       <c r="F11">
-        <v>0.9768743718147342</v>
+        <v>0.9768743718147338</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.005850668769778</v>
       </c>
       <c r="L11">
-        <v>0.9914940969254405</v>
+        <v>0.9914940969254407</v>
       </c>
       <c r="M11">
-        <v>0.992245990496913</v>
+        <v>0.9922459904969124</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9621603681655367</v>
+        <v>0.962160368165537</v>
       </c>
       <c r="D12">
-        <v>0.9891391696994029</v>
+        <v>0.9891391696994031</v>
       </c>
       <c r="E12">
-        <v>0.9744312104057349</v>
+        <v>0.9744312104057352</v>
       </c>
       <c r="F12">
-        <v>0.9746801622828557</v>
+        <v>0.9746801622828565</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.030673851745844</v>
       </c>
       <c r="J12">
-        <v>0.9936572270816042</v>
+        <v>0.9936572270816046</v>
       </c>
       <c r="K12">
         <v>1.00447744664992</v>
       </c>
       <c r="L12">
-        <v>0.9900652284136094</v>
+        <v>0.9900652284136099</v>
       </c>
       <c r="M12">
-        <v>0.9903090765191362</v>
+        <v>0.9903090765191367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.962599388265433</v>
+        <v>0.9625993882654318</v>
       </c>
       <c r="D13">
-        <v>0.9894865403321315</v>
+        <v>0.9894865403321306</v>
       </c>
       <c r="E13">
-        <v>0.9747920754469879</v>
+        <v>0.974792075446987</v>
       </c>
       <c r="F13">
-        <v>0.9751527460300113</v>
+        <v>0.9751527460300103</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030851040796395</v>
+        <v>1.030851040796394</v>
       </c>
       <c r="J13">
-        <v>0.9939767418698241</v>
+        <v>0.9939767418698231</v>
       </c>
       <c r="K13">
-        <v>1.004773250580556</v>
+        <v>1.004773250580555</v>
       </c>
       <c r="L13">
-        <v>0.9903729774265428</v>
+        <v>0.9903729774265421</v>
       </c>
       <c r="M13">
-        <v>0.9907262872367809</v>
+        <v>0.9907262872367798</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640310130154057</v>
+        <v>0.9640310130154039</v>
       </c>
       <c r="D14">
-        <v>0.990619496521097</v>
+        <v>0.9906194965210954</v>
       </c>
       <c r="E14">
-        <v>0.9759691698674077</v>
+        <v>0.9759691698674057</v>
       </c>
       <c r="F14">
-        <v>0.9766938567365553</v>
+        <v>0.9766938567365538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031428437752518</v>
+        <v>1.031428437752517</v>
       </c>
       <c r="J14">
-        <v>0.9950185862579685</v>
+        <v>0.9950185862579665</v>
       </c>
       <c r="K14">
-        <v>1.005737714729948</v>
+        <v>1.005737714729947</v>
       </c>
       <c r="L14">
-        <v>0.9913765470140103</v>
+        <v>0.9913765470140086</v>
       </c>
       <c r="M14">
-        <v>0.9920866620637184</v>
+        <v>0.9920866620637167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9649079020498261</v>
+        <v>0.964907902049826</v>
       </c>
       <c r="D15">
         <v>0.9913135938566845</v>
       </c>
       <c r="E15">
-        <v>0.9766904044194061</v>
+        <v>0.9766904044194062</v>
       </c>
       <c r="F15">
-        <v>0.97763783649043</v>
+        <v>0.9776378364904297</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.031781787150123</v>
       </c>
       <c r="J15">
-        <v>0.9956566673994116</v>
+        <v>0.9956566673994115</v>
       </c>
       <c r="K15">
         <v>1.006328353257407</v>
       </c>
       <c r="L15">
-        <v>0.9919912548461685</v>
+        <v>0.9919912548461687</v>
       </c>
       <c r="M15">
-        <v>0.9929198102815165</v>
+        <v>0.9929198102815163</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9699352839564532</v>
+        <v>0.969935283956453</v>
       </c>
       <c r="D16">
-        <v>0.9952950826170878</v>
+        <v>0.9952950826170874</v>
       </c>
       <c r="E16">
-        <v>0.9808290121630391</v>
+        <v>0.980829012163039</v>
       </c>
       <c r="F16">
-        <v>0.983050353638022</v>
+        <v>0.9830503536380216</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033802805530119</v>
       </c>
       <c r="J16">
-        <v>0.9993138969710921</v>
+        <v>0.9993138969710919</v>
       </c>
       <c r="K16">
         <v>1.009712879358115</v>
       </c>
       <c r="L16">
-        <v>0.9955155274750038</v>
+        <v>0.9955155274750036</v>
       </c>
       <c r="M16">
-        <v>0.9976949343919043</v>
+        <v>0.9976949343919039</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9730241832458513</v>
+        <v>0.9730241832458514</v>
       </c>
       <c r="D17">
-        <v>0.9977430668311813</v>
+        <v>0.9977430668311816</v>
       </c>
       <c r="E17">
-        <v>0.9833748740612145</v>
+        <v>0.9833748740612147</v>
       </c>
       <c r="F17">
-        <v>0.9863763671734679</v>
+        <v>0.9863763671734682</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.001559981081711</v>
       </c>
       <c r="K17">
-        <v>1.011790784322454</v>
+        <v>1.011790784322455</v>
       </c>
       <c r="L17">
-        <v>0.9976808194784146</v>
+        <v>0.9976808194784148</v>
       </c>
       <c r="M17">
-        <v>1.000627560428514</v>
+        <v>1.000627560428515</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748036147317714</v>
+        <v>0.9748036147317721</v>
       </c>
       <c r="D18">
-        <v>0.999153845117094</v>
+        <v>0.9991538451170947</v>
       </c>
       <c r="E18">
-        <v>0.9848425182562373</v>
+        <v>0.9848425182562378</v>
       </c>
       <c r="F18">
-        <v>0.9882925861040036</v>
+        <v>0.9882925861040044</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,10 +1050,10 @@
         <v>1.002853508873505</v>
       </c>
       <c r="K18">
-        <v>1.012987200298392</v>
+        <v>1.012987200298393</v>
       </c>
       <c r="L18">
-        <v>0.998928121469001</v>
+        <v>0.9989281214690015</v>
       </c>
       <c r="M18">
         <v>1.002316511848184</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754066697727114</v>
+        <v>0.9754066697727122</v>
       </c>
       <c r="D19">
-        <v>0.999632052969087</v>
+        <v>0.9996320529690876</v>
       </c>
       <c r="E19">
-        <v>0.985340079666171</v>
+        <v>0.9853400796661722</v>
       </c>
       <c r="F19">
-        <v>0.988942033184502</v>
+        <v>0.9889420331845027</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035992375523223</v>
+        <v>1.035992375523224</v>
       </c>
       <c r="J19">
-        <v>1.003291822239731</v>
+        <v>1.003291822239732</v>
       </c>
       <c r="K19">
-        <v>1.01339256313196</v>
+        <v>1.013392563131961</v>
       </c>
       <c r="L19">
-        <v>0.999350821799814</v>
+        <v>0.9993508217998149</v>
       </c>
       <c r="M19">
-        <v>1.002888826199749</v>
+        <v>1.00288882619975</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9726950994656144</v>
+        <v>0.9726950994656148</v>
       </c>
       <c r="D20">
-        <v>0.9974822052085696</v>
+        <v>0.99748220520857</v>
       </c>
       <c r="E20">
         <v>0.9831035347490937</v>
       </c>
       <c r="F20">
-        <v>0.9860220022474886</v>
+        <v>0.9860220022474894</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,13 +1126,13 @@
         <v>1.001320727655544</v>
       </c>
       <c r="K20">
-        <v>1.011569471953803</v>
+        <v>1.011569471953804</v>
       </c>
       <c r="L20">
-        <v>0.9974501404162018</v>
+        <v>0.9974501404162019</v>
       </c>
       <c r="M20">
-        <v>1.000315173061874</v>
+        <v>1.000315173061875</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636105212885863</v>
+        <v>0.9636105212885855</v>
       </c>
       <c r="D21">
-        <v>0.9902866976846486</v>
+        <v>0.9902866976846478</v>
       </c>
       <c r="E21">
-        <v>0.9756233855900214</v>
+        <v>0.9756233855900204</v>
       </c>
       <c r="F21">
-        <v>0.9762412012255762</v>
+        <v>0.9762412012255755</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031258912190492</v>
+        <v>1.031258912190491</v>
       </c>
       <c r="J21">
-        <v>0.9947125922521759</v>
+        <v>0.9947125922521752</v>
       </c>
       <c r="K21">
         <v>1.005454458206488</v>
       </c>
       <c r="L21">
-        <v>0.9910817801686255</v>
+        <v>0.9910817801686245</v>
       </c>
       <c r="M21">
-        <v>0.9916871184019989</v>
+        <v>0.9916871184019983</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,31 +1181,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576750527820637</v>
+        <v>0.9576750527820642</v>
       </c>
       <c r="D22">
-        <v>0.9855918628325363</v>
+        <v>0.9855918628325366</v>
       </c>
       <c r="E22">
-        <v>0.9707471130737343</v>
+        <v>0.9707471130737347</v>
       </c>
       <c r="F22">
-        <v>0.969852199188015</v>
+        <v>0.9698521991880154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028860327221167</v>
+        <v>1.028860327221168</v>
       </c>
       <c r="J22">
-        <v>0.9903922695500055</v>
+        <v>0.9903922695500059</v>
       </c>
       <c r="K22">
-        <v>1.001454255153517</v>
+        <v>1.001454255153518</v>
       </c>
       <c r="L22">
-        <v>0.986921235907527</v>
+        <v>0.9869212359075277</v>
       </c>
       <c r="M22">
         <v>0.9860455191418647</v>
@@ -1216,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9608439589715182</v>
+        <v>0.960843958971518</v>
       </c>
       <c r="D23">
-        <v>0.9880977443824845</v>
+        <v>0.9880977443824848</v>
       </c>
       <c r="E23">
         <v>0.973349435834664</v>
       </c>
       <c r="F23">
-        <v>0.9732631412417568</v>
+        <v>0.9732631412417571</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.03014220141766</v>
       </c>
       <c r="J23">
-        <v>0.9926990919053641</v>
+        <v>0.9926990919053643</v>
       </c>
       <c r="K23">
-        <v>1.003590357835913</v>
+        <v>1.003590357835914</v>
       </c>
       <c r="L23">
-        <v>0.9891424528323972</v>
+        <v>0.9891424528323971</v>
       </c>
       <c r="M23">
-        <v>0.9890579513441375</v>
+        <v>0.9890579513441379</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728438668435873</v>
+        <v>0.9728438668435883</v>
       </c>
       <c r="D24">
-        <v>0.9976001299824826</v>
+        <v>0.9976001299824832</v>
       </c>
       <c r="E24">
-        <v>0.9832261946289191</v>
+        <v>0.98322619462892</v>
       </c>
       <c r="F24">
-        <v>0.9861821977537203</v>
+        <v>0.986182197753722</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034968128319098</v>
+        <v>1.034968128319099</v>
       </c>
       <c r="J24">
-        <v>1.001428887031807</v>
+        <v>1.001428887031808</v>
       </c>
       <c r="K24">
-        <v>1.011669521509543</v>
+        <v>1.011669521509544</v>
       </c>
       <c r="L24">
-        <v>0.9975544226384478</v>
+        <v>0.9975544226384485</v>
       </c>
       <c r="M24">
-        <v>1.000456393982463</v>
+        <v>1.000456393982464</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859037712227676</v>
+        <v>0.9859037712227682</v>
       </c>
       <c r="D25">
         <v>1.007962860718316</v>
       </c>
       <c r="E25">
-        <v>0.9940147296015091</v>
+        <v>0.9940147296015095</v>
       </c>
       <c r="F25">
         <v>1.000249927025979</v>
@@ -1313,13 +1313,13 @@
         <v>1.040160395061682</v>
       </c>
       <c r="J25">
-        <v>1.01091502377499</v>
+        <v>1.010915023774991</v>
       </c>
       <c r="K25">
         <v>1.020438808477417</v>
       </c>
       <c r="L25">
-        <v>1.006706675232465</v>
+        <v>1.006706675232466</v>
       </c>
       <c r="M25">
         <v>1.012844364437697</v>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9957235438682992</v>
+        <v>0.995723543868299</v>
       </c>
       <c r="D2">
         <v>1.015766454278006</v>
@@ -430,7 +430,7 @@
         <v>1.002153003974722</v>
       </c>
       <c r="F2">
-        <v>1.01083519790295</v>
+        <v>1.010835197902949</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006838064291455</v>
+        <v>1.006838064291456</v>
       </c>
       <c r="D4">
-        <v>1.024608276499795</v>
+        <v>1.024608276499797</v>
       </c>
       <c r="E4">
-        <v>1.011391115486556</v>
+        <v>1.011391115486558</v>
       </c>
       <c r="F4">
-        <v>1.022827106136101</v>
+        <v>1.022827106136102</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048312707748735</v>
+        <v>1.048312707748736</v>
       </c>
       <c r="J4">
-        <v>1.026068454497032</v>
+        <v>1.026068454497033</v>
       </c>
       <c r="K4">
-        <v>1.034418503244913</v>
+        <v>1.034418503244914</v>
       </c>
       <c r="L4">
-        <v>1.021353976651541</v>
+        <v>1.021353976651542</v>
       </c>
       <c r="M4">
-        <v>1.032657618424642</v>
+        <v>1.032657618424643</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008611778916051</v>
+        <v>1.00861177891605</v>
       </c>
       <c r="D5">
         <v>1.026020000192938</v>
@@ -544,19 +544,19 @@
         <v>1.012867993093975</v>
       </c>
       <c r="F5">
-        <v>1.024742136750233</v>
+        <v>1.024742136750232</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04899157715221</v>
+        <v>1.048991577152209</v>
       </c>
       <c r="J5">
-        <v>1.027348328633771</v>
+        <v>1.02734832863377</v>
       </c>
       <c r="K5">
-        <v>1.035597221002636</v>
+        <v>1.035597221002635</v>
       </c>
       <c r="L5">
         <v>1.022592785156557</v>
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008907929978145</v>
+        <v>1.008907929978144</v>
       </c>
       <c r="D6">
         <v>1.026255725915659</v>
@@ -591,7 +591,7 @@
         <v>1.049104719494319</v>
       </c>
       <c r="J6">
-        <v>1.027561950882285</v>
+        <v>1.027561950882284</v>
       </c>
       <c r="K6">
         <v>1.035793923845386</v>
@@ -600,7 +600,7 @@
         <v>1.022799580576349</v>
       </c>
       <c r="M6">
-        <v>1.034613258192973</v>
+        <v>1.034613258192974</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,31 +614,31 @@
         <v>1.006861877171671</v>
       </c>
       <c r="D7">
-        <v>1.024627228432849</v>
+        <v>1.02462722843285</v>
       </c>
       <c r="E7">
-        <v>1.011410938458198</v>
+        <v>1.011410938458199</v>
       </c>
       <c r="F7">
-        <v>1.022852813663645</v>
+        <v>1.022852813663646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048321835703147</v>
+        <v>1.048321835703148</v>
       </c>
       <c r="J7">
-        <v>1.026085642300858</v>
+        <v>1.026085642300859</v>
       </c>
       <c r="K7">
-        <v>1.034434334973123</v>
+        <v>1.034434334973124</v>
       </c>
       <c r="L7">
-        <v>1.02137061112308</v>
+        <v>1.021370611123081</v>
       </c>
       <c r="M7">
-        <v>1.032680120971932</v>
+        <v>1.032680120971933</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980580972657076</v>
+        <v>0.998058097265707</v>
       </c>
       <c r="D8">
         <v>1.017622917380761</v>
@@ -667,13 +667,13 @@
         <v>1.04492305728795</v>
       </c>
       <c r="J8">
-        <v>1.019722780345983</v>
+        <v>1.019722780345982</v>
       </c>
       <c r="K8">
-        <v>1.028569351167971</v>
+        <v>1.02856935116797</v>
       </c>
       <c r="L8">
-        <v>1.015215916796146</v>
+        <v>1.015215916796145</v>
       </c>
       <c r="M8">
         <v>1.024355059708526</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9814792421332608</v>
+        <v>0.9814792421332617</v>
       </c>
       <c r="D9">
-        <v>1.004449900509384</v>
+        <v>1.004449900509385</v>
       </c>
       <c r="E9">
-        <v>0.9903551901726388</v>
+        <v>0.9903551901726395</v>
       </c>
       <c r="F9">
-        <v>0.9954828364790663</v>
+        <v>0.9954828364790675</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038409182392223</v>
+        <v>1.038409182392224</v>
       </c>
       <c r="J9">
         <v>1.007703405939603</v>
       </c>
       <c r="K9">
-        <v>1.017471191404743</v>
+        <v>1.017471191404745</v>
       </c>
       <c r="L9">
-        <v>1.003606710215244</v>
+        <v>1.003606710215245</v>
       </c>
       <c r="M9">
-        <v>1.008649629137679</v>
+        <v>1.00864962913768</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9695831226379906</v>
+        <v>0.9695831226379907</v>
       </c>
       <c r="D10">
-        <v>0.9950160715351761</v>
+        <v>0.9950160715351766</v>
       </c>
       <c r="E10">
-        <v>0.9805389081556902</v>
+        <v>0.9805389081556903</v>
       </c>
       <c r="F10">
-        <v>0.982671184205385</v>
+        <v>0.9826711842053857</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.009475899214914</v>
       </c>
       <c r="L10">
-        <v>0.9952686592989886</v>
+        <v>0.9952686592989887</v>
       </c>
       <c r="M10">
-        <v>0.9973605268226852</v>
+        <v>0.9973605268226857</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641987001301245</v>
+        <v>0.9641987001301247</v>
       </c>
       <c r="D11">
-        <v>0.9907522198917025</v>
+        <v>0.9907522198917028</v>
       </c>
       <c r="E11">
-        <v>0.9761070766513371</v>
+        <v>0.9761070766513369</v>
       </c>
       <c r="F11">
-        <v>0.9768743718147338</v>
+        <v>0.9768743718147342</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>1.005850668769778</v>
       </c>
       <c r="L11">
-        <v>0.9914940969254407</v>
+        <v>0.9914940969254405</v>
       </c>
       <c r="M11">
-        <v>0.9922459904969124</v>
+        <v>0.992245990496913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.962160368165537</v>
+        <v>0.9621603681655367</v>
       </c>
       <c r="D12">
-        <v>0.9891391696994031</v>
+        <v>0.9891391696994029</v>
       </c>
       <c r="E12">
-        <v>0.9744312104057352</v>
+        <v>0.9744312104057349</v>
       </c>
       <c r="F12">
-        <v>0.9746801622828565</v>
+        <v>0.9746801622828557</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.030673851745844</v>
       </c>
       <c r="J12">
-        <v>0.9936572270816046</v>
+        <v>0.9936572270816042</v>
       </c>
       <c r="K12">
         <v>1.00447744664992</v>
       </c>
       <c r="L12">
-        <v>0.9900652284136099</v>
+        <v>0.9900652284136094</v>
       </c>
       <c r="M12">
-        <v>0.9903090765191367</v>
+        <v>0.9903090765191362</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9625993882654318</v>
+        <v>0.962599388265433</v>
       </c>
       <c r="D13">
-        <v>0.9894865403321306</v>
+        <v>0.9894865403321315</v>
       </c>
       <c r="E13">
-        <v>0.974792075446987</v>
+        <v>0.9747920754469879</v>
       </c>
       <c r="F13">
-        <v>0.9751527460300103</v>
+        <v>0.9751527460300113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030851040796394</v>
+        <v>1.030851040796395</v>
       </c>
       <c r="J13">
-        <v>0.9939767418698231</v>
+        <v>0.9939767418698241</v>
       </c>
       <c r="K13">
-        <v>1.004773250580555</v>
+        <v>1.004773250580556</v>
       </c>
       <c r="L13">
-        <v>0.9903729774265421</v>
+        <v>0.9903729774265428</v>
       </c>
       <c r="M13">
-        <v>0.9907262872367798</v>
+        <v>0.9907262872367809</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640310130154039</v>
+        <v>0.9640310130154057</v>
       </c>
       <c r="D14">
-        <v>0.9906194965210954</v>
+        <v>0.990619496521097</v>
       </c>
       <c r="E14">
-        <v>0.9759691698674057</v>
+        <v>0.9759691698674077</v>
       </c>
       <c r="F14">
-        <v>0.9766938567365538</v>
+        <v>0.9766938567365553</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031428437752517</v>
+        <v>1.031428437752518</v>
       </c>
       <c r="J14">
-        <v>0.9950185862579665</v>
+        <v>0.9950185862579685</v>
       </c>
       <c r="K14">
-        <v>1.005737714729947</v>
+        <v>1.005737714729948</v>
       </c>
       <c r="L14">
-        <v>0.9913765470140086</v>
+        <v>0.9913765470140103</v>
       </c>
       <c r="M14">
-        <v>0.9920866620637167</v>
+        <v>0.9920866620637184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.964907902049826</v>
+        <v>0.9649079020498261</v>
       </c>
       <c r="D15">
         <v>0.9913135938566845</v>
       </c>
       <c r="E15">
-        <v>0.9766904044194062</v>
+        <v>0.9766904044194061</v>
       </c>
       <c r="F15">
-        <v>0.9776378364904297</v>
+        <v>0.97763783649043</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.031781787150123</v>
       </c>
       <c r="J15">
-        <v>0.9956566673994115</v>
+        <v>0.9956566673994116</v>
       </c>
       <c r="K15">
         <v>1.006328353257407</v>
       </c>
       <c r="L15">
-        <v>0.9919912548461687</v>
+        <v>0.9919912548461685</v>
       </c>
       <c r="M15">
-        <v>0.9929198102815163</v>
+        <v>0.9929198102815165</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.969935283956453</v>
+        <v>0.9699352839564532</v>
       </c>
       <c r="D16">
-        <v>0.9952950826170874</v>
+        <v>0.9952950826170878</v>
       </c>
       <c r="E16">
-        <v>0.980829012163039</v>
+        <v>0.9808290121630391</v>
       </c>
       <c r="F16">
-        <v>0.9830503536380216</v>
+        <v>0.983050353638022</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033802805530119</v>
       </c>
       <c r="J16">
-        <v>0.9993138969710919</v>
+        <v>0.9993138969710921</v>
       </c>
       <c r="K16">
         <v>1.009712879358115</v>
       </c>
       <c r="L16">
-        <v>0.9955155274750036</v>
+        <v>0.9955155274750038</v>
       </c>
       <c r="M16">
-        <v>0.9976949343919039</v>
+        <v>0.9976949343919043</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9730241832458514</v>
+        <v>0.9730241832458513</v>
       </c>
       <c r="D17">
-        <v>0.9977430668311816</v>
+        <v>0.9977430668311813</v>
       </c>
       <c r="E17">
-        <v>0.9833748740612147</v>
+        <v>0.9833748740612145</v>
       </c>
       <c r="F17">
-        <v>0.9863763671734682</v>
+        <v>0.9863763671734679</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.001559981081711</v>
       </c>
       <c r="K17">
-        <v>1.011790784322455</v>
+        <v>1.011790784322454</v>
       </c>
       <c r="L17">
-        <v>0.9976808194784148</v>
+        <v>0.9976808194784146</v>
       </c>
       <c r="M17">
-        <v>1.000627560428515</v>
+        <v>1.000627560428514</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748036147317721</v>
+        <v>0.9748036147317714</v>
       </c>
       <c r="D18">
-        <v>0.9991538451170947</v>
+        <v>0.999153845117094</v>
       </c>
       <c r="E18">
-        <v>0.9848425182562378</v>
+        <v>0.9848425182562373</v>
       </c>
       <c r="F18">
-        <v>0.9882925861040044</v>
+        <v>0.9882925861040036</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,10 +1050,10 @@
         <v>1.002853508873505</v>
       </c>
       <c r="K18">
-        <v>1.012987200298393</v>
+        <v>1.012987200298392</v>
       </c>
       <c r="L18">
-        <v>0.9989281214690015</v>
+        <v>0.998928121469001</v>
       </c>
       <c r="M18">
         <v>1.002316511848184</v>
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754066697727122</v>
+        <v>0.9754066697727114</v>
       </c>
       <c r="D19">
-        <v>0.9996320529690876</v>
+        <v>0.999632052969087</v>
       </c>
       <c r="E19">
-        <v>0.9853400796661722</v>
+        <v>0.985340079666171</v>
       </c>
       <c r="F19">
-        <v>0.9889420331845027</v>
+        <v>0.988942033184502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035992375523224</v>
+        <v>1.035992375523223</v>
       </c>
       <c r="J19">
-        <v>1.003291822239732</v>
+        <v>1.003291822239731</v>
       </c>
       <c r="K19">
-        <v>1.013392563131961</v>
+        <v>1.01339256313196</v>
       </c>
       <c r="L19">
-        <v>0.9993508217998149</v>
+        <v>0.999350821799814</v>
       </c>
       <c r="M19">
-        <v>1.00288882619975</v>
+        <v>1.002888826199749</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9726950994656148</v>
+        <v>0.9726950994656144</v>
       </c>
       <c r="D20">
-        <v>0.99748220520857</v>
+        <v>0.9974822052085696</v>
       </c>
       <c r="E20">
         <v>0.9831035347490937</v>
       </c>
       <c r="F20">
-        <v>0.9860220022474894</v>
+        <v>0.9860220022474886</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,13 +1126,13 @@
         <v>1.001320727655544</v>
       </c>
       <c r="K20">
-        <v>1.011569471953804</v>
+        <v>1.011569471953803</v>
       </c>
       <c r="L20">
-        <v>0.9974501404162019</v>
+        <v>0.9974501404162018</v>
       </c>
       <c r="M20">
-        <v>1.000315173061875</v>
+        <v>1.000315173061874</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636105212885855</v>
+        <v>0.9636105212885863</v>
       </c>
       <c r="D21">
-        <v>0.9902866976846478</v>
+        <v>0.9902866976846486</v>
       </c>
       <c r="E21">
-        <v>0.9756233855900204</v>
+        <v>0.9756233855900214</v>
       </c>
       <c r="F21">
-        <v>0.9762412012255755</v>
+        <v>0.9762412012255762</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031258912190491</v>
+        <v>1.031258912190492</v>
       </c>
       <c r="J21">
-        <v>0.9947125922521752</v>
+        <v>0.9947125922521759</v>
       </c>
       <c r="K21">
         <v>1.005454458206488</v>
       </c>
       <c r="L21">
-        <v>0.9910817801686245</v>
+        <v>0.9910817801686255</v>
       </c>
       <c r="M21">
-        <v>0.9916871184019983</v>
+        <v>0.9916871184019989</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,31 +1181,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576750527820642</v>
+        <v>0.9576750527820637</v>
       </c>
       <c r="D22">
-        <v>0.9855918628325366</v>
+        <v>0.9855918628325363</v>
       </c>
       <c r="E22">
-        <v>0.9707471130737347</v>
+        <v>0.9707471130737343</v>
       </c>
       <c r="F22">
-        <v>0.9698521991880154</v>
+        <v>0.969852199188015</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028860327221168</v>
+        <v>1.028860327221167</v>
       </c>
       <c r="J22">
-        <v>0.9903922695500059</v>
+        <v>0.9903922695500055</v>
       </c>
       <c r="K22">
-        <v>1.001454255153518</v>
+        <v>1.001454255153517</v>
       </c>
       <c r="L22">
-        <v>0.9869212359075277</v>
+        <v>0.986921235907527</v>
       </c>
       <c r="M22">
         <v>0.9860455191418647</v>
@@ -1216,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.960843958971518</v>
+        <v>0.9608439589715182</v>
       </c>
       <c r="D23">
-        <v>0.9880977443824848</v>
+        <v>0.9880977443824845</v>
       </c>
       <c r="E23">
         <v>0.973349435834664</v>
       </c>
       <c r="F23">
-        <v>0.9732631412417571</v>
+        <v>0.9732631412417568</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.03014220141766</v>
       </c>
       <c r="J23">
-        <v>0.9926990919053643</v>
+        <v>0.9926990919053641</v>
       </c>
       <c r="K23">
-        <v>1.003590357835914</v>
+        <v>1.003590357835913</v>
       </c>
       <c r="L23">
-        <v>0.9891424528323971</v>
+        <v>0.9891424528323972</v>
       </c>
       <c r="M23">
-        <v>0.9890579513441379</v>
+        <v>0.9890579513441375</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728438668435883</v>
+        <v>0.9728438668435873</v>
       </c>
       <c r="D24">
-        <v>0.9976001299824832</v>
+        <v>0.9976001299824826</v>
       </c>
       <c r="E24">
-        <v>0.98322619462892</v>
+        <v>0.9832261946289191</v>
       </c>
       <c r="F24">
-        <v>0.986182197753722</v>
+        <v>0.9861821977537203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034968128319099</v>
+        <v>1.034968128319098</v>
       </c>
       <c r="J24">
-        <v>1.001428887031808</v>
+        <v>1.001428887031807</v>
       </c>
       <c r="K24">
-        <v>1.011669521509544</v>
+        <v>1.011669521509543</v>
       </c>
       <c r="L24">
-        <v>0.9975544226384485</v>
+        <v>0.9975544226384478</v>
       </c>
       <c r="M24">
-        <v>1.000456393982464</v>
+        <v>1.000456393982463</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859037712227682</v>
+        <v>0.9859037712227676</v>
       </c>
       <c r="D25">
         <v>1.007962860718316</v>
       </c>
       <c r="E25">
-        <v>0.9940147296015095</v>
+        <v>0.9940147296015091</v>
       </c>
       <c r="F25">
         <v>1.000249927025979</v>
@@ -1313,13 +1313,13 @@
         <v>1.040160395061682</v>
       </c>
       <c r="J25">
-        <v>1.010915023774991</v>
+        <v>1.01091502377499</v>
       </c>
       <c r="K25">
         <v>1.020438808477417</v>
       </c>
       <c r="L25">
-        <v>1.006706675232466</v>
+        <v>1.006706675232465</v>
       </c>
       <c r="M25">
         <v>1.012844364437697</v>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995723543868299</v>
+        <v>0.9957330206602251</v>
       </c>
       <c r="D2">
-        <v>1.015766454278006</v>
+        <v>1.015774169793674</v>
       </c>
       <c r="E2">
-        <v>1.002153003974722</v>
+        <v>1.002162904351763</v>
       </c>
       <c r="F2">
-        <v>1.010835197902949</v>
+        <v>1.010842065534137</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04401418708463</v>
+        <v>1.044018636042727</v>
       </c>
       <c r="J2">
-        <v>1.018032919716039</v>
+        <v>1.01804210969898</v>
       </c>
       <c r="K2">
-        <v>1.027010421774958</v>
+        <v>1.027018033954298</v>
       </c>
       <c r="L2">
-        <v>1.013582425305418</v>
+        <v>1.013592188502622</v>
       </c>
       <c r="M2">
-        <v>1.022145617199066</v>
+        <v>1.022152391717432</v>
+      </c>
+      <c r="N2">
+        <v>1.013421791331577</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002549647780314</v>
+        <v>1.002555011948459</v>
       </c>
       <c r="D3">
-        <v>1.021195782715098</v>
+        <v>1.021200155260571</v>
       </c>
       <c r="E3">
-        <v>1.007823342351359</v>
+        <v>1.007829485048888</v>
       </c>
       <c r="F3">
-        <v>1.01819857794556</v>
+        <v>1.018202452094369</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046662948973362</v>
+        <v>1.046665472746173</v>
       </c>
       <c r="J3">
-        <v>1.022971047324483</v>
+        <v>1.022976266271292</v>
       </c>
       <c r="K3">
-        <v>1.031564456521971</v>
+        <v>1.031568775969453</v>
       </c>
       <c r="L3">
-        <v>1.018357091202633</v>
+        <v>1.018363156818257</v>
       </c>
       <c r="M3">
-        <v>1.028603781697821</v>
+        <v>1.028607608455895</v>
+      </c>
+      <c r="N3">
+        <v>1.016899112850569</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006838064291456</v>
+        <v>1.00684088846426</v>
       </c>
       <c r="D4">
-        <v>1.024608276499797</v>
+        <v>1.024610580296837</v>
       </c>
       <c r="E4">
-        <v>1.011391115486558</v>
+        <v>1.011394934884671</v>
       </c>
       <c r="F4">
-        <v>1.022827106136102</v>
+        <v>1.022829141630438</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048312707748736</v>
+        <v>1.048314038306992</v>
       </c>
       <c r="J4">
-        <v>1.026068454497033</v>
+        <v>1.026071207745434</v>
       </c>
       <c r="K4">
-        <v>1.034418503244914</v>
+        <v>1.034420780860594</v>
       </c>
       <c r="L4">
-        <v>1.021353976651542</v>
+        <v>1.021357751229476</v>
       </c>
       <c r="M4">
-        <v>1.032657618424643</v>
+        <v>1.032659630687224</v>
+      </c>
+      <c r="N4">
+        <v>1.019077641101556</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00861177891605</v>
+        <v>1.008613561862121</v>
       </c>
       <c r="D5">
-        <v>1.026020000192938</v>
+        <v>1.026021455053993</v>
       </c>
       <c r="E5">
-        <v>1.012867993093975</v>
+        <v>1.012870859674111</v>
       </c>
       <c r="F5">
-        <v>1.024742136750232</v>
+        <v>1.024743420715274</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048991577152209</v>
+        <v>1.048992417630365</v>
       </c>
       <c r="J5">
-        <v>1.02734832863377</v>
+        <v>1.027350068230214</v>
       </c>
       <c r="K5">
-        <v>1.035597221002635</v>
+        <v>1.035598659796797</v>
       </c>
       <c r="L5">
-        <v>1.022592785156557</v>
+        <v>1.022595619057433</v>
       </c>
       <c r="M5">
-        <v>1.034333491425356</v>
+        <v>1.034334761167292</v>
+      </c>
+      <c r="N5">
+        <v>1.019977184180095</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008907929978144</v>
+        <v>1.008909539591395</v>
       </c>
       <c r="D6">
-        <v>1.026255725915659</v>
+        <v>1.026257039404781</v>
       </c>
       <c r="E6">
-        <v>1.013114652058209</v>
+        <v>1.0131173600031</v>
       </c>
       <c r="F6">
-        <v>1.025061921434929</v>
+        <v>1.025063080415608</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049104719494319</v>
+        <v>1.049105478335255</v>
       </c>
       <c r="J6">
-        <v>1.027561950882284</v>
+        <v>1.027563521574232</v>
       </c>
       <c r="K6">
-        <v>1.035793923845386</v>
+        <v>1.035795222899132</v>
       </c>
       <c r="L6">
-        <v>1.022799580576349</v>
+        <v>1.022802257801539</v>
       </c>
       <c r="M6">
-        <v>1.034613258192974</v>
+        <v>1.034614404399852</v>
+      </c>
+      <c r="N6">
+        <v>1.020127287477753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006861877171671</v>
+        <v>1.006864687330077</v>
       </c>
       <c r="D7">
-        <v>1.02462722843285</v>
+        <v>1.02462952080704</v>
       </c>
       <c r="E7">
-        <v>1.011410938458199</v>
+        <v>1.011414745033296</v>
       </c>
       <c r="F7">
-        <v>1.022852813663646</v>
+        <v>1.022854839034356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048321835703148</v>
+        <v>1.048323159668826</v>
       </c>
       <c r="J7">
-        <v>1.026085642300859</v>
+        <v>1.0260883819171</v>
       </c>
       <c r="K7">
-        <v>1.034434334973124</v>
+        <v>1.034436601305655</v>
       </c>
       <c r="L7">
-        <v>1.021370611123081</v>
+        <v>1.021374373045611</v>
       </c>
       <c r="M7">
-        <v>1.032680120971933</v>
+        <v>1.032682123235586</v>
+      </c>
+      <c r="N7">
+        <v>1.019089723898101</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998058097265707</v>
+        <v>0.9980661575515164</v>
       </c>
       <c r="D8">
-        <v>1.017622917380761</v>
+        <v>1.017629482417971</v>
       </c>
       <c r="E8">
-        <v>1.004091078051429</v>
+        <v>1.004099684833004</v>
       </c>
       <c r="F8">
-        <v>1.013352975439187</v>
+        <v>1.013358809706328</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04492305728795</v>
+        <v>1.044926844096356</v>
       </c>
       <c r="J8">
-        <v>1.019722780345982</v>
+        <v>1.019730605572849</v>
       </c>
       <c r="K8">
-        <v>1.02856935116797</v>
+        <v>1.028575831092612</v>
       </c>
       <c r="L8">
-        <v>1.015215916796145</v>
+        <v>1.015224408185294</v>
       </c>
       <c r="M8">
-        <v>1.024355059708526</v>
+        <v>1.02436081753628</v>
+      </c>
+      <c r="N8">
+        <v>1.014612290829478</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9814792421332617</v>
+        <v>0.9814976064735484</v>
       </c>
       <c r="D9">
-        <v>1.004449900509385</v>
+        <v>1.004464811422672</v>
       </c>
       <c r="E9">
-        <v>0.9903551901726395</v>
+        <v>0.9903731866697472</v>
       </c>
       <c r="F9">
-        <v>0.9954828364790675</v>
+        <v>0.995496244831791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038409182392224</v>
+        <v>1.038417763858194</v>
       </c>
       <c r="J9">
-        <v>1.007703405939603</v>
+        <v>1.007721086874634</v>
       </c>
       <c r="K9">
-        <v>1.017471191404745</v>
+        <v>1.017485863144769</v>
       </c>
       <c r="L9">
-        <v>1.003606710215245</v>
+        <v>1.003624407368845</v>
       </c>
       <c r="M9">
-        <v>1.00864962913768</v>
+        <v>1.008662817406953</v>
+      </c>
+      <c r="N9">
+        <v>1.006134294952981</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9695831226379907</v>
+        <v>0.969609269839506</v>
       </c>
       <c r="D10">
-        <v>0.9950160715351766</v>
+        <v>0.9950372499521627</v>
       </c>
       <c r="E10">
-        <v>0.9805389081556903</v>
+        <v>0.9805639585594567</v>
       </c>
       <c r="F10">
-        <v>0.9826711842053857</v>
+        <v>0.9826904033588044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033661511194218</v>
+        <v>1.033673681253299</v>
       </c>
       <c r="J10">
-        <v>0.9990577739833534</v>
+        <v>0.9990827885743804</v>
       </c>
       <c r="K10">
-        <v>1.009475899214914</v>
+        <v>1.009496690255941</v>
       </c>
       <c r="L10">
-        <v>0.9952686592989887</v>
+        <v>0.9952932336412179</v>
       </c>
       <c r="M10">
-        <v>0.9973605268226857</v>
+        <v>0.9973793827981893</v>
+      </c>
+      <c r="N10">
+        <v>1.000023696296768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9641987001301247</v>
+        <v>0.9642284915025302</v>
       </c>
       <c r="D11">
-        <v>0.9907522198917028</v>
+        <v>0.990776321913782</v>
       </c>
       <c r="E11">
-        <v>0.9761070766513369</v>
+        <v>0.9761354163021665</v>
       </c>
       <c r="F11">
-        <v>0.9768743718147342</v>
+        <v>0.9768963389900958</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031496027218127</v>
+        <v>1.031509868146962</v>
       </c>
       <c r="J11">
-        <v>0.9951406099906879</v>
+        <v>0.9951690259212139</v>
       </c>
       <c r="K11">
-        <v>1.005850668769778</v>
+        <v>1.005874305091932</v>
       </c>
       <c r="L11">
-        <v>0.9914940969254405</v>
+        <v>0.991521867159683</v>
       </c>
       <c r="M11">
-        <v>0.992245990496913</v>
+        <v>0.9922675172031656</v>
+      </c>
+      <c r="N11">
+        <v>0.9972525393185053</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9621603681655367</v>
+        <v>0.9621915603106683</v>
       </c>
       <c r="D12">
-        <v>0.9891391696994029</v>
+        <v>0.9891643936243968</v>
       </c>
       <c r="E12">
-        <v>0.9744312104057349</v>
+        <v>0.9744608119155058</v>
       </c>
       <c r="F12">
-        <v>0.9746801622828557</v>
+        <v>0.9747031904257321</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030673851745844</v>
+        <v>1.03068833336657</v>
       </c>
       <c r="J12">
-        <v>0.9936572270816042</v>
+        <v>0.9936869449704792</v>
       </c>
       <c r="K12">
-        <v>1.00447744664992</v>
+        <v>1.004502173303307</v>
       </c>
       <c r="L12">
-        <v>0.9900652284136094</v>
+        <v>0.9900942228815417</v>
       </c>
       <c r="M12">
-        <v>0.9903090765191362</v>
+        <v>0.9903316327349686</v>
+      </c>
+      <c r="N12">
+        <v>0.9962027835718447</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.962599388265433</v>
+        <v>0.9626302776979394</v>
       </c>
       <c r="D13">
-        <v>0.9894865403321315</v>
+        <v>0.9895115218987659</v>
       </c>
       <c r="E13">
-        <v>0.9747920754469879</v>
+        <v>0.9748214043835467</v>
       </c>
       <c r="F13">
-        <v>0.9751527460300113</v>
+        <v>0.9751755446736405</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030851040796395</v>
+        <v>1.030865384034335</v>
       </c>
       <c r="J13">
-        <v>0.9939767418698241</v>
+        <v>0.9940061786567842</v>
       </c>
       <c r="K13">
-        <v>1.004773250580556</v>
+        <v>1.004797741766364</v>
       </c>
       <c r="L13">
-        <v>0.9903729774265428</v>
+        <v>0.9904017075330481</v>
       </c>
       <c r="M13">
-        <v>0.9907262872367809</v>
+        <v>0.990748620833782</v>
+      </c>
+      <c r="N13">
+        <v>0.9964289120997604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640310130154057</v>
+        <v>0.9640609191755417</v>
       </c>
       <c r="D14">
-        <v>0.990619496521097</v>
+        <v>0.9906436905183036</v>
       </c>
       <c r="E14">
-        <v>0.9759691698674077</v>
+        <v>0.9759976129754088</v>
       </c>
       <c r="F14">
-        <v>0.9766938567365553</v>
+        <v>0.9767159107563607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031428437752518</v>
+        <v>1.031442331216095</v>
       </c>
       <c r="J14">
-        <v>0.9950185862579685</v>
+        <v>0.9950471089927903</v>
       </c>
       <c r="K14">
-        <v>1.005737714729948</v>
+        <v>1.005761440470343</v>
       </c>
       <c r="L14">
-        <v>0.9913765470140103</v>
+        <v>0.9914044176581737</v>
       </c>
       <c r="M14">
-        <v>0.9920866620637184</v>
+        <v>0.992108273073081</v>
+      </c>
+      <c r="N14">
+        <v>0.9971661928781462</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9649079020498261</v>
+        <v>0.9649372088303593</v>
       </c>
       <c r="D15">
-        <v>0.9913135938566845</v>
+        <v>0.9913373075154259</v>
       </c>
       <c r="E15">
-        <v>0.9766904044194061</v>
+        <v>0.9767183072087174</v>
       </c>
       <c r="F15">
-        <v>0.97763783649043</v>
+        <v>0.9776594372321364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031781787150123</v>
+        <v>1.031795406232136</v>
       </c>
       <c r="J15">
-        <v>0.9956566673994116</v>
+        <v>0.9956846322165527</v>
       </c>
       <c r="K15">
-        <v>1.006328353257407</v>
+        <v>1.006351611950559</v>
       </c>
       <c r="L15">
-        <v>0.9919912548461685</v>
+        <v>0.9920186010120888</v>
       </c>
       <c r="M15">
-        <v>0.9929198102815165</v>
+        <v>0.9929409812108405</v>
+      </c>
+      <c r="N15">
+        <v>0.9976176977982301</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9699352839564532</v>
+        <v>0.9699611955688143</v>
       </c>
       <c r="D16">
-        <v>0.9952950826170878</v>
+        <v>0.9953160717843397</v>
       </c>
       <c r="E16">
-        <v>0.9808290121630391</v>
+        <v>0.9808538496099974</v>
       </c>
       <c r="F16">
-        <v>0.983050353638022</v>
+        <v>0.9830693957379103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033802805530119</v>
+        <v>1.033814867365977</v>
       </c>
       <c r="J16">
-        <v>0.9993138969710921</v>
+        <v>0.9993386909611043</v>
       </c>
       <c r="K16">
-        <v>1.009712879358115</v>
+        <v>1.009733486020713</v>
       </c>
       <c r="L16">
-        <v>0.9955155274750038</v>
+        <v>0.9955398946672811</v>
       </c>
       <c r="M16">
-        <v>0.9976949343919043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9977136180845455</v>
+      </c>
+      <c r="N16">
+        <v>1.000204837511165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9730241832458513</v>
+        <v>0.9730480424554997</v>
       </c>
       <c r="D17">
-        <v>0.9977430668311813</v>
+        <v>0.9977624060486544</v>
       </c>
       <c r="E17">
-        <v>0.9833748740612145</v>
+        <v>0.9833978547204226</v>
       </c>
       <c r="F17">
-        <v>0.9863763671734679</v>
+        <v>0.9863938698964141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035040272564745</v>
+        <v>1.035051390523419</v>
       </c>
       <c r="J17">
-        <v>1.001559981081711</v>
+        <v>1.001582849579276</v>
       </c>
       <c r="K17">
-        <v>1.011790784322454</v>
+        <v>1.011809782470031</v>
       </c>
       <c r="L17">
-        <v>0.9976808194784146</v>
+        <v>0.9977033792792912</v>
       </c>
       <c r="M17">
-        <v>1.000627560428514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.000644745144395</v>
+      </c>
+      <c r="N17">
+        <v>1.001793079322902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748036147317714</v>
+        <v>0.9748263028048709</v>
       </c>
       <c r="D18">
-        <v>0.999153845117094</v>
+        <v>0.9991722418461533</v>
       </c>
       <c r="E18">
-        <v>0.9848425182562373</v>
+        <v>0.9848644381787828</v>
       </c>
       <c r="F18">
-        <v>0.9882925861040036</v>
+        <v>0.9883092128977673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035751579219961</v>
+        <v>1.03576215772997</v>
       </c>
       <c r="J18">
-        <v>1.002853508873505</v>
+        <v>1.002875275701411</v>
       </c>
       <c r="K18">
-        <v>1.012987200298392</v>
+        <v>1.013005278787327</v>
       </c>
       <c r="L18">
-        <v>0.998928121469001</v>
+        <v>0.9989496477530155</v>
       </c>
       <c r="M18">
-        <v>1.002316511848184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.002332842755081</v>
+      </c>
+      <c r="N18">
+        <v>1.002707510131734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754066697727114</v>
+        <v>0.9754289627628971</v>
       </c>
       <c r="D19">
-        <v>0.999632052969087</v>
+        <v>0.9996501315866405</v>
       </c>
       <c r="E19">
-        <v>0.985340079666171</v>
+        <v>0.9853616415538859</v>
       </c>
       <c r="F19">
-        <v>0.988942033184502</v>
+        <v>0.9889583648864997</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035992375523223</v>
+        <v>1.036002771909182</v>
       </c>
       <c r="J19">
-        <v>1.003291822239731</v>
+        <v>1.003313216934978</v>
       </c>
       <c r="K19">
-        <v>1.01339256313196</v>
+        <v>1.01341033107642</v>
       </c>
       <c r="L19">
-        <v>0.999350821799814</v>
+        <v>0.9993719990717134</v>
       </c>
       <c r="M19">
-        <v>1.002888826199749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.002904869324317</v>
+      </c>
+      <c r="N19">
+        <v>1.003017323844004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9726950994656144</v>
+        <v>0.972719176149978</v>
       </c>
       <c r="D20">
-        <v>0.9974822052085696</v>
+        <v>0.9975017193621205</v>
       </c>
       <c r="E20">
-        <v>0.9831035347490937</v>
+        <v>0.9831267122857428</v>
       </c>
       <c r="F20">
-        <v>0.9860220022474886</v>
+        <v>0.9860396678234481</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034908597895035</v>
+        <v>1.03491981595821</v>
       </c>
       <c r="J20">
-        <v>1.001320727655544</v>
+        <v>1.001343800491923</v>
       </c>
       <c r="K20">
-        <v>1.011569471953803</v>
+        <v>1.011588640732683</v>
       </c>
       <c r="L20">
-        <v>0.9974501404162018</v>
+        <v>0.9974728919622449</v>
       </c>
       <c r="M20">
-        <v>1.000315173061874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.000332516448547</v>
+      </c>
+      <c r="N20">
+        <v>1.001623924477482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636105212885863</v>
+        <v>0.9636407156425203</v>
       </c>
       <c r="D21">
-        <v>0.9902866976846486</v>
+        <v>0.9903111225696142</v>
       </c>
       <c r="E21">
-        <v>0.9756233855900214</v>
+        <v>0.9756520884031504</v>
       </c>
       <c r="F21">
-        <v>0.9762412012255762</v>
+        <v>0.9762634733596381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031258912190492</v>
+        <v>1.031272937525646</v>
       </c>
       <c r="J21">
-        <v>0.9947125922521759</v>
+        <v>0.9947413830472824</v>
       </c>
       <c r="K21">
-        <v>1.005454458206488</v>
+        <v>1.005478408391257</v>
       </c>
       <c r="L21">
-        <v>0.9910817801686255</v>
+        <v>0.991109902838892</v>
       </c>
       <c r="M21">
-        <v>0.9916871184019989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9917089411164435</v>
+      </c>
+      <c r="N21">
+        <v>0.996949659845066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576750527820637</v>
+        <v>0.9577093702413521</v>
       </c>
       <c r="D22">
-        <v>0.9855918628325363</v>
+        <v>0.9856195860634399</v>
       </c>
       <c r="E22">
-        <v>0.9707471130737343</v>
+        <v>0.9707795247981845</v>
       </c>
       <c r="F22">
-        <v>0.969852199188015</v>
+        <v>0.9698776038657896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028860327221167</v>
+        <v>1.02887623520765</v>
       </c>
       <c r="J22">
-        <v>0.9903922695500055</v>
+        <v>0.990424881399118</v>
       </c>
       <c r="K22">
-        <v>1.001454255153517</v>
+        <v>1.001481407805339</v>
       </c>
       <c r="L22">
-        <v>0.986921235907527</v>
+        <v>0.9869529532368547</v>
       </c>
       <c r="M22">
-        <v>0.9860455191418647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9860703782068728</v>
+      </c>
+      <c r="N22">
+        <v>0.9938916394328882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9608439589715182</v>
+        <v>0.9608760621762602</v>
       </c>
       <c r="D23">
-        <v>0.9880977443824845</v>
+        <v>0.9881236974239672</v>
       </c>
       <c r="E23">
-        <v>0.973349435834664</v>
+        <v>0.9733798572930213</v>
       </c>
       <c r="F23">
-        <v>0.9732631412417568</v>
+        <v>0.9732868608298191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03014220141766</v>
+        <v>1.030157099279292</v>
       </c>
       <c r="J23">
-        <v>0.9926990919053641</v>
+        <v>0.9927296549613204</v>
       </c>
       <c r="K23">
-        <v>1.003590357835913</v>
+        <v>1.003615792642125</v>
       </c>
       <c r="L23">
-        <v>0.9891424528323972</v>
+        <v>0.9891722422671755</v>
       </c>
       <c r="M23">
-        <v>0.9890579513441375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9890811780239573</v>
+      </c>
+      <c r="N23">
+        <v>0.9955246387604215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728438668435873</v>
+        <v>0.9728678451805993</v>
       </c>
       <c r="D24">
-        <v>0.9976001299824826</v>
+        <v>0.9976195650287846</v>
       </c>
       <c r="E24">
-        <v>0.9832261946289191</v>
+        <v>0.9832492831365824</v>
       </c>
       <c r="F24">
-        <v>0.9861821977537203</v>
+        <v>0.9861997896759394</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034968128319098</v>
+        <v>1.034979301115243</v>
       </c>
       <c r="J24">
-        <v>1.001428887031807</v>
+        <v>1.001451867470367</v>
       </c>
       <c r="K24">
-        <v>1.011669521509543</v>
+        <v>1.011688613130426</v>
       </c>
       <c r="L24">
-        <v>0.9975544226384478</v>
+        <v>0.9975770874794484</v>
       </c>
       <c r="M24">
-        <v>1.000456393982463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.000473665609592</v>
+      </c>
+      <c r="N24">
+        <v>1.001700395123235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859037712227676</v>
+        <v>0.9859193277116277</v>
       </c>
       <c r="D25">
-        <v>1.007962860718316</v>
+        <v>1.00797550272917</v>
       </c>
       <c r="E25">
-        <v>0.9940147296015091</v>
+        <v>0.9940301724939292</v>
       </c>
       <c r="F25">
-        <v>1.000249927025979</v>
+        <v>1.000261258182287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040160395061682</v>
+        <v>1.040167674989052</v>
       </c>
       <c r="J25">
-        <v>1.01091502377499</v>
+        <v>1.010930035578629</v>
       </c>
       <c r="K25">
-        <v>1.020438808477417</v>
+        <v>1.020451258173427</v>
       </c>
       <c r="L25">
-        <v>1.006706675232465</v>
+        <v>1.006721874689392</v>
       </c>
       <c r="M25">
-        <v>1.012844364437697</v>
+        <v>1.012855519807232</v>
+      </c>
+      <c r="N25">
+        <v>1.008401843859853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9957330206602251</v>
+        <v>1.001361720211971</v>
       </c>
       <c r="D2">
-        <v>1.015774169793674</v>
+        <v>1.018428450799872</v>
       </c>
       <c r="E2">
-        <v>1.002162904351763</v>
+        <v>1.015627089621008</v>
       </c>
       <c r="F2">
-        <v>1.010842065534137</v>
+        <v>1.022939609241318</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044018636042727</v>
+        <v>1.042884636721711</v>
       </c>
       <c r="J2">
-        <v>1.01804210969898</v>
+        <v>1.023501778604101</v>
       </c>
       <c r="K2">
-        <v>1.027018033954298</v>
+        <v>1.029636881992566</v>
       </c>
       <c r="L2">
-        <v>1.013592188502622</v>
+        <v>1.026872924012072</v>
       </c>
       <c r="M2">
-        <v>1.022152391717432</v>
+        <v>1.034088348267996</v>
       </c>
       <c r="N2">
-        <v>1.013421791331577</v>
+        <v>1.024955268527016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002555011948459</v>
+        <v>1.008094424923691</v>
       </c>
       <c r="D3">
-        <v>1.021200155260571</v>
+        <v>1.023452684399435</v>
       </c>
       <c r="E3">
-        <v>1.007829485048888</v>
+        <v>1.021432819950135</v>
       </c>
       <c r="F3">
-        <v>1.018202452094369</v>
+        <v>1.029257908593593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046665472746173</v>
+        <v>1.0447240650309</v>
       </c>
       <c r="J3">
-        <v>1.022976266271292</v>
+        <v>1.028366833878319</v>
       </c>
       <c r="K3">
-        <v>1.031568775969453</v>
+        <v>1.033794026425057</v>
       </c>
       <c r="L3">
-        <v>1.018363156818257</v>
+        <v>1.03179861611065</v>
       </c>
       <c r="M3">
-        <v>1.028607608455895</v>
+        <v>1.039529630310034</v>
       </c>
       <c r="N3">
-        <v>1.016899112850569</v>
+        <v>1.029827232737751</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00684088846426</v>
+        <v>1.01233196335997</v>
       </c>
       <c r="D4">
-        <v>1.024610580296837</v>
+        <v>1.026616860221999</v>
       </c>
       <c r="E4">
-        <v>1.011394934884671</v>
+        <v>1.025093444761691</v>
       </c>
       <c r="F4">
-        <v>1.022829141630438</v>
+        <v>1.03324275215454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048314038306992</v>
+        <v>1.045869827805274</v>
       </c>
       <c r="J4">
-        <v>1.026071207745434</v>
+        <v>1.031425391544671</v>
       </c>
       <c r="K4">
-        <v>1.034420780860594</v>
+        <v>1.036404315521954</v>
       </c>
       <c r="L4">
-        <v>1.021357751229476</v>
+        <v>1.034898161044121</v>
       </c>
       <c r="M4">
-        <v>1.032659630687224</v>
+        <v>1.042955861737387</v>
       </c>
       <c r="N4">
-        <v>1.019077641101556</v>
+        <v>1.03289013390681</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008613561862121</v>
+        <v>1.014086391787424</v>
       </c>
       <c r="D5">
-        <v>1.026021455053993</v>
+        <v>1.02792725728195</v>
       </c>
       <c r="E5">
-        <v>1.012870859674111</v>
+        <v>1.02661050444451</v>
       </c>
       <c r="F5">
-        <v>1.024743420715274</v>
+        <v>1.034894432844167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048992417630365</v>
+        <v>1.046341265481687</v>
       </c>
       <c r="J5">
-        <v>1.027350068230214</v>
+        <v>1.032690798831491</v>
       </c>
       <c r="K5">
-        <v>1.035598659796797</v>
+        <v>1.037483463100226</v>
       </c>
       <c r="L5">
-        <v>1.022595619057433</v>
+        <v>1.03618120856448</v>
       </c>
       <c r="M5">
-        <v>1.034334761167292</v>
+        <v>1.044374678721205</v>
       </c>
       <c r="N5">
-        <v>1.019977184180095</v>
+        <v>1.034157338217122</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008909539591395</v>
+        <v>1.01437942295672</v>
       </c>
       <c r="D6">
-        <v>1.026257039404781</v>
+        <v>1.02814614313116</v>
       </c>
       <c r="E6">
-        <v>1.0131173600031</v>
+        <v>1.026863974550229</v>
       </c>
       <c r="F6">
-        <v>1.025063080415608</v>
+        <v>1.035170410701518</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049105478335255</v>
+        <v>1.046419832634904</v>
       </c>
       <c r="J6">
-        <v>1.027563521574232</v>
+        <v>1.032902097289836</v>
       </c>
       <c r="K6">
-        <v>1.035795222899132</v>
+        <v>1.037663612060953</v>
       </c>
       <c r="L6">
-        <v>1.022802257801539</v>
+        <v>1.036395492619578</v>
       </c>
       <c r="M6">
-        <v>1.034614404399852</v>
+        <v>1.044611669545649</v>
       </c>
       <c r="N6">
-        <v>1.020127287477753</v>
+        <v>1.034368936743514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006864687330077</v>
+        <v>1.012355510502041</v>
       </c>
       <c r="D7">
-        <v>1.02462952080704</v>
+        <v>1.026634446472796</v>
       </c>
       <c r="E7">
-        <v>1.011414745033296</v>
+        <v>1.02511380027255</v>
       </c>
       <c r="F7">
-        <v>1.022854839034356</v>
+        <v>1.033264912951363</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048323159668826</v>
+        <v>1.045876166904266</v>
       </c>
       <c r="J7">
-        <v>1.0260883819171</v>
+        <v>1.031442378901267</v>
       </c>
       <c r="K7">
-        <v>1.034436601305655</v>
+        <v>1.03641880564634</v>
       </c>
       <c r="L7">
-        <v>1.021374373045611</v>
+        <v>1.034915382515013</v>
       </c>
       <c r="M7">
-        <v>1.032682123235586</v>
+        <v>1.042974903418531</v>
       </c>
       <c r="N7">
-        <v>1.019089723898101</v>
+        <v>1.032907145387401</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980661575515164</v>
+        <v>1.003662611205014</v>
       </c>
       <c r="D8">
-        <v>1.017629482417971</v>
+        <v>1.020144999860872</v>
       </c>
       <c r="E8">
-        <v>1.004099684833004</v>
+        <v>1.017609764327626</v>
       </c>
       <c r="F8">
-        <v>1.013358809706328</v>
+        <v>1.025097115237065</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044926844096356</v>
+        <v>1.043515741778288</v>
       </c>
       <c r="J8">
-        <v>1.019730605572849</v>
+        <v>1.025165099757046</v>
       </c>
       <c r="K8">
-        <v>1.028575831092612</v>
+        <v>1.031058836904301</v>
       </c>
       <c r="L8">
-        <v>1.015224408185294</v>
+        <v>1.028556368642015</v>
       </c>
       <c r="M8">
-        <v>1.02436081753628</v>
+        <v>1.035947531447677</v>
       </c>
       <c r="N8">
-        <v>1.014612290829478</v>
+        <v>1.026620951786781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9814976064735484</v>
+        <v>0.9873620362649131</v>
       </c>
       <c r="D9">
-        <v>1.004464811422672</v>
+        <v>1.007997191357898</v>
       </c>
       <c r="E9">
-        <v>0.9903731866697472</v>
+        <v>1.00359526476076</v>
       </c>
       <c r="F9">
-        <v>0.995496244831791</v>
+        <v>1.009850912182889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038417763858194</v>
+        <v>1.038995851723536</v>
       </c>
       <c r="J9">
-        <v>1.007721086874634</v>
+        <v>1.013369104885854</v>
       </c>
       <c r="K9">
-        <v>1.017485863144769</v>
+        <v>1.020961838652469</v>
       </c>
       <c r="L9">
-        <v>1.003624407368845</v>
+        <v>1.016630279377291</v>
       </c>
       <c r="M9">
-        <v>1.008662817406953</v>
+        <v>1.02278616174895</v>
       </c>
       <c r="N9">
-        <v>1.006134294952981</v>
+        <v>1.014808205249852</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.969609269839506</v>
+        <v>0.9757233819243001</v>
       </c>
       <c r="D10">
-        <v>0.9950372499521627</v>
+        <v>0.9993460198347798</v>
       </c>
       <c r="E10">
-        <v>0.9805639585594567</v>
+        <v>0.9936339437447672</v>
       </c>
       <c r="F10">
-        <v>0.9826904033588044</v>
+        <v>0.9990189317355299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033673681253299</v>
+        <v>1.035709300037134</v>
       </c>
       <c r="J10">
-        <v>0.9990827885743804</v>
+        <v>1.004934431698682</v>
       </c>
       <c r="K10">
-        <v>1.009496690255941</v>
+        <v>1.013727092143266</v>
       </c>
       <c r="L10">
-        <v>0.9952932336412179</v>
+        <v>1.008119098530281</v>
       </c>
       <c r="M10">
-        <v>0.9973793827981893</v>
+        <v>1.013405922294561</v>
       </c>
       <c r="N10">
-        <v>1.000023696296768</v>
+        <v>1.006361553859284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9642284915025302</v>
+        <v>0.9704721102849051</v>
       </c>
       <c r="D11">
-        <v>0.990776321913782</v>
+        <v>0.9954500437880306</v>
       </c>
       <c r="E11">
-        <v>0.9761354163021665</v>
+        <v>0.989151811664248</v>
       </c>
       <c r="F11">
-        <v>0.9768963389900958</v>
+        <v>0.9941460500842897</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031509868146962</v>
+        <v>1.034213437490423</v>
       </c>
       <c r="J11">
-        <v>0.9951690259212139</v>
+        <v>1.001127052280052</v>
       </c>
       <c r="K11">
-        <v>1.005874305091932</v>
+        <v>1.010458278763477</v>
       </c>
       <c r="L11">
-        <v>0.991521867159683</v>
+        <v>1.004281250246828</v>
       </c>
       <c r="M11">
-        <v>0.9922675172031656</v>
+        <v>1.009179214203664</v>
       </c>
       <c r="N11">
-        <v>0.9972525393185053</v>
+        <v>1.002548767525167</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9621915603106683</v>
+        <v>0.9684869762814974</v>
       </c>
       <c r="D12">
-        <v>0.9891643936243968</v>
+        <v>0.9939785513117118</v>
       </c>
       <c r="E12">
-        <v>0.9744608119155058</v>
+        <v>0.9874594446956402</v>
       </c>
       <c r="F12">
-        <v>0.9747031904257321</v>
+        <v>0.9923062823597124</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03068833336657</v>
+        <v>1.033646107857363</v>
       </c>
       <c r="J12">
-        <v>0.9936869449704792</v>
+        <v>0.9996876072454493</v>
       </c>
       <c r="K12">
-        <v>1.004502173303307</v>
+        <v>1.009222029219493</v>
       </c>
       <c r="L12">
-        <v>0.9900942228815417</v>
+        <v>1.002830911344728</v>
       </c>
       <c r="M12">
-        <v>0.9903316327349686</v>
+        <v>1.007582381311593</v>
       </c>
       <c r="N12">
-        <v>0.9962027835718447</v>
+        <v>1.001107278313509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626302776979394</v>
+        <v>0.9689144072187627</v>
       </c>
       <c r="D13">
-        <v>0.9895115218987659</v>
+        <v>0.9942953250614612</v>
       </c>
       <c r="E13">
-        <v>0.9748214043835467</v>
+        <v>0.9878237448367737</v>
       </c>
       <c r="F13">
-        <v>0.9751755446736405</v>
+        <v>0.992702306037373</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030865384034335</v>
+        <v>1.033768344719211</v>
       </c>
       <c r="J13">
-        <v>0.9940061786567842</v>
+        <v>0.9999975472392125</v>
       </c>
       <c r="K13">
-        <v>1.004797741766364</v>
+        <v>1.0094882355058</v>
       </c>
       <c r="L13">
-        <v>0.9904017075330481</v>
+        <v>1.003143168511412</v>
       </c>
       <c r="M13">
-        <v>0.990748620833782</v>
+        <v>1.007926157801</v>
       </c>
       <c r="N13">
-        <v>0.9964289120997604</v>
+        <v>1.001417658457614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640609191755417</v>
+        <v>0.9703087411094113</v>
       </c>
       <c r="D14">
-        <v>0.9906436905183036</v>
+        <v>0.9953289178530325</v>
       </c>
       <c r="E14">
-        <v>0.9759976129754088</v>
+        <v>0.9890124944068375</v>
       </c>
       <c r="F14">
-        <v>0.9767159107563607</v>
+        <v>0.9939945959147404</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031442331216095</v>
+        <v>1.034166785269179</v>
       </c>
       <c r="J14">
-        <v>0.9950471089927903</v>
+        <v>1.001008593521306</v>
       </c>
       <c r="K14">
-        <v>1.005761440470343</v>
+        <v>1.010356550154592</v>
       </c>
       <c r="L14">
-        <v>0.9914044176581737</v>
+        <v>1.004161882202816</v>
       </c>
       <c r="M14">
-        <v>0.992108273073081</v>
+        <v>1.009047779865341</v>
       </c>
       <c r="N14">
-        <v>0.9971661928781462</v>
+        <v>1.002430140541397</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9649372088303593</v>
+        <v>0.9711631656250457</v>
       </c>
       <c r="D15">
-        <v>0.9913373075154259</v>
+        <v>0.995962463323437</v>
       </c>
       <c r="E15">
-        <v>0.9767183072087174</v>
+        <v>0.9897412095324881</v>
       </c>
       <c r="F15">
-        <v>0.9776594372321364</v>
+        <v>0.9947868001410765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031795406232136</v>
+        <v>1.034410702861958</v>
       </c>
       <c r="J15">
-        <v>0.9956846322165527</v>
+        <v>1.001628130364286</v>
       </c>
       <c r="K15">
-        <v>1.006351611950559</v>
+        <v>1.010888571907914</v>
       </c>
       <c r="L15">
-        <v>0.9920186010120888</v>
+        <v>1.004786200109635</v>
       </c>
       <c r="M15">
-        <v>0.9929409812108405</v>
+        <v>1.009735225467285</v>
       </c>
       <c r="N15">
-        <v>0.9976176977982301</v>
+        <v>1.003050557197756</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9699611955688143</v>
+        <v>0.9760672022977076</v>
       </c>
       <c r="D16">
-        <v>0.9953160717843397</v>
+        <v>0.9996012724235857</v>
       </c>
       <c r="E16">
-        <v>0.9808538496099974</v>
+        <v>0.9939276741076554</v>
       </c>
       <c r="F16">
-        <v>0.9830693957379103</v>
+        <v>0.9993382891855569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033814867365977</v>
+        <v>1.035806978889636</v>
       </c>
       <c r="J16">
-        <v>0.9993386909611043</v>
+        <v>1.005183688747007</v>
       </c>
       <c r="K16">
-        <v>1.009733486020713</v>
+        <v>1.013941030827683</v>
       </c>
       <c r="L16">
-        <v>0.9955398946672811</v>
+        <v>1.008370435697831</v>
       </c>
       <c r="M16">
-        <v>0.9977136180845455</v>
+        <v>1.013682788402773</v>
       </c>
       <c r="N16">
-        <v>1.000204837511165</v>
+        <v>1.006611164881208</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9730480424554997</v>
+        <v>0.9790848460890182</v>
       </c>
       <c r="D17">
-        <v>0.9977624060486544</v>
+        <v>1.001842428148253</v>
       </c>
       <c r="E17">
-        <v>0.9833978547204226</v>
+        <v>0.9965070994811883</v>
       </c>
       <c r="F17">
-        <v>0.9863938698964141</v>
+        <v>1.002142874146931</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035051390523419</v>
+        <v>1.036662829676117</v>
       </c>
       <c r="J17">
-        <v>1.001582849579276</v>
+        <v>1.007371187075197</v>
       </c>
       <c r="K17">
-        <v>1.011809782470031</v>
+        <v>1.015818229860707</v>
       </c>
       <c r="L17">
-        <v>0.9977033792792912</v>
+        <v>1.01057665032923</v>
       </c>
       <c r="M17">
-        <v>1.000644745144395</v>
+        <v>1.016113435049922</v>
       </c>
       <c r="N17">
-        <v>1.001793079322902</v>
+        <v>1.008801769707934</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748263028048709</v>
+        <v>0.9808247688529058</v>
       </c>
       <c r="D18">
-        <v>0.9991722418461533</v>
+        <v>1.00313532081101</v>
       </c>
       <c r="E18">
-        <v>0.9848644381787828</v>
+        <v>0.9979955034405795</v>
       </c>
       <c r="F18">
-        <v>0.9883092128977673</v>
+        <v>1.003761297551305</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03576215772997</v>
+        <v>1.037155068544825</v>
       </c>
       <c r="J18">
-        <v>1.002875275701411</v>
+        <v>1.00863229210281</v>
       </c>
       <c r="K18">
-        <v>1.013005278787327</v>
+        <v>1.016900153111696</v>
       </c>
       <c r="L18">
-        <v>0.9989496477530155</v>
+        <v>1.011848927042982</v>
       </c>
       <c r="M18">
-        <v>1.002332842755081</v>
+        <v>1.017515420416578</v>
       </c>
       <c r="N18">
-        <v>1.002707510131734</v>
+        <v>1.010064665649337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754289627628971</v>
+        <v>0.9814146874397927</v>
       </c>
       <c r="D19">
-        <v>0.9996501315866405</v>
+        <v>1.003573784307912</v>
       </c>
       <c r="E19">
-        <v>0.9853616415538859</v>
+        <v>0.9985003357073303</v>
       </c>
       <c r="F19">
-        <v>0.9889583648864997</v>
+        <v>1.004310246015657</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036002771909182</v>
+        <v>1.037321749910961</v>
       </c>
       <c r="J19">
-        <v>1.003313216934978</v>
+        <v>1.009059836152373</v>
       </c>
       <c r="K19">
-        <v>1.01341033107642</v>
+        <v>1.017266899507248</v>
       </c>
       <c r="L19">
-        <v>0.9993719990717134</v>
+        <v>1.012280322893857</v>
       </c>
       <c r="M19">
-        <v>1.002904869324317</v>
+        <v>1.017990845054161</v>
       </c>
       <c r="N19">
-        <v>1.003017323844004</v>
+        <v>1.010492816860491</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.972719176149978</v>
+        <v>0.9787631917386852</v>
       </c>
       <c r="D20">
-        <v>0.9975017193621205</v>
+        <v>1.001603468664524</v>
       </c>
       <c r="E20">
-        <v>0.9831267122857428</v>
+        <v>0.9962320347759474</v>
       </c>
       <c r="F20">
-        <v>0.9860396678234481</v>
+        <v>1.001843789017419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03491981595821</v>
+        <v>1.036571730619912</v>
       </c>
       <c r="J20">
-        <v>1.001343800491923</v>
+        <v>1.007138035817264</v>
       </c>
       <c r="K20">
-        <v>1.011588640732683</v>
+        <v>1.015618181485688</v>
       </c>
       <c r="L20">
-        <v>0.9974728919622449</v>
+        <v>1.01034146447375</v>
       </c>
       <c r="M20">
-        <v>1.000332516448547</v>
+        <v>1.015854294912799</v>
       </c>
       <c r="N20">
-        <v>1.001623924477482</v>
+        <v>1.008568287348471</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636407156425203</v>
+        <v>0.9698991230224621</v>
       </c>
       <c r="D21">
-        <v>0.9903111225696142</v>
+        <v>0.9950252385074916</v>
       </c>
       <c r="E21">
-        <v>0.9756520884031504</v>
+        <v>0.9886632149556496</v>
       </c>
       <c r="F21">
-        <v>0.9762634733596381</v>
+        <v>0.9936148904479954</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031272937525646</v>
+        <v>1.034049784035162</v>
       </c>
       <c r="J21">
-        <v>0.9947413830472824</v>
+        <v>1.000711578107833</v>
       </c>
       <c r="K21">
-        <v>1.005478408391257</v>
+        <v>1.010101476198905</v>
       </c>
       <c r="L21">
-        <v>0.991109902838892</v>
+        <v>1.003862597021612</v>
       </c>
       <c r="M21">
-        <v>0.9917089411164435</v>
+        <v>1.008718248884543</v>
       </c>
       <c r="N21">
-        <v>0.996949659845066</v>
+        <v>1.002132703331968</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9577093702413521</v>
+        <v>0.9641242463904224</v>
       </c>
       <c r="D22">
-        <v>0.9856195860634399</v>
+        <v>0.9907472798880271</v>
       </c>
       <c r="E22">
-        <v>0.9707795247981845</v>
+        <v>0.9837440217934936</v>
       </c>
       <c r="F22">
-        <v>0.9698776038657896</v>
+        <v>0.9882674970600064</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02887623520765</v>
+        <v>1.032395997951462</v>
       </c>
       <c r="J22">
-        <v>0.990424881399118</v>
+        <v>0.9965240080767576</v>
       </c>
       <c r="K22">
-        <v>1.001481407805339</v>
+        <v>1.006504290745613</v>
       </c>
       <c r="L22">
-        <v>0.9869529532368547</v>
+        <v>0.9996445407586028</v>
       </c>
       <c r="M22">
-        <v>0.9860703782068728</v>
+        <v>1.004075015999419</v>
       </c>
       <c r="N22">
-        <v>0.9938916394328882</v>
+        <v>0.997939186471128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9608760621762602</v>
+        <v>0.9672057522723293</v>
       </c>
       <c r="D23">
-        <v>0.9881236974239672</v>
+        <v>0.9930292286877189</v>
       </c>
       <c r="E23">
-        <v>0.9733798572930213</v>
+        <v>0.9863677627149973</v>
       </c>
       <c r="F23">
-        <v>0.9732868608298191</v>
+        <v>0.9911195552103861</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030157099279292</v>
+        <v>1.033279440170304</v>
       </c>
       <c r="J23">
-        <v>0.9927296549613204</v>
+        <v>0.9987585505035935</v>
       </c>
       <c r="K23">
-        <v>1.003615792642125</v>
+        <v>1.008424008092791</v>
       </c>
       <c r="L23">
-        <v>0.9891722422671755</v>
+        <v>1.001895001691896</v>
       </c>
       <c r="M23">
-        <v>0.9890811780239573</v>
+        <v>1.006552068211871</v>
       </c>
       <c r="N23">
-        <v>0.9955246387604215</v>
+        <v>1.000176902204516</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9728678451805993</v>
+        <v>0.9789085957673197</v>
       </c>
       <c r="D24">
-        <v>0.9976195650287846</v>
+        <v>1.001711488335589</v>
       </c>
       <c r="E24">
-        <v>0.9832492831365824</v>
+        <v>0.9963563743680998</v>
       </c>
       <c r="F24">
-        <v>0.9861997896759394</v>
+        <v>1.001978986446534</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034979301115243</v>
+        <v>1.036612915827286</v>
       </c>
       <c r="J24">
-        <v>1.001451867470367</v>
+        <v>1.007243432509253</v>
       </c>
       <c r="K24">
-        <v>1.011688613130426</v>
+        <v>1.015708614836497</v>
       </c>
       <c r="L24">
-        <v>0.9975770874794484</v>
+        <v>1.010447779727268</v>
       </c>
       <c r="M24">
-        <v>1.000473665609592</v>
+        <v>1.015971437767133</v>
       </c>
       <c r="N24">
-        <v>1.001700395123235</v>
+        <v>1.008673833715852</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9859193277116277</v>
+        <v>0.9917032933510903</v>
       </c>
       <c r="D25">
-        <v>1.00797550272917</v>
+        <v>1.011229258137095</v>
       </c>
       <c r="E25">
-        <v>0.9940301724939292</v>
+        <v>1.007320485270838</v>
       </c>
       <c r="F25">
-        <v>1.000261258182287</v>
+        <v>1.013902667741336</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040167674989052</v>
+        <v>1.040210066556432</v>
       </c>
       <c r="J25">
-        <v>1.010930035578629</v>
+        <v>1.016513137565231</v>
       </c>
       <c r="K25">
-        <v>1.020451258173427</v>
+        <v>1.023655719900625</v>
       </c>
       <c r="L25">
-        <v>1.006721874689392</v>
+        <v>1.019806213179324</v>
       </c>
       <c r="M25">
-        <v>1.012855519807232</v>
+        <v>1.026288929251471</v>
       </c>
       <c r="N25">
-        <v>1.008401843859853</v>
+        <v>1.017956702816261</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001361720211971</v>
+        <v>1.004784859605188</v>
       </c>
       <c r="D2">
-        <v>1.018428450799872</v>
+        <v>1.024048773680324</v>
       </c>
       <c r="E2">
-        <v>1.015627089621008</v>
+        <v>1.019692304867432</v>
       </c>
       <c r="F2">
-        <v>1.022939609241318</v>
+        <v>1.02890918574975</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042884636721711</v>
+        <v>1.044501883514381</v>
       </c>
       <c r="J2">
-        <v>1.023501778604101</v>
+        <v>1.026823392175192</v>
       </c>
       <c r="K2">
-        <v>1.029636881992566</v>
+        <v>1.035182937081351</v>
       </c>
       <c r="L2">
-        <v>1.026872924012072</v>
+        <v>1.030883945767313</v>
       </c>
       <c r="M2">
-        <v>1.034088348267996</v>
+        <v>1.039979941940995</v>
       </c>
       <c r="N2">
-        <v>1.024955268527016</v>
+        <v>1.012379137647396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008094424923691</v>
+        <v>1.01021586399229</v>
       </c>
       <c r="D3">
-        <v>1.023452684399435</v>
+        <v>1.028041261444699</v>
       </c>
       <c r="E3">
-        <v>1.021432819950135</v>
+        <v>1.024209776060903</v>
       </c>
       <c r="F3">
-        <v>1.029257908593593</v>
+        <v>1.033643717400342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0447240650309</v>
+        <v>1.045729312708217</v>
       </c>
       <c r="J3">
-        <v>1.028366833878319</v>
+        <v>1.030431856122767</v>
       </c>
       <c r="K3">
-        <v>1.033794026425057</v>
+        <v>1.038327493283467</v>
       </c>
       <c r="L3">
-        <v>1.03179861611065</v>
+        <v>1.034541982965133</v>
       </c>
       <c r="M3">
-        <v>1.039529630310034</v>
+        <v>1.043863483632569</v>
       </c>
       <c r="N3">
-        <v>1.029827232737751</v>
+        <v>1.013624711142865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01233196335997</v>
+        <v>1.013650985181176</v>
       </c>
       <c r="D4">
-        <v>1.026616860221999</v>
+        <v>1.030569052159326</v>
       </c>
       <c r="E4">
-        <v>1.025093444761691</v>
+        <v>1.027073289461811</v>
       </c>
       <c r="F4">
-        <v>1.03324275215454</v>
+        <v>1.036644689532867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045869827805274</v>
+        <v>1.046494511665358</v>
       </c>
       <c r="J4">
-        <v>1.031425391544671</v>
+        <v>1.032711827981923</v>
       </c>
       <c r="K4">
-        <v>1.036404315521954</v>
+        <v>1.040312020306164</v>
       </c>
       <c r="L4">
-        <v>1.034898161044121</v>
+        <v>1.036855585498322</v>
       </c>
       <c r="M4">
-        <v>1.042955861737387</v>
+        <v>1.04632008167777</v>
       </c>
       <c r="N4">
-        <v>1.03289013390681</v>
+        <v>1.014411041411682</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014086391787424</v>
+        <v>1.015076956525412</v>
       </c>
       <c r="D5">
-        <v>1.02792725728195</v>
+        <v>1.03161890746897</v>
       </c>
       <c r="E5">
-        <v>1.02661050444451</v>
+        <v>1.028263405026028</v>
       </c>
       <c r="F5">
-        <v>1.034894432844167</v>
+        <v>1.037891900392301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046341265481687</v>
+        <v>1.046809431561426</v>
       </c>
       <c r="J5">
-        <v>1.032690798831491</v>
+        <v>1.033657658314627</v>
       </c>
       <c r="K5">
-        <v>1.037483463100226</v>
+        <v>1.041134708060115</v>
       </c>
       <c r="L5">
-        <v>1.03618120856448</v>
+        <v>1.037815916948746</v>
       </c>
       <c r="M5">
-        <v>1.044374678721205</v>
+        <v>1.047339850767828</v>
       </c>
       <c r="N5">
-        <v>1.034157338217122</v>
+        <v>1.014737075522674</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01437942295672</v>
+        <v>1.01531534078435</v>
       </c>
       <c r="D6">
-        <v>1.02814614313116</v>
+        <v>1.031794444204282</v>
       </c>
       <c r="E6">
-        <v>1.026863974550229</v>
+        <v>1.028462442701373</v>
       </c>
       <c r="F6">
-        <v>1.035170410701518</v>
+        <v>1.038100484704576</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046419832634904</v>
+        <v>1.046861916056184</v>
       </c>
       <c r="J6">
-        <v>1.032902097289836</v>
+        <v>1.033815737988887</v>
       </c>
       <c r="K6">
-        <v>1.037663612060953</v>
+        <v>1.041272171867706</v>
       </c>
       <c r="L6">
-        <v>1.036395492619578</v>
+        <v>1.037976452447358</v>
       </c>
       <c r="M6">
-        <v>1.044611669545649</v>
+        <v>1.047510326976918</v>
       </c>
       <c r="N6">
-        <v>1.034368936743514</v>
+        <v>1.014791556458861</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012355510502041</v>
+        <v>1.013670109407823</v>
       </c>
       <c r="D7">
-        <v>1.026634446472796</v>
+        <v>1.030583130157577</v>
       </c>
       <c r="E7">
-        <v>1.02511380027255</v>
+        <v>1.02708924497737</v>
       </c>
       <c r="F7">
-        <v>1.033264912951363</v>
+        <v>1.036661410647642</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045876166904266</v>
+        <v>1.046498746009791</v>
       </c>
       <c r="J7">
-        <v>1.031442378901267</v>
+        <v>1.03272451537593</v>
       </c>
       <c r="K7">
-        <v>1.03641880564634</v>
+        <v>1.040323058179186</v>
       </c>
       <c r="L7">
-        <v>1.034915382515013</v>
+        <v>1.036868465242982</v>
       </c>
       <c r="M7">
-        <v>1.042974903418531</v>
+        <v>1.046333758265997</v>
       </c>
       <c r="N7">
-        <v>1.032907145387401</v>
+        <v>1.014415415522691</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003662611205014</v>
+        <v>1.006637158133057</v>
       </c>
       <c r="D8">
-        <v>1.020144999860872</v>
+        <v>1.025409871073238</v>
       </c>
       <c r="E8">
-        <v>1.017609764327626</v>
+        <v>1.02123169247658</v>
       </c>
       <c r="F8">
-        <v>1.025097115237065</v>
+        <v>1.030522564957683</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043515741778288</v>
+        <v>1.044922821587998</v>
       </c>
       <c r="J8">
-        <v>1.025165099757046</v>
+        <v>1.028054566876575</v>
       </c>
       <c r="K8">
-        <v>1.031058836904301</v>
+        <v>1.036256307563292</v>
       </c>
       <c r="L8">
-        <v>1.028556368642015</v>
+        <v>1.03213154658374</v>
       </c>
       <c r="M8">
-        <v>1.035947531447677</v>
+        <v>1.041304371228044</v>
       </c>
       <c r="N8">
-        <v>1.026620951786781</v>
+        <v>1.012804252311311</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9873620362649131</v>
+        <v>0.9936006445329173</v>
       </c>
       <c r="D9">
-        <v>1.007997191357898</v>
+        <v>1.015844622030595</v>
       </c>
       <c r="E9">
-        <v>1.00359526476076</v>
+        <v>1.010426595506028</v>
       </c>
       <c r="F9">
-        <v>1.009850912182889</v>
+        <v>1.019197699720809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038995851723536</v>
+        <v>1.041914840849678</v>
       </c>
       <c r="J9">
-        <v>1.013369104885854</v>
+        <v>1.019381422132326</v>
       </c>
       <c r="K9">
-        <v>1.020961838652469</v>
+        <v>1.028685757426466</v>
       </c>
       <c r="L9">
-        <v>1.016630279377291</v>
+        <v>1.023352743547628</v>
       </c>
       <c r="M9">
-        <v>1.02278616174895</v>
+        <v>1.031986801216999</v>
       </c>
       <c r="N9">
-        <v>1.014808205249852</v>
+        <v>1.009806951075249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9757233819243001</v>
+        <v>0.9844199295675735</v>
       </c>
       <c r="D10">
-        <v>0.9993460198347798</v>
+        <v>1.009130551472986</v>
       </c>
       <c r="E10">
-        <v>0.9936339437447672</v>
+        <v>1.002857677138348</v>
       </c>
       <c r="F10">
-        <v>0.9990189317355299</v>
+        <v>1.011264329545673</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035709300037134</v>
+        <v>1.0397411258449</v>
       </c>
       <c r="J10">
-        <v>1.004934431698682</v>
+        <v>1.013265628008148</v>
       </c>
       <c r="K10">
-        <v>1.013727092143266</v>
+        <v>1.023336884938191</v>
       </c>
       <c r="L10">
-        <v>1.008119098530281</v>
+        <v>1.017175526322896</v>
       </c>
       <c r="M10">
-        <v>1.013405922294561</v>
+        <v>1.025433138474628</v>
       </c>
       <c r="N10">
-        <v>1.006361553859284</v>
+        <v>1.007690582279515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9704721102849051</v>
+        <v>0.9803143145354377</v>
       </c>
       <c r="D11">
-        <v>0.9954500437880306</v>
+        <v>1.006134645780664</v>
       </c>
       <c r="E11">
-        <v>0.989151811664248</v>
+        <v>0.9994835703199363</v>
       </c>
       <c r="F11">
-        <v>0.9941460500842897</v>
+        <v>1.007727731660756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034213437490423</v>
+        <v>1.038756712026022</v>
       </c>
       <c r="J11">
-        <v>1.001127052280052</v>
+        <v>1.010529608297551</v>
       </c>
       <c r="K11">
-        <v>1.010458278763477</v>
+        <v>1.020941791610019</v>
       </c>
       <c r="L11">
-        <v>1.004281250246828</v>
+        <v>1.014415232324083</v>
       </c>
       <c r="M11">
-        <v>1.009179214203664</v>
+        <v>1.022505371051941</v>
       </c>
       <c r="N11">
-        <v>1.002548767525167</v>
+        <v>1.006743234756408</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9684869762814974</v>
+        <v>0.9787684054919329</v>
       </c>
       <c r="D12">
-        <v>0.9939785513117118</v>
+        <v>1.00500770380886</v>
       </c>
       <c r="E12">
-        <v>0.9874594446956402</v>
+        <v>0.9982148136769193</v>
       </c>
       <c r="F12">
-        <v>0.9923062823597124</v>
+        <v>1.006397876016856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033646107857363</v>
+        <v>1.038384267095099</v>
       </c>
       <c r="J12">
-        <v>0.9996876072454493</v>
+        <v>1.009499320867657</v>
       </c>
       <c r="K12">
-        <v>1.009222029219493</v>
+        <v>1.020039588893804</v>
       </c>
       <c r="L12">
-        <v>1.002830911344728</v>
+        <v>1.013376295143437</v>
       </c>
       <c r="M12">
-        <v>1.007582381311593</v>
+        <v>1.021403520792717</v>
       </c>
       <c r="N12">
-        <v>1.001107278313509</v>
+        <v>1.006386426261498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689144072187627</v>
+        <v>0.9791009765627663</v>
       </c>
       <c r="D13">
-        <v>0.9942953250614612</v>
+        <v>1.005250089768775</v>
       </c>
       <c r="E13">
-        <v>0.9878237448367737</v>
+        <v>0.9984876818564508</v>
       </c>
       <c r="F13">
-        <v>0.992702306037373</v>
+        <v>1.006683884407075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033768344719211</v>
+        <v>1.038464470184611</v>
       </c>
       <c r="J13">
-        <v>0.9999975472392125</v>
+        <v>1.009720968680418</v>
       </c>
       <c r="K13">
-        <v>1.0094882355058</v>
+        <v>1.020233694451786</v>
       </c>
       <c r="L13">
-        <v>1.003143168511412</v>
+        <v>1.013599781448628</v>
       </c>
       <c r="M13">
-        <v>1.007926157801</v>
+        <v>1.021640534694853</v>
       </c>
       <c r="N13">
-        <v>1.001417658457614</v>
+        <v>1.006463190223886</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9703087411094113</v>
+        <v>0.9801869636472996</v>
       </c>
       <c r="D14">
-        <v>0.9953289178530325</v>
+        <v>1.006041785544951</v>
       </c>
       <c r="E14">
-        <v>0.9890124944068375</v>
+        <v>0.9993790156129699</v>
       </c>
       <c r="F14">
-        <v>0.9939945959147404</v>
+        <v>1.007618141877692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034166785269179</v>
+        <v>1.038726065960334</v>
       </c>
       <c r="J14">
-        <v>1.001008593521306</v>
+        <v>1.010444735106245</v>
       </c>
       <c r="K14">
-        <v>1.010356550154592</v>
+        <v>1.02086747563582</v>
       </c>
       <c r="L14">
-        <v>1.004161882202816</v>
+        <v>1.014329636548226</v>
       </c>
       <c r="M14">
-        <v>1.009047779865341</v>
+        <v>1.022414589471338</v>
       </c>
       <c r="N14">
-        <v>1.002430140541397</v>
+        <v>1.006713842906316</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9711631656250457</v>
+        <v>0.9808532650175831</v>
       </c>
       <c r="D15">
-        <v>0.995962463323437</v>
+        <v>1.006527677894554</v>
       </c>
       <c r="E15">
-        <v>0.9897412095324881</v>
+        <v>0.9999261175264171</v>
       </c>
       <c r="F15">
-        <v>0.9947868001410765</v>
+        <v>1.008191590882182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034410702861958</v>
+        <v>1.038886334562525</v>
       </c>
       <c r="J15">
-        <v>1.001628130364286</v>
+        <v>1.010888789892178</v>
       </c>
       <c r="K15">
-        <v>1.010888571907914</v>
+        <v>1.021256283407648</v>
       </c>
       <c r="L15">
-        <v>1.004786200109635</v>
+        <v>1.014777491941939</v>
       </c>
       <c r="M15">
-        <v>1.009735225467285</v>
+        <v>1.022889583121926</v>
       </c>
       <c r="N15">
-        <v>1.003050557197756</v>
+        <v>1.006867617627303</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9760672022977076</v>
+        <v>0.984689549916828</v>
       </c>
       <c r="D16">
-        <v>0.9996012724235857</v>
+        <v>1.009327444272992</v>
       </c>
       <c r="E16">
-        <v>0.9939276741076554</v>
+        <v>1.003079489943641</v>
       </c>
       <c r="F16">
-        <v>0.9993382891855569</v>
+        <v>1.011496824435491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035806978889636</v>
+        <v>1.039805523137109</v>
       </c>
       <c r="J16">
-        <v>1.005183688747007</v>
+        <v>1.013445290256682</v>
       </c>
       <c r="K16">
-        <v>1.013941030827683</v>
+        <v>1.023494117426818</v>
       </c>
       <c r="L16">
-        <v>1.008370435697831</v>
+        <v>1.017356849986282</v>
       </c>
       <c r="M16">
-        <v>1.013682788402773</v>
+        <v>1.025625479737641</v>
       </c>
       <c r="N16">
-        <v>1.006611164881208</v>
+        <v>1.007752779904479</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9790848460890182</v>
+        <v>0.9870601643502486</v>
       </c>
       <c r="D17">
-        <v>1.001842428148253</v>
+        <v>1.011059374843756</v>
       </c>
       <c r="E17">
-        <v>0.9965070994811883</v>
+        <v>1.005030989044257</v>
       </c>
       <c r="F17">
-        <v>1.002142874146931</v>
+        <v>1.013542301933148</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036662829676117</v>
+        <v>1.040370339413491</v>
       </c>
       <c r="J17">
-        <v>1.007371187075197</v>
+        <v>1.015024846590023</v>
       </c>
       <c r="K17">
-        <v>1.015818229860707</v>
+        <v>1.024876232570634</v>
       </c>
       <c r="L17">
-        <v>1.01057665032923</v>
+        <v>1.018951378097589</v>
       </c>
       <c r="M17">
-        <v>1.016113435049922</v>
+        <v>1.027316980076993</v>
       </c>
       <c r="N17">
-        <v>1.008801769707934</v>
+        <v>1.008299548619421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9808247688529058</v>
+        <v>0.9884304263921967</v>
       </c>
       <c r="D18">
-        <v>1.00313532081101</v>
+        <v>1.012061083342175</v>
       </c>
       <c r="E18">
-        <v>0.9979955034405795</v>
+        <v>1.006160000790697</v>
       </c>
       <c r="F18">
-        <v>1.003761297551305</v>
+        <v>1.014725680844524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037155068544825</v>
+        <v>1.040695642580882</v>
       </c>
       <c r="J18">
-        <v>1.00863229210281</v>
+        <v>1.015937757999477</v>
       </c>
       <c r="K18">
-        <v>1.016900153111696</v>
+        <v>1.025674824516188</v>
       </c>
       <c r="L18">
-        <v>1.011848927042982</v>
+        <v>1.019873245048419</v>
       </c>
       <c r="M18">
-        <v>1.017515420416578</v>
+        <v>1.028294980447678</v>
       </c>
       <c r="N18">
-        <v>1.010064665649337</v>
+        <v>1.008615503286145</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9814146874397927</v>
+        <v>0.9888955723406367</v>
       </c>
       <c r="D19">
-        <v>1.003573784307912</v>
+        <v>1.012401222220292</v>
       </c>
       <c r="E19">
-        <v>0.9985003357073303</v>
+        <v>1.006543420252232</v>
       </c>
       <c r="F19">
-        <v>1.004310246015657</v>
+        <v>1.015127563118415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037321749910961</v>
+        <v>1.040805868331332</v>
       </c>
       <c r="J19">
-        <v>1.009059836152373</v>
+        <v>1.016247633039411</v>
       </c>
       <c r="K19">
-        <v>1.017266899507248</v>
+        <v>1.025945859345246</v>
       </c>
       <c r="L19">
-        <v>1.012280322893857</v>
+        <v>1.02018621096914</v>
       </c>
       <c r="M19">
-        <v>1.017990845054161</v>
+        <v>1.028627014680024</v>
       </c>
       <c r="N19">
-        <v>1.010492816860491</v>
+        <v>1.008722740427777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9787631917386852</v>
+        <v>0.9868071196413987</v>
       </c>
       <c r="D20">
-        <v>1.001603468664524</v>
+        <v>1.010874439626401</v>
       </c>
       <c r="E20">
-        <v>0.9962320347759474</v>
+        <v>1.004822576442584</v>
       </c>
       <c r="F20">
-        <v>1.001843789017419</v>
+        <v>1.013323853039611</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036571730619912</v>
+        <v>1.04031017077413</v>
       </c>
       <c r="J20">
-        <v>1.007138035817264</v>
+        <v>1.014856251405006</v>
       </c>
       <c r="K20">
-        <v>1.015618181485688</v>
+        <v>1.024728732753091</v>
       </c>
       <c r="L20">
-        <v>1.01034146447375</v>
+        <v>1.018781153418878</v>
       </c>
       <c r="M20">
-        <v>1.015854294912799</v>
+        <v>1.027136395793731</v>
       </c>
       <c r="N20">
-        <v>1.008568287348471</v>
+        <v>1.008241194220973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9698991230224621</v>
+        <v>0.9798677556965749</v>
       </c>
       <c r="D21">
-        <v>0.9950252385074916</v>
+        <v>1.005809047729911</v>
       </c>
       <c r="E21">
-        <v>0.9886632149556496</v>
+        <v>0.9991169747784373</v>
       </c>
       <c r="F21">
-        <v>0.9936148904479954</v>
+        <v>1.007343481908897</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034049784035162</v>
+        <v>1.03864922251252</v>
       </c>
       <c r="J21">
-        <v>1.000711578107833</v>
+        <v>1.010231997477102</v>
       </c>
       <c r="K21">
-        <v>1.010101476198905</v>
+        <v>1.020681195381106</v>
       </c>
       <c r="L21">
-        <v>1.003862597021612</v>
+        <v>1.014115095676827</v>
       </c>
       <c r="M21">
-        <v>1.008718248884543</v>
+        <v>1.022187052674675</v>
       </c>
       <c r="N21">
-        <v>1.002132703331968</v>
+        <v>1.006640170096238</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9641242463904224</v>
+        <v>0.9753830339695907</v>
       </c>
       <c r="D22">
-        <v>0.9907472798880271</v>
+        <v>1.002542037323726</v>
       </c>
       <c r="E22">
-        <v>0.9837440217934936</v>
+        <v>0.9954396512017639</v>
       </c>
       <c r="F22">
-        <v>0.9882674970600064</v>
+        <v>1.00348908179806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032395997951462</v>
+        <v>1.037565465874226</v>
       </c>
       <c r="J22">
-        <v>0.9965240080767576</v>
+        <v>1.007243046970122</v>
       </c>
       <c r="K22">
-        <v>1.006504290745613</v>
+        <v>1.018063303601934</v>
       </c>
       <c r="L22">
-        <v>0.9996445407586028</v>
+        <v>1.011101994072106</v>
       </c>
       <c r="M22">
-        <v>1.004075015999419</v>
+        <v>1.018991734730907</v>
       </c>
       <c r="N22">
-        <v>0.997939186471128</v>
+        <v>1.005604916647558</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9672057522723293</v>
+        <v>0.9777724755849764</v>
       </c>
       <c r="D23">
-        <v>0.9930292286877189</v>
+        <v>1.00428202034554</v>
       </c>
       <c r="E23">
-        <v>0.9863677627149973</v>
+        <v>0.9973979318857819</v>
       </c>
       <c r="F23">
-        <v>0.9911195552103861</v>
+        <v>1.005541657330357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033279440170304</v>
+        <v>1.038143833182766</v>
       </c>
       <c r="J23">
-        <v>0.9987585505035935</v>
+        <v>1.008835560467955</v>
       </c>
       <c r="K23">
-        <v>1.008424008092791</v>
+        <v>1.019458267283329</v>
       </c>
       <c r="L23">
-        <v>1.001895001691896</v>
+        <v>1.012707101844704</v>
       </c>
       <c r="M23">
-        <v>1.006552068211871</v>
+        <v>1.020693839968814</v>
       </c>
       <c r="N23">
-        <v>1.000176902204516</v>
+        <v>1.006156534552207</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9789085957673197</v>
+        <v>0.9869214981140358</v>
       </c>
       <c r="D24">
-        <v>1.001711488335589</v>
+        <v>1.010958030090718</v>
       </c>
       <c r="E24">
-        <v>0.9963563743680998</v>
+        <v>1.004916777688466</v>
       </c>
       <c r="F24">
-        <v>1.001978986446534</v>
+        <v>1.013422590637971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036612915827286</v>
+        <v>1.040337371178128</v>
       </c>
       <c r="J24">
-        <v>1.007243432509253</v>
+        <v>1.014932458263702</v>
       </c>
       <c r="K24">
-        <v>1.015708614836497</v>
+        <v>1.024795404921981</v>
       </c>
       <c r="L24">
-        <v>1.010447779727268</v>
+        <v>1.018858095888629</v>
       </c>
       <c r="M24">
-        <v>1.015971437767133</v>
+        <v>1.027218020645605</v>
       </c>
       <c r="N24">
-        <v>1.008673833715852</v>
+        <v>1.008267571208484</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9917032933510903</v>
+        <v>0.9970527570610037</v>
       </c>
       <c r="D25">
-        <v>1.011229258137095</v>
+        <v>1.018374171321832</v>
       </c>
       <c r="E25">
-        <v>1.007320485270838</v>
+        <v>1.013281238869882</v>
       </c>
       <c r="F25">
-        <v>1.013902667741336</v>
+        <v>1.022189742702056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040210066556432</v>
+        <v>1.042721136146578</v>
       </c>
       <c r="J25">
-        <v>1.016513137565231</v>
+        <v>1.021679716414152</v>
       </c>
       <c r="K25">
-        <v>1.023655719900625</v>
+        <v>1.030693794103973</v>
       </c>
       <c r="L25">
-        <v>1.019806213179324</v>
+        <v>1.025676820765407</v>
       </c>
       <c r="M25">
-        <v>1.026288929251471</v>
+        <v>1.034453087406608</v>
       </c>
       <c r="N25">
-        <v>1.017956702816261</v>
+        <v>1.010601734098185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004784859605188</v>
+        <v>1.042599891869828</v>
       </c>
       <c r="D2">
-        <v>1.024048773680324</v>
+        <v>1.047138268592801</v>
       </c>
       <c r="E2">
-        <v>1.019692304867432</v>
+        <v>1.050186920802928</v>
       </c>
       <c r="F2">
-        <v>1.02890918574975</v>
+        <v>1.059784109983779</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044501883514381</v>
+        <v>1.036005136391901</v>
       </c>
       <c r="J2">
-        <v>1.026823392175192</v>
+        <v>1.047674844009819</v>
       </c>
       <c r="K2">
-        <v>1.035182937081351</v>
+        <v>1.049901744698063</v>
       </c>
       <c r="L2">
-        <v>1.030883945767313</v>
+        <v>1.052941896170506</v>
       </c>
       <c r="M2">
-        <v>1.039979941940995</v>
+        <v>1.062512670786842</v>
       </c>
       <c r="N2">
-        <v>1.012379137647396</v>
+        <v>1.019712516440287</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01021586399229</v>
+        <v>1.043744790363661</v>
       </c>
       <c r="D3">
-        <v>1.028041261444699</v>
+        <v>1.047997012879938</v>
       </c>
       <c r="E3">
-        <v>1.024209776060903</v>
+        <v>1.051189517614417</v>
       </c>
       <c r="F3">
-        <v>1.033643717400342</v>
+        <v>1.060835942231123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045729312708217</v>
+        <v>1.036193906685341</v>
       </c>
       <c r="J3">
-        <v>1.030431856122767</v>
+        <v>1.048465276269072</v>
       </c>
       <c r="K3">
-        <v>1.038327493283467</v>
+        <v>1.050572150880273</v>
       </c>
       <c r="L3">
-        <v>1.034541982965133</v>
+        <v>1.053756398689308</v>
       </c>
       <c r="M3">
-        <v>1.043863483632569</v>
+        <v>1.063378199797882</v>
       </c>
       <c r="N3">
-        <v>1.013624711142865</v>
+        <v>1.019980809508954</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013650985181176</v>
+        <v>1.044485795587796</v>
       </c>
       <c r="D4">
-        <v>1.030569052159326</v>
+        <v>1.048552628430742</v>
       </c>
       <c r="E4">
-        <v>1.027073289461811</v>
+        <v>1.051838743781196</v>
       </c>
       <c r="F4">
-        <v>1.036644689532867</v>
+        <v>1.061517028837501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046494511665358</v>
+        <v>1.036314650616249</v>
       </c>
       <c r="J4">
-        <v>1.032711827981923</v>
+        <v>1.048976375819216</v>
       </c>
       <c r="K4">
-        <v>1.040312020306164</v>
+        <v>1.051005257862792</v>
       </c>
       <c r="L4">
-        <v>1.036855585498322</v>
+        <v>1.054283302937291</v>
       </c>
       <c r="M4">
-        <v>1.04632008167777</v>
+        <v>1.063938131321606</v>
       </c>
       <c r="N4">
-        <v>1.014411041411682</v>
+        <v>1.020154141727477</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015076956525412</v>
+        <v>1.04479735776766</v>
       </c>
       <c r="D5">
-        <v>1.03161890746897</v>
+        <v>1.048786197016107</v>
       </c>
       <c r="E5">
-        <v>1.028263405026028</v>
+        <v>1.052111793000486</v>
       </c>
       <c r="F5">
-        <v>1.037891900392301</v>
+        <v>1.061803472587022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046809431561426</v>
+        <v>1.036365075283553</v>
       </c>
       <c r="J5">
-        <v>1.033657658314627</v>
+        <v>1.049191155204157</v>
       </c>
       <c r="K5">
-        <v>1.041134708060115</v>
+        <v>1.051187170521991</v>
       </c>
       <c r="L5">
-        <v>1.037815916948746</v>
+        <v>1.054504781500243</v>
       </c>
       <c r="M5">
-        <v>1.047339850767828</v>
+        <v>1.064173496802285</v>
       </c>
       <c r="N5">
-        <v>1.014737075522674</v>
+        <v>1.020226945546628</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01531534078435</v>
+        <v>1.04484967300333</v>
       </c>
       <c r="D6">
-        <v>1.031794444204282</v>
+        <v>1.048825413483925</v>
       </c>
       <c r="E6">
-        <v>1.028462442701373</v>
+        <v>1.052157645878683</v>
       </c>
       <c r="F6">
-        <v>1.038100484704576</v>
+        <v>1.061851574488327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046861916056184</v>
+        <v>1.036373522093797</v>
       </c>
       <c r="J6">
-        <v>1.033815737988887</v>
+        <v>1.049227212515044</v>
       </c>
       <c r="K6">
-        <v>1.041272171867706</v>
+        <v>1.051217704746918</v>
       </c>
       <c r="L6">
-        <v>1.037976452447358</v>
+        <v>1.054541966848315</v>
       </c>
       <c r="M6">
-        <v>1.047510326976918</v>
+        <v>1.064213013954716</v>
       </c>
       <c r="N6">
-        <v>1.014791556458861</v>
+        <v>1.020239165811389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013670109407823</v>
+        <v>1.044489958524818</v>
       </c>
       <c r="D7">
-        <v>1.030583130157577</v>
+        <v>1.048555749433975</v>
       </c>
       <c r="E7">
-        <v>1.02708924497737</v>
+        <v>1.051842391828335</v>
       </c>
       <c r="F7">
-        <v>1.036661410647642</v>
+        <v>1.061520855861474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046498746009791</v>
+        <v>1.036315325713921</v>
       </c>
       <c r="J7">
-        <v>1.03272451537593</v>
+        <v>1.048979246053156</v>
       </c>
       <c r="K7">
-        <v>1.040323058179186</v>
+        <v>1.051007689239236</v>
       </c>
       <c r="L7">
-        <v>1.036868465242982</v>
+        <v>1.054286262470437</v>
       </c>
       <c r="M7">
-        <v>1.046333758265997</v>
+        <v>1.063941276403678</v>
       </c>
       <c r="N7">
-        <v>1.014415415522691</v>
+        <v>1.020155114791365</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006637158133057</v>
+        <v>1.042986778932081</v>
       </c>
       <c r="D8">
-        <v>1.025409871073238</v>
+        <v>1.047428495263563</v>
       </c>
       <c r="E8">
-        <v>1.02123169247658</v>
+        <v>1.050525653832803</v>
       </c>
       <c r="F8">
-        <v>1.030522564957683</v>
+        <v>1.060139481962121</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044922821587998</v>
+        <v>1.036069222601633</v>
       </c>
       <c r="J8">
-        <v>1.028054566876575</v>
+        <v>1.047942049468256</v>
       </c>
       <c r="K8">
-        <v>1.036256307563292</v>
+        <v>1.050128454504667</v>
       </c>
       <c r="L8">
-        <v>1.03213154658374</v>
+        <v>1.053217188684748</v>
       </c>
       <c r="M8">
-        <v>1.041304371228044</v>
+        <v>1.062805205883673</v>
       </c>
       <c r="N8">
-        <v>1.012804252311311</v>
+        <v>1.019803243469164</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936006445329173</v>
+        <v>1.040339328641417</v>
       </c>
       <c r="D9">
-        <v>1.015844622030595</v>
+        <v>1.045441766257062</v>
       </c>
       <c r="E9">
-        <v>1.010426595506028</v>
+        <v>1.048209067050528</v>
       </c>
       <c r="F9">
-        <v>1.019197699720809</v>
+        <v>1.057709013906065</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041914840849678</v>
+        <v>1.035624819538091</v>
       </c>
       <c r="J9">
-        <v>1.019381422132326</v>
+        <v>1.046111594738264</v>
       </c>
       <c r="K9">
-        <v>1.028685757426466</v>
+        <v>1.04857384830839</v>
       </c>
       <c r="L9">
-        <v>1.023352743547628</v>
+        <v>1.051332324982463</v>
       </c>
       <c r="M9">
-        <v>1.031986801216999</v>
+        <v>1.06080236322046</v>
       </c>
       <c r="N9">
-        <v>1.009806951075249</v>
+        <v>1.019181126776252</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9844199295675735</v>
+        <v>1.038575221847292</v>
       </c>
       <c r="D10">
-        <v>1.009130551472986</v>
+        <v>1.044117054428859</v>
       </c>
       <c r="E10">
-        <v>1.002857677138348</v>
+        <v>1.046667150244259</v>
       </c>
       <c r="F10">
-        <v>1.011264329545673</v>
+        <v>1.056091188560686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0397411258449</v>
+        <v>1.035321340967537</v>
       </c>
       <c r="J10">
-        <v>1.013265628008148</v>
+        <v>1.044889416029912</v>
       </c>
       <c r="K10">
-        <v>1.023336884938191</v>
+        <v>1.047533900219311</v>
       </c>
       <c r="L10">
-        <v>1.017175526322896</v>
+        <v>1.050075064332524</v>
       </c>
       <c r="M10">
-        <v>1.025433138474628</v>
+        <v>1.059466506745667</v>
       </c>
       <c r="N10">
-        <v>1.007690582279515</v>
+        <v>1.018764991573799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9803143145354377</v>
+        <v>1.037811537547348</v>
       </c>
       <c r="D11">
-        <v>1.006134645780664</v>
+        <v>1.043543389088515</v>
       </c>
       <c r="E11">
-        <v>0.9994835703199363</v>
+        <v>1.046000070120174</v>
       </c>
       <c r="F11">
-        <v>1.007727731660756</v>
+        <v>1.055391242491938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038756712026022</v>
+        <v>1.035188223035246</v>
       </c>
       <c r="J11">
-        <v>1.010529608297551</v>
+        <v>1.044359752315249</v>
       </c>
       <c r="K11">
-        <v>1.020941791610019</v>
+        <v>1.047082751479004</v>
       </c>
       <c r="L11">
-        <v>1.014415232324083</v>
+        <v>1.049530493378124</v>
       </c>
       <c r="M11">
-        <v>1.022505371051941</v>
+        <v>1.058887917327268</v>
       </c>
       <c r="N11">
-        <v>1.006743234756408</v>
+        <v>1.018584471119016</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9787684054919329</v>
+        <v>1.037527898060819</v>
       </c>
       <c r="D12">
-        <v>1.00500770380886</v>
+        <v>1.043330295920303</v>
       </c>
       <c r="E12">
-        <v>0.9982148136769193</v>
+        <v>1.045752373895025</v>
       </c>
       <c r="F12">
-        <v>1.006397876016856</v>
+        <v>1.055131338860844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038384267095099</v>
+        <v>1.035138520327553</v>
       </c>
       <c r="J12">
-        <v>1.009499320867657</v>
+        <v>1.044162943409447</v>
       </c>
       <c r="K12">
-        <v>1.020039588893804</v>
+        <v>1.046915047865657</v>
       </c>
       <c r="L12">
-        <v>1.013376295143437</v>
+        <v>1.049328189952811</v>
       </c>
       <c r="M12">
-        <v>1.021403520792717</v>
+        <v>1.058672980111381</v>
       </c>
       <c r="N12">
-        <v>1.006386426261498</v>
+        <v>1.018517368036109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9791009765627663</v>
+        <v>1.037588738494089</v>
       </c>
       <c r="D13">
-        <v>1.005250089768775</v>
+        <v>1.043376005502254</v>
       </c>
       <c r="E13">
-        <v>0.9984876818564508</v>
+        <v>1.045805501639383</v>
       </c>
       <c r="F13">
-        <v>1.006683884407075</v>
+        <v>1.05518708511357</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038464470184611</v>
+        <v>1.035149193345585</v>
       </c>
       <c r="J13">
-        <v>1.009720968680418</v>
+        <v>1.044205162679219</v>
       </c>
       <c r="K13">
-        <v>1.020233694451786</v>
+        <v>1.046951026602235</v>
       </c>
       <c r="L13">
-        <v>1.013599781448628</v>
+        <v>1.049371585882043</v>
       </c>
       <c r="M13">
-        <v>1.021640534694853</v>
+        <v>1.058719085931712</v>
       </c>
       <c r="N13">
-        <v>1.006463190223886</v>
+        <v>1.018531764126313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9801869636472996</v>
+        <v>1.037788091276728</v>
       </c>
       <c r="D14">
-        <v>1.006041785544951</v>
+        <v>1.043525774909576</v>
       </c>
       <c r="E14">
-        <v>0.9993790156129699</v>
+        <v>1.045979593698078</v>
       </c>
       <c r="F14">
-        <v>1.007618141877692</v>
+        <v>1.055369756992138</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038726065960334</v>
+        <v>1.035184119831682</v>
       </c>
       <c r="J14">
-        <v>1.010444735106245</v>
+        <v>1.044343485422909</v>
       </c>
       <c r="K14">
-        <v>1.02086747563582</v>
+        <v>1.047068891634569</v>
       </c>
       <c r="L14">
-        <v>1.014329636548226</v>
+        <v>1.049513771435558</v>
       </c>
       <c r="M14">
-        <v>1.022414589471338</v>
+        <v>1.058870151026716</v>
       </c>
       <c r="N14">
-        <v>1.006713842906316</v>
+        <v>1.01857892537207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9808532650175831</v>
+        <v>1.037910922635175</v>
       </c>
       <c r="D15">
-        <v>1.006527677894554</v>
+        <v>1.043618051686687</v>
       </c>
       <c r="E15">
-        <v>0.9999261175264171</v>
+        <v>1.046086869090908</v>
       </c>
       <c r="F15">
-        <v>1.008191590882182</v>
+        <v>1.055482318758107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038886334562525</v>
+        <v>1.035205605169085</v>
       </c>
       <c r="J15">
-        <v>1.010888789892178</v>
+        <v>1.044428701582768</v>
       </c>
       <c r="K15">
-        <v>1.021256283407648</v>
+        <v>1.047141495356819</v>
       </c>
       <c r="L15">
-        <v>1.014777491941939</v>
+        <v>1.049601373260406</v>
       </c>
       <c r="M15">
-        <v>1.022889583121926</v>
+        <v>1.058963224121353</v>
       </c>
       <c r="N15">
-        <v>1.006867617627303</v>
+        <v>1.018607976380122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.984689549916828</v>
+        <v>1.038625908882367</v>
       </c>
       <c r="D16">
-        <v>1.009327444272992</v>
+        <v>1.044155125533362</v>
       </c>
       <c r="E16">
-        <v>1.003079489943641</v>
+        <v>1.046711434366438</v>
       </c>
       <c r="F16">
-        <v>1.011496824435491</v>
+        <v>1.056137653951776</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039805523137109</v>
+        <v>1.03533013955184</v>
       </c>
       <c r="J16">
-        <v>1.013445290256682</v>
+        <v>1.044924558514361</v>
       </c>
       <c r="K16">
-        <v>1.023494117426818</v>
+        <v>1.047563823683329</v>
       </c>
       <c r="L16">
-        <v>1.017356849986282</v>
+        <v>1.050111202142748</v>
       </c>
       <c r="M16">
-        <v>1.025625479737641</v>
+        <v>1.059504902551346</v>
       </c>
       <c r="N16">
-        <v>1.007752779904479</v>
+        <v>1.01877696514506</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9870601643502486</v>
+        <v>1.039074449833618</v>
       </c>
       <c r="D17">
-        <v>1.011059374843756</v>
+        <v>1.044492002782166</v>
       </c>
       <c r="E17">
-        <v>1.005030989044257</v>
+        <v>1.047103362877136</v>
       </c>
       <c r="F17">
-        <v>1.013542301933148</v>
+        <v>1.056548884427954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040370339413491</v>
+        <v>1.035407799001576</v>
       </c>
       <c r="J17">
-        <v>1.015024846590023</v>
+        <v>1.045235475191127</v>
       </c>
       <c r="K17">
-        <v>1.024876232570634</v>
+        <v>1.047828513006854</v>
       </c>
       <c r="L17">
-        <v>1.018951378097589</v>
+        <v>1.050430959022602</v>
       </c>
       <c r="M17">
-        <v>1.027316980076993</v>
+        <v>1.059844641622067</v>
       </c>
       <c r="N17">
-        <v>1.008299548619421</v>
+        <v>1.018882878674369</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9884304263921967</v>
+        <v>1.039336094155908</v>
       </c>
       <c r="D18">
-        <v>1.012061083342175</v>
+        <v>1.044688492132261</v>
       </c>
       <c r="E18">
-        <v>1.006160000790697</v>
+        <v>1.047332024118115</v>
       </c>
       <c r="F18">
-        <v>1.014725680844524</v>
+        <v>1.056788804462105</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040695642580882</v>
+        <v>1.035452931476983</v>
       </c>
       <c r="J18">
-        <v>1.015937757999477</v>
+        <v>1.045416784009161</v>
       </c>
       <c r="K18">
-        <v>1.025674824516188</v>
+        <v>1.047982820345029</v>
       </c>
       <c r="L18">
-        <v>1.019873245048419</v>
+        <v>1.050617451525525</v>
       </c>
       <c r="M18">
-        <v>1.028294980447678</v>
+        <v>1.060042790749393</v>
       </c>
       <c r="N18">
-        <v>1.008615503286145</v>
+        <v>1.018944624291043</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9888955723406367</v>
+        <v>1.039425311187987</v>
       </c>
       <c r="D19">
-        <v>1.012401222220292</v>
+        <v>1.044755488993911</v>
       </c>
       <c r="E19">
-        <v>1.006543420252232</v>
+        <v>1.047410001189178</v>
       </c>
       <c r="F19">
-        <v>1.015127563118415</v>
+        <v>1.05687062053796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040805868331332</v>
+        <v>1.035468292500836</v>
       </c>
       <c r="J19">
-        <v>1.016247633039411</v>
+        <v>1.045478598240326</v>
       </c>
       <c r="K19">
-        <v>1.025945859345246</v>
+        <v>1.048035421342507</v>
       </c>
       <c r="L19">
-        <v>1.02018621096914</v>
+        <v>1.050681037894109</v>
       </c>
       <c r="M19">
-        <v>1.028627014680024</v>
+        <v>1.060110351952571</v>
       </c>
       <c r="N19">
-        <v>1.008722740427777</v>
+        <v>1.018965672530704</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9868071196413987</v>
+        <v>1.039026323782504</v>
       </c>
       <c r="D20">
-        <v>1.010874439626401</v>
+        <v>1.04445585960402</v>
       </c>
       <c r="E20">
-        <v>1.004822576442584</v>
+        <v>1.047061306868363</v>
       </c>
       <c r="F20">
-        <v>1.013323853039611</v>
+        <v>1.056504757471468</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04031017077413</v>
+        <v>1.035399483940321</v>
       </c>
       <c r="J20">
-        <v>1.014856251405006</v>
+        <v>1.045202121287772</v>
       </c>
       <c r="K20">
-        <v>1.024728732753091</v>
+        <v>1.047800122773957</v>
       </c>
       <c r="L20">
-        <v>1.018781153418878</v>
+        <v>1.050396653820051</v>
       </c>
       <c r="M20">
-        <v>1.027136395793731</v>
+        <v>1.059808192379335</v>
       </c>
       <c r="N20">
-        <v>1.008241194220973</v>
+        <v>1.018871518460004</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9798677556965749</v>
+        <v>1.037729386117507</v>
       </c>
       <c r="D21">
-        <v>1.005809047729911</v>
+        <v>1.043481671780441</v>
       </c>
       <c r="E21">
-        <v>0.9991169747784373</v>
+        <v>1.045928325524208</v>
       </c>
       <c r="F21">
-        <v>1.007343481908897</v>
+        <v>1.055315962262002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03864922251252</v>
+        <v>1.035173841939771</v>
       </c>
       <c r="J21">
-        <v>1.010231997477102</v>
+        <v>1.044302754707843</v>
       </c>
       <c r="K21">
-        <v>1.020681195381106</v>
+        <v>1.047034186823103</v>
       </c>
       <c r="L21">
-        <v>1.014115095676827</v>
+        <v>1.0494719020399</v>
       </c>
       <c r="M21">
-        <v>1.022187052674675</v>
+        <v>1.058825666766611</v>
       </c>
       <c r="N21">
-        <v>1.006640170096238</v>
+        <v>1.018565038933912</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9753830339695907</v>
+        <v>1.036914104866614</v>
       </c>
       <c r="D22">
-        <v>1.002542037323726</v>
+        <v>1.042869113176783</v>
       </c>
       <c r="E22">
-        <v>0.9954396512017639</v>
+        <v>1.045216478687336</v>
       </c>
       <c r="F22">
-        <v>1.00348908179806</v>
+        <v>1.054569025760466</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037565465874226</v>
+        <v>1.035030486247008</v>
       </c>
       <c r="J22">
-        <v>1.007243046970122</v>
+        <v>1.043736892416012</v>
       </c>
       <c r="K22">
-        <v>1.018063303601934</v>
+        <v>1.046551878365684</v>
       </c>
       <c r="L22">
-        <v>1.011101994072106</v>
+        <v>1.048890326125618</v>
       </c>
       <c r="M22">
-        <v>1.018991734730907</v>
+        <v>1.058207778808149</v>
       </c>
       <c r="N22">
-        <v>1.005604916647558</v>
+        <v>1.018372055265615</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9777724755849764</v>
+        <v>1.037346286536153</v>
       </c>
       <c r="D23">
-        <v>1.00428202034554</v>
+        <v>1.043193846587369</v>
       </c>
       <c r="E23">
-        <v>0.9973979318857819</v>
+        <v>1.045593794474211</v>
       </c>
       <c r="F23">
-        <v>1.005541657330357</v>
+        <v>1.0549649429754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038143833182766</v>
+        <v>1.035106622602828</v>
       </c>
       <c r="J23">
-        <v>1.008835560467955</v>
+        <v>1.04403690423883</v>
       </c>
       <c r="K23">
-        <v>1.019458267283329</v>
+        <v>1.046807628801007</v>
       </c>
       <c r="L23">
-        <v>1.012707101844704</v>
+        <v>1.049198644583706</v>
       </c>
       <c r="M23">
-        <v>1.020693839968814</v>
+        <v>1.058535345744374</v>
       </c>
       <c r="N23">
-        <v>1.006156534552207</v>
+        <v>1.01847438684044</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9869214981140358</v>
+        <v>1.03904806981756</v>
       </c>
       <c r="D24">
-        <v>1.010958030090718</v>
+        <v>1.044472191167189</v>
       </c>
       <c r="E24">
-        <v>1.004916777688466</v>
+        <v>1.047080309995347</v>
       </c>
       <c r="F24">
-        <v>1.013422590637971</v>
+        <v>1.056524696369702</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040337371178128</v>
+        <v>1.035403241668262</v>
       </c>
       <c r="J24">
-        <v>1.014932458263702</v>
+        <v>1.045217192615593</v>
       </c>
       <c r="K24">
-        <v>1.024795404921981</v>
+        <v>1.047812951349747</v>
       </c>
       <c r="L24">
-        <v>1.018858095888629</v>
+        <v>1.050412154914563</v>
       </c>
       <c r="M24">
-        <v>1.027218020645605</v>
+        <v>1.059824662269147</v>
       </c>
       <c r="N24">
-        <v>1.008267571208484</v>
+        <v>1.018876651750565</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9970527570610037</v>
+        <v>1.04102360321372</v>
       </c>
       <c r="D25">
-        <v>1.018374171321832</v>
+        <v>1.04595542446332</v>
       </c>
       <c r="E25">
-        <v>1.013281238869882</v>
+        <v>1.048807524448167</v>
       </c>
       <c r="F25">
-        <v>1.022189742702056</v>
+        <v>1.058336910314212</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042721136146578</v>
+        <v>1.035740979881702</v>
       </c>
       <c r="J25">
-        <v>1.021679716414152</v>
+        <v>1.046585141357622</v>
       </c>
       <c r="K25">
-        <v>1.030693794103973</v>
+        <v>1.048976376467942</v>
       </c>
       <c r="L25">
-        <v>1.025676820765407</v>
+        <v>1.051819728160389</v>
       </c>
       <c r="M25">
-        <v>1.034453087406608</v>
+        <v>1.06132025710086</v>
       </c>
       <c r="N25">
-        <v>1.010601734098185</v>
+        <v>1.019342204271673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042599891869828</v>
+        <v>1.004784859605187</v>
       </c>
       <c r="D2">
-        <v>1.047138268592801</v>
+        <v>1.024048773680323</v>
       </c>
       <c r="E2">
-        <v>1.050186920802928</v>
+        <v>1.019692304867431</v>
       </c>
       <c r="F2">
-        <v>1.059784109983779</v>
+        <v>1.028909185749749</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036005136391901</v>
+        <v>1.044501883514381</v>
       </c>
       <c r="J2">
-        <v>1.047674844009819</v>
+        <v>1.026823392175191</v>
       </c>
       <c r="K2">
-        <v>1.049901744698063</v>
+        <v>1.03518293708135</v>
       </c>
       <c r="L2">
-        <v>1.052941896170506</v>
+        <v>1.030883945767312</v>
       </c>
       <c r="M2">
-        <v>1.062512670786842</v>
+        <v>1.039979941940995</v>
       </c>
       <c r="N2">
-        <v>1.019712516440287</v>
+        <v>1.012379137647396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043744790363661</v>
+        <v>1.01021586399229</v>
       </c>
       <c r="D3">
-        <v>1.047997012879938</v>
+        <v>1.028041261444699</v>
       </c>
       <c r="E3">
-        <v>1.051189517614417</v>
+        <v>1.024209776060903</v>
       </c>
       <c r="F3">
-        <v>1.060835942231123</v>
+        <v>1.033643717400341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036193906685341</v>
+        <v>1.045729312708217</v>
       </c>
       <c r="J3">
-        <v>1.048465276269072</v>
+        <v>1.030431856122766</v>
       </c>
       <c r="K3">
-        <v>1.050572150880273</v>
+        <v>1.038327493283466</v>
       </c>
       <c r="L3">
-        <v>1.053756398689308</v>
+        <v>1.034541982965132</v>
       </c>
       <c r="M3">
-        <v>1.063378199797882</v>
+        <v>1.043863483632568</v>
       </c>
       <c r="N3">
-        <v>1.019980809508954</v>
+        <v>1.013624711142865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044485795587796</v>
+        <v>1.013650985181177</v>
       </c>
       <c r="D4">
-        <v>1.048552628430742</v>
+        <v>1.030569052159327</v>
       </c>
       <c r="E4">
-        <v>1.051838743781196</v>
+        <v>1.027073289461812</v>
       </c>
       <c r="F4">
-        <v>1.061517028837501</v>
+        <v>1.036644689532868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036314650616249</v>
+        <v>1.046494511665358</v>
       </c>
       <c r="J4">
-        <v>1.048976375819216</v>
+        <v>1.032711827981924</v>
       </c>
       <c r="K4">
-        <v>1.051005257862792</v>
+        <v>1.040312020306164</v>
       </c>
       <c r="L4">
-        <v>1.054283302937291</v>
+        <v>1.036855585498323</v>
       </c>
       <c r="M4">
-        <v>1.063938131321606</v>
+        <v>1.046320081677771</v>
       </c>
       <c r="N4">
-        <v>1.020154141727477</v>
+        <v>1.014411041411682</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04479735776766</v>
+        <v>1.015076956525411</v>
       </c>
       <c r="D5">
-        <v>1.048786197016107</v>
+        <v>1.031618907468969</v>
       </c>
       <c r="E5">
-        <v>1.052111793000486</v>
+        <v>1.028263405026027</v>
       </c>
       <c r="F5">
-        <v>1.061803472587022</v>
+        <v>1.0378919003923</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036365075283553</v>
+        <v>1.046809431561426</v>
       </c>
       <c r="J5">
-        <v>1.049191155204157</v>
+        <v>1.033657658314626</v>
       </c>
       <c r="K5">
-        <v>1.051187170521991</v>
+        <v>1.041134708060114</v>
       </c>
       <c r="L5">
-        <v>1.054504781500243</v>
+        <v>1.037815916948746</v>
       </c>
       <c r="M5">
-        <v>1.064173496802285</v>
+        <v>1.047339850767827</v>
       </c>
       <c r="N5">
-        <v>1.020226945546628</v>
+        <v>1.014737075522673</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04484967300333</v>
+        <v>1.015315340784349</v>
       </c>
       <c r="D6">
-        <v>1.048825413483925</v>
+        <v>1.031794444204282</v>
       </c>
       <c r="E6">
-        <v>1.052157645878683</v>
+        <v>1.028462442701373</v>
       </c>
       <c r="F6">
-        <v>1.061851574488327</v>
+        <v>1.038100484704575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036373522093797</v>
+        <v>1.046861916056183</v>
       </c>
       <c r="J6">
-        <v>1.049227212515044</v>
+        <v>1.033815737988886</v>
       </c>
       <c r="K6">
-        <v>1.051217704746918</v>
+        <v>1.041272171867706</v>
       </c>
       <c r="L6">
-        <v>1.054541966848315</v>
+        <v>1.037976452447356</v>
       </c>
       <c r="M6">
-        <v>1.064213013954716</v>
+        <v>1.047510326976917</v>
       </c>
       <c r="N6">
-        <v>1.020239165811389</v>
+        <v>1.014791556458861</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044489958524818</v>
+        <v>1.013670109407823</v>
       </c>
       <c r="D7">
-        <v>1.048555749433975</v>
+        <v>1.030583130157577</v>
       </c>
       <c r="E7">
-        <v>1.051842391828335</v>
+        <v>1.02708924497737</v>
       </c>
       <c r="F7">
-        <v>1.061520855861474</v>
+        <v>1.036661410647642</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036315325713921</v>
+        <v>1.046498746009792</v>
       </c>
       <c r="J7">
-        <v>1.048979246053156</v>
+        <v>1.032724515375931</v>
       </c>
       <c r="K7">
-        <v>1.051007689239236</v>
+        <v>1.040323058179186</v>
       </c>
       <c r="L7">
-        <v>1.054286262470437</v>
+        <v>1.036868465242982</v>
       </c>
       <c r="M7">
-        <v>1.063941276403678</v>
+        <v>1.046333758265997</v>
       </c>
       <c r="N7">
-        <v>1.020155114791365</v>
+        <v>1.014415415522691</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042986778932081</v>
+        <v>1.006637158133058</v>
       </c>
       <c r="D8">
-        <v>1.047428495263563</v>
+        <v>1.025409871073238</v>
       </c>
       <c r="E8">
-        <v>1.050525653832803</v>
+        <v>1.02123169247658</v>
       </c>
       <c r="F8">
-        <v>1.060139481962121</v>
+        <v>1.030522564957683</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036069222601633</v>
+        <v>1.044922821587998</v>
       </c>
       <c r="J8">
-        <v>1.047942049468256</v>
+        <v>1.028054566876575</v>
       </c>
       <c r="K8">
-        <v>1.050128454504667</v>
+        <v>1.036256307563292</v>
       </c>
       <c r="L8">
-        <v>1.053217188684748</v>
+        <v>1.03213154658374</v>
       </c>
       <c r="M8">
-        <v>1.062805205883673</v>
+        <v>1.041304371228044</v>
       </c>
       <c r="N8">
-        <v>1.019803243469164</v>
+        <v>1.012804252311311</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040339328641417</v>
+        <v>0.9936006445329161</v>
       </c>
       <c r="D9">
-        <v>1.045441766257062</v>
+        <v>1.015844622030595</v>
       </c>
       <c r="E9">
-        <v>1.048209067050528</v>
+        <v>1.010426595506027</v>
       </c>
       <c r="F9">
-        <v>1.057709013906065</v>
+        <v>1.019197699720808</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035624819538091</v>
+        <v>1.041914840849678</v>
       </c>
       <c r="J9">
-        <v>1.046111594738264</v>
+        <v>1.019381422132325</v>
       </c>
       <c r="K9">
-        <v>1.04857384830839</v>
+        <v>1.028685757426465</v>
       </c>
       <c r="L9">
-        <v>1.051332324982463</v>
+        <v>1.023352743547628</v>
       </c>
       <c r="M9">
-        <v>1.06080236322046</v>
+        <v>1.031986801216999</v>
       </c>
       <c r="N9">
-        <v>1.019181126776252</v>
+        <v>1.009806951075249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038575221847292</v>
+        <v>0.984419929567574</v>
       </c>
       <c r="D10">
-        <v>1.044117054428859</v>
+        <v>1.009130551472987</v>
       </c>
       <c r="E10">
-        <v>1.046667150244259</v>
+        <v>1.002857677138348</v>
       </c>
       <c r="F10">
-        <v>1.056091188560686</v>
+        <v>1.011264329545674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035321340967537</v>
+        <v>1.0397411258449</v>
       </c>
       <c r="J10">
-        <v>1.044889416029912</v>
+        <v>1.013265628008149</v>
       </c>
       <c r="K10">
-        <v>1.047533900219311</v>
+        <v>1.023336884938192</v>
       </c>
       <c r="L10">
-        <v>1.050075064332524</v>
+        <v>1.017175526322896</v>
       </c>
       <c r="M10">
-        <v>1.059466506745667</v>
+        <v>1.025433138474629</v>
       </c>
       <c r="N10">
-        <v>1.018764991573799</v>
+        <v>1.007690582279515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037811537547348</v>
+        <v>0.9803143145354378</v>
       </c>
       <c r="D11">
-        <v>1.043543389088515</v>
+        <v>1.006134645780663</v>
       </c>
       <c r="E11">
-        <v>1.046000070120174</v>
+        <v>0.9994835703199361</v>
       </c>
       <c r="F11">
-        <v>1.055391242491938</v>
+        <v>1.007727731660756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035188223035246</v>
+        <v>1.038756712026022</v>
       </c>
       <c r="J11">
-        <v>1.044359752315249</v>
+        <v>1.010529608297551</v>
       </c>
       <c r="K11">
-        <v>1.047082751479004</v>
+        <v>1.020941791610019</v>
       </c>
       <c r="L11">
-        <v>1.049530493378124</v>
+        <v>1.014415232324083</v>
       </c>
       <c r="M11">
-        <v>1.058887917327268</v>
+        <v>1.022505371051941</v>
       </c>
       <c r="N11">
-        <v>1.018584471119016</v>
+        <v>1.006743234756408</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037527898060819</v>
+        <v>0.9787684054919319</v>
       </c>
       <c r="D12">
-        <v>1.043330295920303</v>
+        <v>1.005007703808859</v>
       </c>
       <c r="E12">
-        <v>1.045752373895025</v>
+        <v>0.9982148136769181</v>
       </c>
       <c r="F12">
-        <v>1.055131338860844</v>
+        <v>1.006397876016855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035138520327553</v>
+        <v>1.038384267095099</v>
       </c>
       <c r="J12">
-        <v>1.044162943409447</v>
+        <v>1.009499320867656</v>
       </c>
       <c r="K12">
-        <v>1.046915047865657</v>
+        <v>1.020039588893803</v>
       </c>
       <c r="L12">
-        <v>1.049328189952811</v>
+        <v>1.013376295143436</v>
       </c>
       <c r="M12">
-        <v>1.058672980111381</v>
+        <v>1.021403520792716</v>
       </c>
       <c r="N12">
-        <v>1.018517368036109</v>
+        <v>1.006386426261498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037588738494089</v>
+        <v>0.979100976562767</v>
       </c>
       <c r="D13">
-        <v>1.043376005502254</v>
+        <v>1.005250089768775</v>
       </c>
       <c r="E13">
-        <v>1.045805501639383</v>
+        <v>0.9984876818564511</v>
       </c>
       <c r="F13">
-        <v>1.05518708511357</v>
+        <v>1.006683884407075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035149193345585</v>
+        <v>1.038464470184611</v>
       </c>
       <c r="J13">
-        <v>1.044205162679219</v>
+        <v>1.009720968680418</v>
       </c>
       <c r="K13">
-        <v>1.046951026602235</v>
+        <v>1.020233694451787</v>
       </c>
       <c r="L13">
-        <v>1.049371585882043</v>
+        <v>1.013599781448628</v>
       </c>
       <c r="M13">
-        <v>1.058719085931712</v>
+        <v>1.021640534694854</v>
       </c>
       <c r="N13">
-        <v>1.018531764126313</v>
+        <v>1.006463190223886</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037788091276728</v>
+        <v>0.9801869636473003</v>
       </c>
       <c r="D14">
-        <v>1.043525774909576</v>
+        <v>1.006041785544951</v>
       </c>
       <c r="E14">
-        <v>1.045979593698078</v>
+        <v>0.99937901561297</v>
       </c>
       <c r="F14">
-        <v>1.055369756992138</v>
+        <v>1.007618141877693</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035184119831682</v>
+        <v>1.038726065960333</v>
       </c>
       <c r="J14">
-        <v>1.044343485422909</v>
+        <v>1.010444735106245</v>
       </c>
       <c r="K14">
-        <v>1.047068891634569</v>
+        <v>1.02086747563582</v>
       </c>
       <c r="L14">
-        <v>1.049513771435558</v>
+        <v>1.014329636548226</v>
       </c>
       <c r="M14">
-        <v>1.058870151026716</v>
+        <v>1.022414589471338</v>
       </c>
       <c r="N14">
-        <v>1.01857892537207</v>
+        <v>1.006713842906317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037910922635175</v>
+        <v>0.9808532650175835</v>
       </c>
       <c r="D15">
-        <v>1.043618051686687</v>
+        <v>1.006527677894554</v>
       </c>
       <c r="E15">
-        <v>1.046086869090908</v>
+        <v>0.9999261175264176</v>
       </c>
       <c r="F15">
-        <v>1.055482318758107</v>
+        <v>1.008191590882183</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035205605169085</v>
+        <v>1.038886334562525</v>
       </c>
       <c r="J15">
-        <v>1.044428701582768</v>
+        <v>1.010888789892178</v>
       </c>
       <c r="K15">
-        <v>1.047141495356819</v>
+        <v>1.021256283407648</v>
       </c>
       <c r="L15">
-        <v>1.049601373260406</v>
+        <v>1.01477749194194</v>
       </c>
       <c r="M15">
-        <v>1.058963224121353</v>
+        <v>1.022889583121927</v>
       </c>
       <c r="N15">
-        <v>1.018607976380122</v>
+        <v>1.006867617627304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038625908882367</v>
+        <v>0.984689549916828</v>
       </c>
       <c r="D16">
-        <v>1.044155125533362</v>
+        <v>1.009327444272992</v>
       </c>
       <c r="E16">
-        <v>1.046711434366438</v>
+        <v>1.003079489943641</v>
       </c>
       <c r="F16">
-        <v>1.056137653951776</v>
+        <v>1.011496824435491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03533013955184</v>
+        <v>1.039805523137109</v>
       </c>
       <c r="J16">
-        <v>1.044924558514361</v>
+        <v>1.013445290256682</v>
       </c>
       <c r="K16">
-        <v>1.047563823683329</v>
+        <v>1.023494117426818</v>
       </c>
       <c r="L16">
-        <v>1.050111202142748</v>
+        <v>1.017356849986282</v>
       </c>
       <c r="M16">
-        <v>1.059504902551346</v>
+        <v>1.025625479737641</v>
       </c>
       <c r="N16">
-        <v>1.01877696514506</v>
+        <v>1.007752779904479</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039074449833618</v>
+        <v>0.9870601643502473</v>
       </c>
       <c r="D17">
-        <v>1.044492002782166</v>
+        <v>1.011059374843754</v>
       </c>
       <c r="E17">
-        <v>1.047103362877136</v>
+        <v>1.005030989044256</v>
       </c>
       <c r="F17">
-        <v>1.056548884427954</v>
+        <v>1.013542301933147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035407799001576</v>
+        <v>1.04037033941349</v>
       </c>
       <c r="J17">
-        <v>1.045235475191127</v>
+        <v>1.015024846590022</v>
       </c>
       <c r="K17">
-        <v>1.047828513006854</v>
+        <v>1.024876232570633</v>
       </c>
       <c r="L17">
-        <v>1.050430959022602</v>
+        <v>1.018951378097588</v>
       </c>
       <c r="M17">
-        <v>1.059844641622067</v>
+        <v>1.027316980076992</v>
       </c>
       <c r="N17">
-        <v>1.018882878674369</v>
+        <v>1.008299548619421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039336094155908</v>
+        <v>0.988430426392198</v>
       </c>
       <c r="D18">
-        <v>1.044688492132261</v>
+        <v>1.012061083342176</v>
       </c>
       <c r="E18">
-        <v>1.047332024118115</v>
+        <v>1.006160000790699</v>
       </c>
       <c r="F18">
-        <v>1.056788804462105</v>
+        <v>1.014725680844525</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035452931476983</v>
+        <v>1.040695642580883</v>
       </c>
       <c r="J18">
-        <v>1.045416784009161</v>
+        <v>1.015937757999479</v>
       </c>
       <c r="K18">
-        <v>1.047982820345029</v>
+        <v>1.025674824516189</v>
       </c>
       <c r="L18">
-        <v>1.050617451525525</v>
+        <v>1.01987324504842</v>
       </c>
       <c r="M18">
-        <v>1.060042790749393</v>
+        <v>1.028294980447679</v>
       </c>
       <c r="N18">
-        <v>1.018944624291043</v>
+        <v>1.008615503286145</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039425311187987</v>
+        <v>0.9888955723406371</v>
       </c>
       <c r="D19">
-        <v>1.044755488993911</v>
+        <v>1.012401222220292</v>
       </c>
       <c r="E19">
-        <v>1.047410001189178</v>
+        <v>1.006543420252232</v>
       </c>
       <c r="F19">
-        <v>1.05687062053796</v>
+        <v>1.015127563118415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035468292500836</v>
+        <v>1.040805868331332</v>
       </c>
       <c r="J19">
-        <v>1.045478598240326</v>
+        <v>1.016247633039411</v>
       </c>
       <c r="K19">
-        <v>1.048035421342507</v>
+        <v>1.025945859345246</v>
       </c>
       <c r="L19">
-        <v>1.050681037894109</v>
+        <v>1.020186210969141</v>
       </c>
       <c r="M19">
-        <v>1.060110351952571</v>
+        <v>1.028627014680024</v>
       </c>
       <c r="N19">
-        <v>1.018965672530704</v>
+        <v>1.008722740427777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039026323782504</v>
+        <v>0.9868071196413996</v>
       </c>
       <c r="D20">
-        <v>1.04445585960402</v>
+        <v>1.010874439626402</v>
       </c>
       <c r="E20">
-        <v>1.047061306868363</v>
+        <v>1.004822576442585</v>
       </c>
       <c r="F20">
-        <v>1.056504757471468</v>
+        <v>1.013323853039611</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035399483940321</v>
+        <v>1.040310170774131</v>
       </c>
       <c r="J20">
-        <v>1.045202121287772</v>
+        <v>1.014856251405007</v>
       </c>
       <c r="K20">
-        <v>1.047800122773957</v>
+        <v>1.024728732753092</v>
       </c>
       <c r="L20">
-        <v>1.050396653820051</v>
+        <v>1.018781153418878</v>
       </c>
       <c r="M20">
-        <v>1.059808192379335</v>
+        <v>1.027136395793731</v>
       </c>
       <c r="N20">
-        <v>1.018871518460004</v>
+        <v>1.008241194220973</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037729386117507</v>
+        <v>0.979867755696575</v>
       </c>
       <c r="D21">
-        <v>1.043481671780441</v>
+        <v>1.00580904772991</v>
       </c>
       <c r="E21">
-        <v>1.045928325524208</v>
+        <v>0.9991169747784374</v>
       </c>
       <c r="F21">
-        <v>1.055315962262002</v>
+        <v>1.007343481908897</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035173841939771</v>
+        <v>1.03864922251252</v>
       </c>
       <c r="J21">
-        <v>1.044302754707843</v>
+        <v>1.010231997477102</v>
       </c>
       <c r="K21">
-        <v>1.047034186823103</v>
+        <v>1.020681195381106</v>
       </c>
       <c r="L21">
-        <v>1.0494719020399</v>
+        <v>1.014115095676827</v>
       </c>
       <c r="M21">
-        <v>1.058825666766611</v>
+        <v>1.022187052674675</v>
       </c>
       <c r="N21">
-        <v>1.018565038933912</v>
+        <v>1.006640170096238</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036914104866614</v>
+        <v>0.9753830339695906</v>
       </c>
       <c r="D22">
-        <v>1.042869113176783</v>
+        <v>1.002542037323725</v>
       </c>
       <c r="E22">
-        <v>1.045216478687336</v>
+        <v>0.9954396512017636</v>
       </c>
       <c r="F22">
-        <v>1.054569025760466</v>
+        <v>1.003489081798059</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035030486247008</v>
+        <v>1.037565465874226</v>
       </c>
       <c r="J22">
-        <v>1.043736892416012</v>
+        <v>1.007243046970121</v>
       </c>
       <c r="K22">
-        <v>1.046551878365684</v>
+        <v>1.018063303601933</v>
       </c>
       <c r="L22">
-        <v>1.048890326125618</v>
+        <v>1.011101994072106</v>
       </c>
       <c r="M22">
-        <v>1.058207778808149</v>
+        <v>1.018991734730907</v>
       </c>
       <c r="N22">
-        <v>1.018372055265615</v>
+        <v>1.005604916647558</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037346286536153</v>
+        <v>0.9777724755849773</v>
       </c>
       <c r="D23">
-        <v>1.043193846587369</v>
+        <v>1.004282020345541</v>
       </c>
       <c r="E23">
-        <v>1.045593794474211</v>
+        <v>0.9973979318857827</v>
       </c>
       <c r="F23">
-        <v>1.0549649429754</v>
+        <v>1.005541657330359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035106622602828</v>
+        <v>1.038143833182767</v>
       </c>
       <c r="J23">
-        <v>1.04403690423883</v>
+        <v>1.008835560467956</v>
       </c>
       <c r="K23">
-        <v>1.046807628801007</v>
+        <v>1.01945826728333</v>
       </c>
       <c r="L23">
-        <v>1.049198644583706</v>
+        <v>1.012707101844705</v>
       </c>
       <c r="M23">
-        <v>1.058535345744374</v>
+        <v>1.020693839968815</v>
       </c>
       <c r="N23">
-        <v>1.01847438684044</v>
+        <v>1.006156534552207</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03904806981756</v>
+        <v>0.9869214981140357</v>
       </c>
       <c r="D24">
-        <v>1.044472191167189</v>
+        <v>1.010958030090718</v>
       </c>
       <c r="E24">
-        <v>1.047080309995347</v>
+        <v>1.004916777688466</v>
       </c>
       <c r="F24">
-        <v>1.056524696369702</v>
+        <v>1.01342259063797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035403241668262</v>
+        <v>1.040337371178128</v>
       </c>
       <c r="J24">
-        <v>1.045217192615593</v>
+        <v>1.014932458263702</v>
       </c>
       <c r="K24">
-        <v>1.047812951349747</v>
+        <v>1.024795404921981</v>
       </c>
       <c r="L24">
-        <v>1.050412154914563</v>
+        <v>1.018858095888629</v>
       </c>
       <c r="M24">
-        <v>1.059824662269147</v>
+        <v>1.027218020645604</v>
       </c>
       <c r="N24">
-        <v>1.018876651750565</v>
+        <v>1.008267571208484</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04102360321372</v>
+        <v>0.997052757061003</v>
       </c>
       <c r="D25">
-        <v>1.04595542446332</v>
+        <v>1.018374171321831</v>
       </c>
       <c r="E25">
-        <v>1.048807524448167</v>
+        <v>1.013281238869881</v>
       </c>
       <c r="F25">
-        <v>1.058336910314212</v>
+        <v>1.022189742702055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035740979881702</v>
+        <v>1.042721136146578</v>
       </c>
       <c r="J25">
-        <v>1.046585141357622</v>
+        <v>1.021679716414151</v>
       </c>
       <c r="K25">
-        <v>1.048976376467942</v>
+        <v>1.030693794103973</v>
       </c>
       <c r="L25">
-        <v>1.051819728160389</v>
+        <v>1.025676820765407</v>
       </c>
       <c r="M25">
-        <v>1.06132025710086</v>
+        <v>1.034453087406607</v>
       </c>
       <c r="N25">
-        <v>1.019342204271673</v>
+        <v>1.010601734098185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004784859605187</v>
+        <v>0.9999773581467589</v>
       </c>
       <c r="D2">
-        <v>1.024048773680323</v>
+        <v>1.020223640958204</v>
       </c>
       <c r="E2">
-        <v>1.019692304867431</v>
+        <v>1.017160946078374</v>
       </c>
       <c r="F2">
-        <v>1.028909185749749</v>
+        <v>1.030164484645</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044501883514381</v>
+        <v>1.044248982043001</v>
       </c>
       <c r="J2">
-        <v>1.026823392175191</v>
+        <v>1.022158746449248</v>
       </c>
       <c r="K2">
-        <v>1.03518293708135</v>
+        <v>1.031408238646397</v>
       </c>
       <c r="L2">
-        <v>1.030883945767312</v>
+        <v>1.028386268685624</v>
       </c>
       <c r="M2">
-        <v>1.039979941940995</v>
+        <v>1.041218986306627</v>
       </c>
       <c r="N2">
-        <v>1.012379137647396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011294109385089</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041194452996734</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033278544402861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01021586399229</v>
+        <v>1.003396240547376</v>
       </c>
       <c r="D3">
-        <v>1.028041261444699</v>
+        <v>1.02238000492007</v>
       </c>
       <c r="E3">
-        <v>1.024209776060903</v>
+        <v>1.01981363056763</v>
       </c>
       <c r="F3">
-        <v>1.033643717400341</v>
+        <v>1.032778408335419</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045729312708217</v>
+        <v>1.04476240047805</v>
       </c>
       <c r="J3">
-        <v>1.030431856122766</v>
+        <v>1.023794746864139</v>
       </c>
       <c r="K3">
-        <v>1.038327493283466</v>
+        <v>1.032734318740121</v>
       </c>
       <c r="L3">
-        <v>1.034541982965132</v>
+        <v>1.030199116894545</v>
       </c>
       <c r="M3">
-        <v>1.043863483632568</v>
+        <v>1.043008381978714</v>
       </c>
       <c r="N3">
-        <v>1.013624711142865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011850568728185</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042610636947664</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034213526526675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013650985181177</v>
+        <v>1.005573002014845</v>
       </c>
       <c r="D4">
-        <v>1.030569052159327</v>
+        <v>1.023756142870246</v>
       </c>
       <c r="E4">
-        <v>1.027073289461812</v>
+        <v>1.021508508851183</v>
       </c>
       <c r="F4">
-        <v>1.036644689532868</v>
+        <v>1.034449508908506</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046494511665358</v>
+        <v>1.04508005779158</v>
       </c>
       <c r="J4">
-        <v>1.032711827981924</v>
+        <v>1.024835216235791</v>
       </c>
       <c r="K4">
-        <v>1.040312020306164</v>
+        <v>1.033576063604283</v>
       </c>
       <c r="L4">
-        <v>1.036855585498323</v>
+        <v>1.031354094728826</v>
       </c>
       <c r="M4">
-        <v>1.046320081677771</v>
+        <v>1.044149204205117</v>
       </c>
       <c r="N4">
-        <v>1.014411041411682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012204354355956</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043513518055737</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034809622119965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015076956525411</v>
+        <v>1.006482304953998</v>
       </c>
       <c r="D5">
-        <v>1.031618907468969</v>
+        <v>1.02433380843873</v>
       </c>
       <c r="E5">
-        <v>1.028263405026027</v>
+        <v>1.022217990067332</v>
       </c>
       <c r="F5">
-        <v>1.0378919003923</v>
+        <v>1.03514871765633</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046809431561426</v>
+        <v>1.045211759405927</v>
       </c>
       <c r="J5">
-        <v>1.033657658314626</v>
+        <v>1.025270777123376</v>
       </c>
       <c r="K5">
-        <v>1.041134708060114</v>
+        <v>1.033929688589393</v>
       </c>
       <c r="L5">
-        <v>1.037815916948746</v>
+        <v>1.031837390933281</v>
       </c>
       <c r="M5">
-        <v>1.047339850767827</v>
+        <v>1.044626214899838</v>
       </c>
       <c r="N5">
-        <v>1.014737075522673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012352641367785</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043891038370515</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035066886251349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015315340784349</v>
+        <v>1.00663749288614</v>
       </c>
       <c r="D6">
-        <v>1.031794444204282</v>
+        <v>1.024434960240685</v>
       </c>
       <c r="E6">
-        <v>1.028462442701373</v>
+        <v>1.022339252292075</v>
       </c>
       <c r="F6">
-        <v>1.038100484704575</v>
+        <v>1.035267568574654</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046861916056183</v>
+        <v>1.045235632589628</v>
       </c>
       <c r="J6">
-        <v>1.033815737988886</v>
+        <v>1.02534658080924</v>
       </c>
       <c r="K6">
-        <v>1.041272171867706</v>
+        <v>1.033993212310325</v>
       </c>
       <c r="L6">
-        <v>1.037976452447356</v>
+        <v>1.031920695486261</v>
       </c>
       <c r="M6">
-        <v>1.047510326976917</v>
+        <v>1.044707782188047</v>
       </c>
       <c r="N6">
-        <v>1.014791556458861</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012378708390799</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043955593105515</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035120606075434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013670109407823</v>
+        <v>1.005593215180544</v>
       </c>
       <c r="D7">
-        <v>1.030583130157577</v>
+        <v>1.023775721422193</v>
       </c>
       <c r="E7">
-        <v>1.02708924497737</v>
+        <v>1.02152453664257</v>
       </c>
       <c r="F7">
-        <v>1.036661410647642</v>
+        <v>1.034463505337221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046498746009792</v>
+        <v>1.045087091161129</v>
       </c>
       <c r="J7">
-        <v>1.032724515375931</v>
+        <v>1.024848881331321</v>
       </c>
       <c r="K7">
-        <v>1.040323058179186</v>
+        <v>1.033592511138651</v>
       </c>
       <c r="L7">
-        <v>1.036868465242982</v>
+        <v>1.031367022356009</v>
       </c>
       <c r="M7">
-        <v>1.046333758265997</v>
+        <v>1.044160177284109</v>
       </c>
       <c r="N7">
-        <v>1.014415415522691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01220971914043</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043522202475874</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034841498095513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006637158133058</v>
+        <v>1.001150264066256</v>
       </c>
       <c r="D8">
-        <v>1.025409871073238</v>
+        <v>1.020971025397319</v>
       </c>
       <c r="E8">
-        <v>1.02123169247658</v>
+        <v>1.018070114508989</v>
       </c>
       <c r="F8">
-        <v>1.030522564957683</v>
+        <v>1.031057913619988</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044922821587998</v>
+        <v>1.044432034754886</v>
       </c>
       <c r="J8">
-        <v>1.028054566876575</v>
+        <v>1.022725152145511</v>
       </c>
       <c r="K8">
-        <v>1.036256307563292</v>
+        <v>1.031874230225349</v>
       </c>
       <c r="L8">
-        <v>1.03213154658374</v>
+        <v>1.029010753739639</v>
       </c>
       <c r="M8">
-        <v>1.041304371228044</v>
+        <v>1.041832998709324</v>
       </c>
       <c r="N8">
-        <v>1.012804252311311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011487720839185</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041680402014227</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033631109483002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936006445329161</v>
+        <v>0.9930258297744639</v>
       </c>
       <c r="D9">
-        <v>1.015844622030595</v>
+        <v>1.015858791141646</v>
       </c>
       <c r="E9">
-        <v>1.010426595506027</v>
+        <v>1.011801321507186</v>
       </c>
       <c r="F9">
-        <v>1.019197699720808</v>
+        <v>1.024888666157561</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041914840849678</v>
+        <v>1.043156375529175</v>
       </c>
       <c r="J9">
-        <v>1.019381422132325</v>
+        <v>1.018827290719532</v>
       </c>
       <c r="K9">
-        <v>1.028685757426465</v>
+        <v>1.028699705733939</v>
       </c>
       <c r="L9">
-        <v>1.023352743547628</v>
+        <v>1.024705788818077</v>
       </c>
       <c r="M9">
-        <v>1.031986801216999</v>
+        <v>1.03759044748951</v>
       </c>
       <c r="N9">
-        <v>1.009806951075249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010160554837109</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038322704846545</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031383284805441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.984419929567574</v>
+        <v>0.9874570737772933</v>
       </c>
       <c r="D10">
-        <v>1.009130551472987</v>
+        <v>1.012383716214621</v>
       </c>
       <c r="E10">
-        <v>1.002857677138348</v>
+        <v>1.007584115051199</v>
       </c>
       <c r="F10">
-        <v>1.011264329545674</v>
+        <v>1.020807844323216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0397411258449</v>
+        <v>1.042254355126903</v>
       </c>
       <c r="J10">
-        <v>1.013265628008149</v>
+        <v>1.016177331092169</v>
       </c>
       <c r="K10">
-        <v>1.023336884938192</v>
+        <v>1.0265329215921</v>
       </c>
       <c r="L10">
-        <v>1.017175526322896</v>
+        <v>1.02181777293449</v>
       </c>
       <c r="M10">
-        <v>1.025433138474629</v>
+        <v>1.034811302173716</v>
       </c>
       <c r="N10">
-        <v>1.007690582279515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009261268236197</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036174770166796</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029868149457072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9803143145354378</v>
+        <v>0.9854140516146923</v>
       </c>
       <c r="D11">
-        <v>1.006134645780663</v>
+        <v>1.011170952702588</v>
       </c>
       <c r="E11">
-        <v>0.9994835703199361</v>
+        <v>1.006402919162783</v>
       </c>
       <c r="F11">
-        <v>1.007727731660756</v>
+        <v>1.020181529012456</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038756712026022</v>
+        <v>1.042053156859298</v>
       </c>
       <c r="J11">
-        <v>1.010529608297551</v>
+        <v>1.015406469173451</v>
       </c>
       <c r="K11">
-        <v>1.020941791610019</v>
+        <v>1.025885231898586</v>
       </c>
       <c r="L11">
-        <v>1.014415232324083</v>
+        <v>1.021205087620278</v>
       </c>
       <c r="M11">
-        <v>1.022505371051941</v>
+        <v>1.034732629556725</v>
       </c>
       <c r="N11">
-        <v>1.006743234756408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009027669953339</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036549690550031</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029443288915313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9787684054919319</v>
+        <v>0.984798630898123</v>
       </c>
       <c r="D12">
-        <v>1.005007703808859</v>
+        <v>1.010825575368559</v>
       </c>
       <c r="E12">
-        <v>0.9982148136769181</v>
+        <v>1.006200544083332</v>
       </c>
       <c r="F12">
-        <v>1.006397876016855</v>
+        <v>1.020366917696093</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038384267095099</v>
+        <v>1.042049193710231</v>
       </c>
       <c r="J12">
-        <v>1.009499320867656</v>
+        <v>1.015260570457037</v>
       </c>
       <c r="K12">
-        <v>1.020039588893803</v>
+        <v>1.025748272333569</v>
       </c>
       <c r="L12">
-        <v>1.013376295143436</v>
+        <v>1.021209907845113</v>
       </c>
       <c r="M12">
-        <v>1.021403520792716</v>
+        <v>1.035114052391291</v>
       </c>
       <c r="N12">
-        <v>1.006386426261498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00900080842361</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037178323576686</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029346452712539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.979100976562767</v>
+        <v>0.9852495435718084</v>
       </c>
       <c r="D13">
-        <v>1.005250089768775</v>
+        <v>1.011136994439503</v>
       </c>
       <c r="E13">
-        <v>0.9984876818564511</v>
+        <v>1.006747199284036</v>
       </c>
       <c r="F13">
-        <v>1.006683884407075</v>
+        <v>1.021209016126085</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038464470184611</v>
+        <v>1.042207280776213</v>
       </c>
       <c r="J13">
-        <v>1.009720968680418</v>
+        <v>1.0155966011763</v>
       </c>
       <c r="K13">
-        <v>1.020233694451787</v>
+        <v>1.026010564794384</v>
       </c>
       <c r="L13">
-        <v>1.013599781448628</v>
+        <v>1.021702661605136</v>
       </c>
       <c r="M13">
-        <v>1.021640534694854</v>
+        <v>1.035898151830768</v>
       </c>
       <c r="N13">
-        <v>1.006463190223886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009135831448137</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.0380752997768</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029529393380854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801869636473003</v>
+        <v>0.9860478930470938</v>
       </c>
       <c r="D14">
-        <v>1.006041785544951</v>
+        <v>1.011653586888189</v>
       </c>
       <c r="E14">
-        <v>0.99937901561297</v>
+        <v>1.007466354508074</v>
       </c>
       <c r="F14">
-        <v>1.007618141877693</v>
+        <v>1.02209228760931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038726065960333</v>
+        <v>1.042391054657062</v>
       </c>
       <c r="J14">
-        <v>1.010444735106245</v>
+        <v>1.016049341485562</v>
       </c>
       <c r="K14">
-        <v>1.02086747563582</v>
+        <v>1.026375714962527</v>
       </c>
       <c r="L14">
-        <v>1.014329636548226</v>
+        <v>1.022265612670754</v>
       </c>
       <c r="M14">
-        <v>1.022414589471338</v>
+        <v>1.036625703859929</v>
       </c>
       <c r="N14">
-        <v>1.006713842906317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009303540315611</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038823879022991</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029789005299256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9808532650175835</v>
+        <v>0.986478813697523</v>
       </c>
       <c r="D15">
-        <v>1.006527677894554</v>
+        <v>1.011927907413034</v>
       </c>
       <c r="E15">
-        <v>0.9999261175264176</v>
+        <v>1.007814729658338</v>
       </c>
       <c r="F15">
-        <v>1.008191590882183</v>
+        <v>1.022469427052466</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038886334562525</v>
+        <v>1.042474598483547</v>
       </c>
       <c r="J15">
-        <v>1.010888789892178</v>
+        <v>1.016270545558892</v>
       </c>
       <c r="K15">
-        <v>1.021256283407648</v>
+        <v>1.026557634858859</v>
       </c>
       <c r="L15">
-        <v>1.01477749194194</v>
+        <v>1.022519643992168</v>
       </c>
       <c r="M15">
-        <v>1.022889583121927</v>
+        <v>1.036910043003612</v>
       </c>
       <c r="N15">
-        <v>1.006867617627304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009381882284678</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039086180370115</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029923544670732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.984689549916828</v>
+        <v>0.9887423743485987</v>
       </c>
       <c r="D16">
-        <v>1.009327444272992</v>
+        <v>1.013335068464428</v>
       </c>
       <c r="E16">
-        <v>1.003079489943641</v>
+        <v>1.009495517450606</v>
       </c>
       <c r="F16">
-        <v>1.011496824435491</v>
+        <v>1.024069923496139</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039805523137109</v>
+        <v>1.042839763515157</v>
       </c>
       <c r="J16">
-        <v>1.013445290256682</v>
+        <v>1.017331634396626</v>
       </c>
       <c r="K16">
-        <v>1.023494117426818</v>
+        <v>1.02743167392405</v>
       </c>
       <c r="L16">
-        <v>1.017356849986282</v>
+        <v>1.023659237595888</v>
       </c>
       <c r="M16">
-        <v>1.025625479737641</v>
+        <v>1.037982331917436</v>
       </c>
       <c r="N16">
-        <v>1.007752779904479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009738118894985</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039894973954335</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030544721456827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9870601643502473</v>
+        <v>0.9900641148404251</v>
       </c>
       <c r="D17">
-        <v>1.011059374843754</v>
+        <v>1.014147154692784</v>
       </c>
       <c r="E17">
-        <v>1.005030989044256</v>
+        <v>1.010410997055404</v>
       </c>
       <c r="F17">
-        <v>1.013542301933147</v>
+        <v>1.024830939395548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04037033941349</v>
+        <v>1.043021754918151</v>
       </c>
       <c r="J17">
-        <v>1.015024846590022</v>
+        <v>1.017909542756722</v>
       </c>
       <c r="K17">
-        <v>1.024876232570633</v>
+        <v>1.027911598058602</v>
       </c>
       <c r="L17">
-        <v>1.018951378097588</v>
+        <v>1.02423891341651</v>
       </c>
       <c r="M17">
-        <v>1.027316980076992</v>
+        <v>1.038417162931406</v>
       </c>
       <c r="N17">
-        <v>1.008299548619421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009923808465685</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040109552829182</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030886658474341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.988430426392198</v>
+        <v>0.9906879225406423</v>
       </c>
       <c r="D18">
-        <v>1.012061083342176</v>
+        <v>1.014507791587531</v>
       </c>
       <c r="E18">
-        <v>1.006160000790699</v>
+        <v>1.010719509757</v>
       </c>
       <c r="F18">
-        <v>1.014725680844525</v>
+        <v>1.024877398336123</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040695642580883</v>
+        <v>1.043054444803882</v>
       </c>
       <c r="J18">
-        <v>1.015937757999479</v>
+        <v>1.01810740438861</v>
       </c>
       <c r="K18">
-        <v>1.025674824516189</v>
+        <v>1.028080713975893</v>
       </c>
       <c r="L18">
-        <v>1.01987324504842</v>
+        <v>1.024355740752404</v>
       </c>
       <c r="M18">
-        <v>1.028294980447679</v>
+        <v>1.038280101070885</v>
       </c>
       <c r="N18">
-        <v>1.008615503286145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009973097527585</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039763305523135</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030994510346795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9888955723406371</v>
+        <v>0.990686359907187</v>
       </c>
       <c r="D19">
-        <v>1.012401222220292</v>
+        <v>1.014474016278902</v>
       </c>
       <c r="E19">
-        <v>1.006543420252232</v>
+        <v>1.010474314512818</v>
       </c>
       <c r="F19">
-        <v>1.015127563118415</v>
+        <v>1.024265880202991</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040805868331332</v>
+        <v>1.042959877027179</v>
       </c>
       <c r="J19">
-        <v>1.016247633039411</v>
+        <v>1.017969187294677</v>
       </c>
       <c r="K19">
-        <v>1.025945859345246</v>
+        <v>1.027984271046199</v>
       </c>
       <c r="L19">
-        <v>1.020186210969141</v>
+        <v>1.024051077138035</v>
       </c>
       <c r="M19">
-        <v>1.028627014680024</v>
+        <v>1.037616127843843</v>
       </c>
       <c r="N19">
-        <v>1.008722740427777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009904674960822</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038912390643749</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030932762243481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868071196413996</v>
+        <v>0.9889197276943795</v>
       </c>
       <c r="D20">
-        <v>1.010874439626402</v>
+        <v>1.01331154452952</v>
       </c>
       <c r="E20">
-        <v>1.004822576442585</v>
+        <v>1.008692394011611</v>
       </c>
       <c r="F20">
-        <v>1.013323853039611</v>
+        <v>1.021878758308911</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040310170774131</v>
+        <v>1.042505073469843</v>
       </c>
       <c r="J20">
-        <v>1.014856251405007</v>
+        <v>1.016884559889145</v>
       </c>
       <c r="K20">
-        <v>1.024728732753092</v>
+        <v>1.027124296431353</v>
       </c>
       <c r="L20">
-        <v>1.018781153418878</v>
+        <v>1.022584100988233</v>
       </c>
       <c r="M20">
-        <v>1.027136395793731</v>
+        <v>1.035547504633604</v>
       </c>
       <c r="N20">
-        <v>1.008241194220973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009503576542399</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036746819981578</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030328665623919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.979867755696575</v>
+        <v>0.9846663382604349</v>
       </c>
       <c r="D21">
-        <v>1.00580904772991</v>
+        <v>1.010651617643254</v>
       </c>
       <c r="E21">
-        <v>0.9991169747784374</v>
+        <v>1.005414465566092</v>
       </c>
       <c r="F21">
-        <v>1.007343481908897</v>
+        <v>1.018609240697451</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03864922251252</v>
+        <v>1.041772506623885</v>
       </c>
       <c r="J21">
-        <v>1.010231997477102</v>
+        <v>1.014819443421047</v>
       </c>
       <c r="K21">
-        <v>1.020681195381106</v>
+        <v>1.025433963272728</v>
       </c>
       <c r="L21">
-        <v>1.014115095676827</v>
+        <v>1.020293980210041</v>
       </c>
       <c r="M21">
-        <v>1.022187052674675</v>
+        <v>1.03324642866923</v>
       </c>
       <c r="N21">
-        <v>1.006640170096238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008797420988535</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034884686482535</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029136767584972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9753830339695906</v>
+        <v>0.9819610831350344</v>
       </c>
       <c r="D22">
-        <v>1.002542037323725</v>
+        <v>1.008961761915914</v>
       </c>
       <c r="E22">
-        <v>0.9954396512017636</v>
+        <v>1.003359695515309</v>
       </c>
       <c r="F22">
-        <v>1.003489081798059</v>
+        <v>1.016594885123604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037565465874226</v>
+        <v>1.041302163620736</v>
       </c>
       <c r="J22">
-        <v>1.007243046970121</v>
+        <v>1.013513960146778</v>
       </c>
       <c r="K22">
-        <v>1.018063303601933</v>
+        <v>1.024357750815316</v>
       </c>
       <c r="L22">
-        <v>1.011101994072106</v>
+        <v>1.018864888704192</v>
       </c>
       <c r="M22">
-        <v>1.018991734730907</v>
+        <v>1.031844609876868</v>
       </c>
       <c r="N22">
-        <v>1.005604916647558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008351599746475</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033775231292559</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028362216083855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9777724755849773</v>
+        <v>0.9833924791727443</v>
       </c>
       <c r="D23">
-        <v>1.004282020345541</v>
+        <v>1.009849553503</v>
       </c>
       <c r="E23">
-        <v>0.9973979318857827</v>
+        <v>1.004445704569785</v>
       </c>
       <c r="F23">
-        <v>1.005541657330359</v>
+        <v>1.017661047856299</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038143833182767</v>
+        <v>1.041548439161249</v>
       </c>
       <c r="J23">
-        <v>1.008835560467956</v>
+        <v>1.01420124003334</v>
       </c>
       <c r="K23">
-        <v>1.01945826728333</v>
+        <v>1.024920030254691</v>
       </c>
       <c r="L23">
-        <v>1.012707101844705</v>
+        <v>1.019618819993723</v>
       </c>
       <c r="M23">
-        <v>1.020693839968815</v>
+        <v>1.03258566755503</v>
       </c>
       <c r="N23">
-        <v>1.006156534552207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008585513019677</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034361734053568</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028750068181143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869214981140357</v>
+        <v>0.988938025934716</v>
       </c>
       <c r="D24">
-        <v>1.010958030090718</v>
+        <v>1.013308799436815</v>
       </c>
       <c r="E24">
-        <v>1.004916777688466</v>
+        <v>1.008670479896214</v>
       </c>
       <c r="F24">
-        <v>1.01342259063797</v>
+        <v>1.021808905985115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040337371178128</v>
+        <v>1.042489515550403</v>
       </c>
       <c r="J24">
-        <v>1.014932458263702</v>
+        <v>1.016868649113377</v>
       </c>
       <c r="K24">
-        <v>1.024795404921981</v>
+        <v>1.027106160278905</v>
       </c>
       <c r="L24">
-        <v>1.018858095888629</v>
+        <v>1.022547024068279</v>
       </c>
       <c r="M24">
-        <v>1.027218020645604</v>
+        <v>1.035463559475862</v>
       </c>
       <c r="N24">
-        <v>1.008267571208484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009494537524615</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036639408497277</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03028823189304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.997052757061003</v>
+        <v>0.9951739719623737</v>
       </c>
       <c r="D25">
-        <v>1.018374171321831</v>
+        <v>1.017217372513133</v>
       </c>
       <c r="E25">
-        <v>1.013281238869881</v>
+        <v>1.013453480496957</v>
       </c>
       <c r="F25">
-        <v>1.022189742702055</v>
+        <v>1.026510754993707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042721136146578</v>
+        <v>1.043507998491635</v>
       </c>
       <c r="J25">
-        <v>1.021679716414151</v>
+        <v>1.01986484994031</v>
       </c>
       <c r="K25">
-        <v>1.030693794103973</v>
+        <v>1.029554163623021</v>
       </c>
       <c r="L25">
-        <v>1.025676820765407</v>
+        <v>1.025846477601223</v>
       </c>
       <c r="M25">
-        <v>1.034453087406607</v>
+        <v>1.038711007189524</v>
       </c>
       <c r="N25">
-        <v>1.010601734098185</v>
+        <v>1.010515167855724</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039209554857962</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032016238382675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9999773581467589</v>
+        <v>1.000178479996189</v>
       </c>
       <c r="D2">
-        <v>1.020223640958204</v>
+        <v>1.020107560375427</v>
       </c>
       <c r="E2">
-        <v>1.017160946078374</v>
+        <v>1.017314569449289</v>
       </c>
       <c r="F2">
-        <v>1.030164484645</v>
+        <v>1.030257593578782</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044248982043001</v>
+        <v>1.044212210457246</v>
       </c>
       <c r="J2">
-        <v>1.022158746449248</v>
+        <v>1.022353854067971</v>
       </c>
       <c r="K2">
-        <v>1.031408238646397</v>
+        <v>1.031293696002691</v>
       </c>
       <c r="L2">
-        <v>1.028386268685624</v>
+        <v>1.028537841978332</v>
       </c>
       <c r="M2">
-        <v>1.041218986306627</v>
+        <v>1.041310891572095</v>
       </c>
       <c r="N2">
-        <v>1.011294109385089</v>
+        <v>1.013125263272877</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041194452996734</v>
+        <v>1.041267189778636</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033278544402861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033206387197131</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020447246928071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003396240547376</v>
+        <v>1.00348968935168</v>
       </c>
       <c r="D3">
-        <v>1.02238000492007</v>
+        <v>1.022121926712659</v>
       </c>
       <c r="E3">
-        <v>1.01981363056763</v>
+        <v>1.019883097998431</v>
       </c>
       <c r="F3">
-        <v>1.032778408335419</v>
+        <v>1.032811744749605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04476240047805</v>
+        <v>1.044666014770114</v>
       </c>
       <c r="J3">
-        <v>1.023794746864139</v>
+        <v>1.023885671882893</v>
       </c>
       <c r="K3">
-        <v>1.032734318740121</v>
+        <v>1.03247936649066</v>
       </c>
       <c r="L3">
-        <v>1.030199116894545</v>
+        <v>1.030267737970784</v>
       </c>
       <c r="M3">
-        <v>1.043008381978714</v>
+        <v>1.043041324755576</v>
       </c>
       <c r="N3">
-        <v>1.011850568728185</v>
+        <v>1.013539575066075</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042610636947664</v>
+        <v>1.042636708870282</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034213526526675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034041810102069</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020664821977076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005573002014845</v>
+        <v>1.005598603438006</v>
       </c>
       <c r="D4">
-        <v>1.023756142870246</v>
+        <v>1.023408102616456</v>
       </c>
       <c r="E4">
-        <v>1.021508508851183</v>
+        <v>1.021524884848144</v>
       </c>
       <c r="F4">
-        <v>1.034449508908506</v>
+        <v>1.034445171914871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04508005779158</v>
+        <v>1.04494586231964</v>
       </c>
       <c r="J4">
-        <v>1.024835216235791</v>
+        <v>1.024860172555686</v>
       </c>
       <c r="K4">
-        <v>1.033576063604283</v>
+        <v>1.033231988431477</v>
       </c>
       <c r="L4">
-        <v>1.031354094728826</v>
+        <v>1.031370283228513</v>
       </c>
       <c r="M4">
-        <v>1.044149204205117</v>
+        <v>1.044144915352503</v>
       </c>
       <c r="N4">
-        <v>1.012204354355956</v>
+        <v>1.013803100999207</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043513518055737</v>
+        <v>1.043510123730558</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034809622119965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034574969461063</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020800557068746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006482304953998</v>
+        <v>1.006479729472341</v>
       </c>
       <c r="D5">
-        <v>1.02433380843873</v>
+        <v>1.023948341504548</v>
       </c>
       <c r="E5">
-        <v>1.022217990067332</v>
+        <v>1.022212304150972</v>
       </c>
       <c r="F5">
-        <v>1.03514871765633</v>
+        <v>1.035128734342423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I5">
-        <v>1.045211759405927</v>
+        <v>1.045061819640828</v>
       </c>
       <c r="J5">
-        <v>1.025270777123376</v>
+        <v>1.025268264618062</v>
       </c>
       <c r="K5">
-        <v>1.033929688589393</v>
+        <v>1.033548497832652</v>
       </c>
       <c r="L5">
-        <v>1.031837390933281</v>
+        <v>1.031831768386407</v>
       </c>
       <c r="M5">
-        <v>1.044626214899838</v>
+        <v>1.044606447531041</v>
       </c>
       <c r="N5">
-        <v>1.012352641367785</v>
+        <v>1.013913616107137</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043891038370515</v>
+        <v>1.043875393896457</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035066886251349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034806699912013</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020857476606716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00663749288614</v>
+        <v>1.006630121280672</v>
       </c>
       <c r="D6">
-        <v>1.024434960240685</v>
+        <v>1.024043170404866</v>
       </c>
       <c r="E6">
-        <v>1.022339252292075</v>
+        <v>1.022329810163319</v>
       </c>
       <c r="F6">
-        <v>1.035267568574654</v>
+        <v>1.035244923031189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045235632589628</v>
+        <v>1.045083026310599</v>
       </c>
       <c r="J6">
-        <v>1.02534658080924</v>
+        <v>1.025339388538227</v>
       </c>
       <c r="K6">
-        <v>1.033993212310325</v>
+        <v>1.033605749156834</v>
       </c>
       <c r="L6">
-        <v>1.031920695486261</v>
+        <v>1.031911358108783</v>
       </c>
       <c r="M6">
-        <v>1.044707782188047</v>
+        <v>1.044685380245329</v>
       </c>
       <c r="N6">
-        <v>1.012378708390799</v>
+        <v>1.013933084473963</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043955593105515</v>
+        <v>1.04393786355411</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035120606075434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034856852729325</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020868243116944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005593215180544</v>
+        <v>1.005625222160304</v>
       </c>
       <c r="D7">
-        <v>1.023775721422193</v>
+        <v>1.023431839317025</v>
       </c>
       <c r="E7">
-        <v>1.02152453664257</v>
+        <v>1.021546003544925</v>
       </c>
       <c r="F7">
-        <v>1.034463505337221</v>
+        <v>1.034462711639257</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045087091161129</v>
+        <v>1.044954840118152</v>
       </c>
       <c r="J7">
-        <v>1.024848881331321</v>
+        <v>1.024880082146463</v>
       </c>
       <c r="K7">
-        <v>1.033592511138651</v>
+        <v>1.033252545229407</v>
       </c>
       <c r="L7">
-        <v>1.031367022356009</v>
+        <v>1.031388243565844</v>
       </c>
       <c r="M7">
-        <v>1.044160177284109</v>
+        <v>1.044159392393</v>
       </c>
       <c r="N7">
-        <v>1.01220971914043</v>
+        <v>1.01383489569346</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043522202475874</v>
+        <v>1.043521581289777</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034841498095513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034611748417503</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020806143846284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001150264066256</v>
+        <v>1.001335916197114</v>
       </c>
       <c r="D8">
-        <v>1.020971025397319</v>
+        <v>1.020821283229</v>
       </c>
       <c r="E8">
-        <v>1.018070114508989</v>
+        <v>1.018211956185632</v>
       </c>
       <c r="F8">
-        <v>1.031057913619988</v>
+        <v>1.031142463592611</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044432034754886</v>
+        <v>1.04438179887323</v>
       </c>
       <c r="J8">
-        <v>1.022725152145511</v>
+        <v>1.022905437212262</v>
       </c>
       <c r="K8">
-        <v>1.031874230225349</v>
+        <v>1.031726413871602</v>
       </c>
       <c r="L8">
-        <v>1.029010753739639</v>
+        <v>1.029150758833397</v>
       </c>
       <c r="M8">
-        <v>1.041832998709324</v>
+        <v>1.041916487971966</v>
       </c>
       <c r="N8">
-        <v>1.011487720839185</v>
+        <v>1.013353746953963</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041680402014227</v>
+        <v>1.041746478056824</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033631109483002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033537689844916</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020530392341726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9930258297744639</v>
+        <v>0.9934749704983884</v>
       </c>
       <c r="D9">
-        <v>1.015858791141646</v>
+        <v>1.016051351431832</v>
       </c>
       <c r="E9">
-        <v>1.011801321507186</v>
+        <v>1.012148732151481</v>
       </c>
       <c r="F9">
-        <v>1.024888666157561</v>
+        <v>1.025119525145828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043156375529175</v>
+        <v>1.043249738811771</v>
       </c>
       <c r="J9">
-        <v>1.018827290719532</v>
+        <v>1.01926026731361</v>
       </c>
       <c r="K9">
-        <v>1.028699705733939</v>
+        <v>1.028889266051297</v>
       </c>
       <c r="L9">
-        <v>1.024705788818077</v>
+        <v>1.025047732396943</v>
       </c>
       <c r="M9">
-        <v>1.03759044748951</v>
+        <v>1.037817790347458</v>
       </c>
       <c r="N9">
-        <v>1.010160554837109</v>
+        <v>1.012376476430423</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038322704846545</v>
+        <v>1.038502631998746</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031383284805441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031528137246316</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019995234065845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874570737772933</v>
+        <v>0.9881213622906656</v>
       </c>
       <c r="D10">
-        <v>1.012383716214621</v>
+        <v>1.012834015862041</v>
       </c>
       <c r="E10">
-        <v>1.007584115051199</v>
+        <v>1.008099244596884</v>
       </c>
       <c r="F10">
-        <v>1.020807844323216</v>
+        <v>1.021158225364135</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I10">
-        <v>1.042254355126903</v>
+        <v>1.042456482379588</v>
       </c>
       <c r="J10">
-        <v>1.016177331092169</v>
+        <v>1.016814328909735</v>
       </c>
       <c r="K10">
-        <v>1.0265329215921</v>
+        <v>1.026975351078204</v>
       </c>
       <c r="L10">
-        <v>1.02181777293449</v>
+        <v>1.022323788435415</v>
       </c>
       <c r="M10">
-        <v>1.034811302173716</v>
+        <v>1.035155688502103</v>
       </c>
       <c r="N10">
-        <v>1.009261268236197</v>
+        <v>1.011833745263709</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036174770166796</v>
+        <v>1.036447313370352</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029868149457072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030193476467118</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019628125137253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9854140516146923</v>
+        <v>0.9861967684718902</v>
       </c>
       <c r="D11">
-        <v>1.011170952702588</v>
+        <v>1.011738431187117</v>
       </c>
       <c r="E11">
-        <v>1.006402919162783</v>
+        <v>1.007009820333011</v>
       </c>
       <c r="F11">
-        <v>1.020181529012456</v>
+        <v>1.020596957517875</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042053156859298</v>
+        <v>1.042304831947672</v>
       </c>
       <c r="J11">
-        <v>1.015406469173451</v>
+        <v>1.016155269806992</v>
       </c>
       <c r="K11">
-        <v>1.025885231898586</v>
+        <v>1.026442321864514</v>
       </c>
       <c r="L11">
-        <v>1.021205087620278</v>
+        <v>1.021800741495693</v>
       </c>
       <c r="M11">
-        <v>1.034732629556725</v>
+        <v>1.035140625018749</v>
       </c>
       <c r="N11">
-        <v>1.009027669953339</v>
+        <v>1.011905082649419</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036549690550031</v>
+        <v>1.036872410107611</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029443288915313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029852898951734</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019554443278599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.984798630898123</v>
+        <v>0.9856195162153051</v>
       </c>
       <c r="D12">
-        <v>1.010825575368559</v>
+        <v>1.01142756699134</v>
       </c>
       <c r="E12">
-        <v>1.006200544083332</v>
+        <v>1.006836391043607</v>
       </c>
       <c r="F12">
-        <v>1.020366917696093</v>
+        <v>1.020802701139406</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042049193710231</v>
+        <v>1.042314835266694</v>
       </c>
       <c r="J12">
-        <v>1.015260570457037</v>
+        <v>1.016045204392628</v>
       </c>
       <c r="K12">
-        <v>1.025748272333569</v>
+        <v>1.026339059499492</v>
       </c>
       <c r="L12">
-        <v>1.021209907845113</v>
+        <v>1.021833778231177</v>
       </c>
       <c r="M12">
-        <v>1.035114052391291</v>
+        <v>1.035541919299736</v>
       </c>
       <c r="N12">
-        <v>1.00900080842361</v>
+        <v>1.011993585855014</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037178323576686</v>
+        <v>1.037516646297629</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029346452712539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029779889720295</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01955465091892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9852495435718084</v>
+        <v>0.9860387935818371</v>
       </c>
       <c r="D13">
-        <v>1.011136994439503</v>
+        <v>1.011704560902913</v>
       </c>
       <c r="E13">
-        <v>1.006747199284036</v>
+        <v>1.007357285091927</v>
       </c>
       <c r="F13">
-        <v>1.021209016126085</v>
+        <v>1.021626274292957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042207280776213</v>
+        <v>1.042457076473464</v>
       </c>
       <c r="J13">
-        <v>1.0155966011763</v>
+        <v>1.016351168697235</v>
       </c>
       <c r="K13">
-        <v>1.026010564794384</v>
+        <v>1.026567610908351</v>
       </c>
       <c r="L13">
-        <v>1.021702661605136</v>
+        <v>1.022301310462887</v>
       </c>
       <c r="M13">
-        <v>1.035898151830768</v>
+        <v>1.036307871329869</v>
       </c>
       <c r="N13">
-        <v>1.009135831448137</v>
+        <v>1.012068598446399</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0380752997768</v>
+        <v>1.038399191422785</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029529393380854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029938728297371</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019615195732895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9860478930470938</v>
+        <v>0.9867838916415769</v>
       </c>
       <c r="D14">
-        <v>1.011653586888189</v>
+        <v>1.012166330001022</v>
       </c>
       <c r="E14">
-        <v>1.007466354508074</v>
+        <v>1.008034126084485</v>
       </c>
       <c r="F14">
-        <v>1.02209228760931</v>
+        <v>1.022479402901705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042391054657062</v>
+        <v>1.042616591265807</v>
       </c>
       <c r="J14">
-        <v>1.016049341485562</v>
+        <v>1.01675345888563</v>
       </c>
       <c r="K14">
-        <v>1.026375714962527</v>
+        <v>1.026879070296092</v>
       </c>
       <c r="L14">
-        <v>1.022265612670754</v>
+        <v>1.022822876767279</v>
       </c>
       <c r="M14">
-        <v>1.036625703859929</v>
+        <v>1.037005917031906</v>
       </c>
       <c r="N14">
-        <v>1.009303540315611</v>
+        <v>1.012116068055851</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038823879022991</v>
+        <v>1.039124404711315</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029789005299256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030160512080576</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019685288223133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.986478813697523</v>
+        <v>0.9871872215151171</v>
       </c>
       <c r="D15">
-        <v>1.011927907413034</v>
+        <v>1.012412635753198</v>
       </c>
       <c r="E15">
-        <v>1.007814729658338</v>
+        <v>1.008360779629067</v>
       </c>
       <c r="F15">
-        <v>1.022469427052466</v>
+        <v>1.022841119627491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042474598483547</v>
+        <v>1.042687951687565</v>
       </c>
       <c r="J15">
-        <v>1.016270545558892</v>
+        <v>1.016948534176679</v>
       </c>
       <c r="K15">
-        <v>1.026557634858859</v>
+        <v>1.027033554951259</v>
       </c>
       <c r="L15">
-        <v>1.022519643992168</v>
+        <v>1.023055666443574</v>
       </c>
       <c r="M15">
-        <v>1.036910043003612</v>
+        <v>1.037275159805354</v>
       </c>
       <c r="N15">
-        <v>1.009381882284678</v>
+        <v>1.01212933985795</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039086180370115</v>
+        <v>1.039374766084363</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029923544670732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030276221580483</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019717395297431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9887423743485987</v>
+        <v>0.9893186517089771</v>
       </c>
       <c r="D16">
-        <v>1.013335068464428</v>
+        <v>1.01368446204833</v>
       </c>
       <c r="E16">
-        <v>1.009495517450606</v>
+        <v>1.009938435245411</v>
       </c>
       <c r="F16">
-        <v>1.024069923496139</v>
+        <v>1.024368552077273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042839763515157</v>
+        <v>1.042995364127729</v>
       </c>
       <c r="J16">
-        <v>1.017331634396626</v>
+        <v>1.017884396870741</v>
       </c>
       <c r="K16">
-        <v>1.02743167392405</v>
+        <v>1.027774992836535</v>
       </c>
       <c r="L16">
-        <v>1.023659237595888</v>
+        <v>1.024094379523631</v>
       </c>
       <c r="M16">
-        <v>1.037982331917436</v>
+        <v>1.03827590761476</v>
       </c>
       <c r="N16">
-        <v>1.009738118894985</v>
+        <v>1.012172290109896</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039894973954335</v>
+        <v>1.040127020705915</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030544721456827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030803941443035</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019857044626282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9900641148404251</v>
+        <v>0.9905748952659694</v>
       </c>
       <c r="D17">
-        <v>1.014147154692784</v>
+        <v>1.014426933117599</v>
       </c>
       <c r="E17">
-        <v>1.010410997055404</v>
+        <v>1.010803174442497</v>
       </c>
       <c r="F17">
-        <v>1.024830939395548</v>
+        <v>1.02509364608425</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043021754918151</v>
+        <v>1.043148123837506</v>
       </c>
       <c r="J17">
-        <v>1.017909542756722</v>
+        <v>1.018400147425277</v>
       </c>
       <c r="K17">
-        <v>1.027911598058602</v>
+        <v>1.028186647649407</v>
       </c>
       <c r="L17">
-        <v>1.02423891341651</v>
+        <v>1.024624399695232</v>
       </c>
       <c r="M17">
-        <v>1.038417162931406</v>
+        <v>1.03867554751335</v>
       </c>
       <c r="N17">
-        <v>1.009923808465685</v>
+        <v>1.012209630051174</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040109552829182</v>
+        <v>1.040313804331573</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030886658474341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031097855590288</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019928444712144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9906879225406423</v>
+        <v>0.9911747589005829</v>
       </c>
       <c r="D18">
-        <v>1.014507791587531</v>
+        <v>1.01476153246926</v>
       </c>
       <c r="E18">
-        <v>1.010719509757</v>
+        <v>1.011093632265867</v>
       </c>
       <c r="F18">
-        <v>1.024877398336123</v>
+        <v>1.025127318358003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043054444803882</v>
+        <v>1.043170431962153</v>
       </c>
       <c r="J18">
-        <v>1.01810740438861</v>
+        <v>1.018575369746599</v>
       </c>
       <c r="K18">
-        <v>1.028080713975893</v>
+        <v>1.028330236169182</v>
       </c>
       <c r="L18">
-        <v>1.024355740752404</v>
+        <v>1.024723583824064</v>
       </c>
       <c r="M18">
-        <v>1.038280101070885</v>
+        <v>1.038525973160561</v>
       </c>
       <c r="N18">
-        <v>1.009973097527585</v>
+        <v>1.012202754539397</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039763305523135</v>
+        <v>1.039957706530986</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030994510346795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031186524272156</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.0199414971938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.990686359907187</v>
+        <v>0.9911807707121715</v>
       </c>
       <c r="D19">
-        <v>1.014474016278902</v>
+        <v>1.014736982171942</v>
       </c>
       <c r="E19">
-        <v>1.010474314512818</v>
+        <v>1.010855146034094</v>
       </c>
       <c r="F19">
-        <v>1.024265880202991</v>
+        <v>1.024520594516072</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042959877027179</v>
+        <v>1.04308057880294</v>
       </c>
       <c r="J19">
-        <v>1.017969187294677</v>
+        <v>1.018444545978449</v>
       </c>
       <c r="K19">
-        <v>1.027984271046199</v>
+        <v>1.028242887928988</v>
       </c>
       <c r="L19">
-        <v>1.024051077138035</v>
+        <v>1.024425546905323</v>
       </c>
       <c r="M19">
-        <v>1.037616127843843</v>
+        <v>1.037866732297478</v>
       </c>
       <c r="N19">
-        <v>1.009904674960822</v>
+        <v>1.012140045277938</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038912390643749</v>
+        <v>1.039110598227592</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030932762243481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031131830461334</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019906049896682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9889197276943795</v>
+        <v>0.9895074411204137</v>
       </c>
       <c r="D20">
-        <v>1.01331154452952</v>
+        <v>1.013680373987297</v>
       </c>
       <c r="E20">
-        <v>1.008692394011611</v>
+        <v>1.009147475781357</v>
       </c>
       <c r="F20">
-        <v>1.021878758308911</v>
+        <v>1.022186407923528</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I20">
-        <v>1.042505073469843</v>
+        <v>1.042672102098866</v>
       </c>
       <c r="J20">
-        <v>1.016884559889145</v>
+        <v>1.017448912347479</v>
       </c>
       <c r="K20">
-        <v>1.027124296431353</v>
+        <v>1.027486861539219</v>
       </c>
       <c r="L20">
-        <v>1.022584100988233</v>
+        <v>1.023031362561775</v>
       </c>
       <c r="M20">
-        <v>1.035547504633604</v>
+        <v>1.035850040809142</v>
       </c>
       <c r="N20">
-        <v>1.009503576542399</v>
+        <v>1.011908378913903</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036746819981578</v>
+        <v>1.036986246372112</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030328665623919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030601620415794</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019728969735165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9846663382604349</v>
+        <v>0.9855176680664017</v>
       </c>
       <c r="D21">
-        <v>1.010651617643254</v>
+        <v>1.011288306107779</v>
       </c>
       <c r="E21">
-        <v>1.005414465566092</v>
+        <v>1.00607709312708</v>
       </c>
       <c r="F21">
-        <v>1.018609240697451</v>
+        <v>1.019064858746094</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041772506623885</v>
+        <v>1.042055962196587</v>
       </c>
       <c r="J21">
-        <v>1.014819443421047</v>
+        <v>1.015633621598047</v>
       </c>
       <c r="K21">
-        <v>1.025433963272728</v>
+        <v>1.026058928147673</v>
       </c>
       <c r="L21">
-        <v>1.020293980210041</v>
+        <v>1.020944240574101</v>
       </c>
       <c r="M21">
-        <v>1.03324642866923</v>
+        <v>1.033693824829562</v>
       </c>
       <c r="N21">
-        <v>1.008797420988535</v>
+        <v>1.011832140755527</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034884686482535</v>
+        <v>1.03523877324461</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029136767584972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029595580821937</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019452193820204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9819610831350344</v>
+        <v>0.9829793807593098</v>
       </c>
       <c r="D22">
-        <v>1.008961761915914</v>
+        <v>1.009768585422472</v>
       </c>
       <c r="E22">
-        <v>1.003359695515309</v>
+        <v>1.004153874606782</v>
       </c>
       <c r="F22">
-        <v>1.016594885123604</v>
+        <v>1.017144780304235</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041302163620736</v>
+        <v>1.041659721803722</v>
       </c>
       <c r="J22">
-        <v>1.013513960146778</v>
+        <v>1.014485239820295</v>
       </c>
       <c r="K22">
-        <v>1.024357750815316</v>
+        <v>1.025148977226028</v>
       </c>
       <c r="L22">
-        <v>1.018864888704192</v>
+        <v>1.019643489131127</v>
       </c>
       <c r="M22">
-        <v>1.031844609876868</v>
+        <v>1.032384078908606</v>
       </c>
       <c r="N22">
-        <v>1.008351599746475</v>
+        <v>1.011778201833007</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033775231292559</v>
+        <v>1.03420218876397</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028362216083855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028937287616247</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019273942109028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9833924791727443</v>
+        <v>0.9843108866919825</v>
       </c>
       <c r="D23">
-        <v>1.009849553503</v>
+        <v>1.010557921843148</v>
       </c>
       <c r="E23">
-        <v>1.004445704569785</v>
+        <v>1.00516099176343</v>
       </c>
       <c r="F23">
-        <v>1.017661047856299</v>
+        <v>1.018154373350633</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041548439161249</v>
+        <v>1.041862839562125</v>
       </c>
       <c r="J23">
-        <v>1.01420124003334</v>
+        <v>1.015078481781303</v>
       </c>
       <c r="K23">
-        <v>1.024920030254691</v>
+        <v>1.025615050416343</v>
       </c>
       <c r="L23">
-        <v>1.019618819993723</v>
+        <v>1.020320438375021</v>
       </c>
       <c r="M23">
-        <v>1.03258566755503</v>
+        <v>1.033069879552835</v>
       </c>
       <c r="N23">
-        <v>1.008585513019677</v>
+        <v>1.011762441920541</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034361734053568</v>
+        <v>1.034744958580585</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028750068181143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029256174838535</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019363543793088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.988938025934716</v>
+        <v>0.9895255307617746</v>
       </c>
       <c r="D24">
-        <v>1.013308799436815</v>
+        <v>1.013677463566171</v>
       </c>
       <c r="E24">
-        <v>1.008670479896214</v>
+        <v>1.009125511045269</v>
       </c>
       <c r="F24">
-        <v>1.021808905985115</v>
+        <v>1.022116535619118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042489515550403</v>
+        <v>1.042656618893042</v>
       </c>
       <c r="J24">
-        <v>1.016868649113377</v>
+        <v>1.01743283537743</v>
       </c>
       <c r="K24">
-        <v>1.027106160278905</v>
+        <v>1.027468570863311</v>
       </c>
       <c r="L24">
-        <v>1.022547024068279</v>
+        <v>1.022994245508225</v>
       </c>
       <c r="M24">
-        <v>1.035463559475862</v>
+        <v>1.035766081654578</v>
       </c>
       <c r="N24">
-        <v>1.009494537524615</v>
+        <v>1.011897328747305</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036639408497277</v>
+        <v>1.036878835769332</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03028823189304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030558407673881</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019721155478445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9951739719623737</v>
+        <v>0.9955440541771409</v>
       </c>
       <c r="D25">
-        <v>1.017217372513133</v>
+        <v>1.017313168646919</v>
       </c>
       <c r="E25">
-        <v>1.013453480496957</v>
+        <v>1.013739143811518</v>
       </c>
       <c r="F25">
-        <v>1.026510754993707</v>
+        <v>1.026697685816794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043507998491635</v>
+        <v>1.043560478039311</v>
       </c>
       <c r="J25">
-        <v>1.01986484994031</v>
+        <v>1.02022231488738</v>
       </c>
       <c r="K25">
-        <v>1.029554163623021</v>
+        <v>1.02964853613841</v>
       </c>
       <c r="L25">
-        <v>1.025846477601223</v>
+        <v>1.026127856495103</v>
       </c>
       <c r="M25">
-        <v>1.038711007189524</v>
+        <v>1.038895223770138</v>
       </c>
       <c r="N25">
-        <v>1.010515167855724</v>
+        <v>1.012605034787982</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039209554857962</v>
+        <v>1.039355350176974</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032016238382675</v>
+        <v>1.032096587147926</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020141957717465</v>
       </c>
     </row>
   </sheetData>
